--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85FD7C-2A20-4D19-BB19-31420AA5DF0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEA7AD-6D51-402B-8053-0F426CA95751}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Market</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Lakers win</t>
+  </si>
+  <si>
+    <t>Nuggets win</t>
   </si>
 </sst>
 </file>
@@ -85,19 +88,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,12 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,18 +438,18 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="53.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -504,7 +499,7 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -540,7 +535,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>43453</v>
       </c>
       <c r="B5" t="s">
@@ -561,7 +556,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>43453</v>
       </c>
       <c r="B6" t="s">
@@ -582,6 +577,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1.59</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EEA7AD-6D51-402B-8053-0F426CA95751}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FB5B5-3E14-4950-91C5-7DE1A13E6E0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="3" r:id="rId1"/>
+    <sheet name="Day by Day" sheetId="2" r:id="rId2"/>
+    <sheet name="Master" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Market</t>
   </si>
@@ -48,9 +50,6 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>PnL</t>
-  </si>
-  <si>
     <t>Betfair</t>
   </si>
   <si>
@@ -63,9 +62,6 @@
     <t>Bojan Bogdanovic Under (+15.5)</t>
   </si>
   <si>
-    <t>Jordan Clarkson Under 17.5</t>
-  </si>
-  <si>
     <t>Sportsbet</t>
   </si>
   <si>
@@ -79,22 +75,105 @@
   </si>
   <si>
     <t>Nuggets win</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lose</t>
+  </si>
+  <si>
+    <t>Net PL</t>
+  </si>
+  <si>
+    <t>Gross PL</t>
+  </si>
+  <si>
+    <t>Pelicans win</t>
+  </si>
+  <si>
+    <t>Julius Randle under 22.5</t>
+  </si>
+  <si>
+    <t>Jrue Holiday under 22.5</t>
+  </si>
+  <si>
+    <t>Marc Gasol over 15.5</t>
+  </si>
+  <si>
+    <t>Anthony Davis under 30.5</t>
+  </si>
+  <si>
+    <t>Number of bets</t>
+  </si>
+  <si>
+    <t>Amount invested</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
+  </si>
+  <si>
+    <t>Net profit</t>
+  </si>
+  <si>
+    <t>Nemanja Bjelica Under 10.5</t>
+  </si>
+  <si>
+    <t>Bets placed</t>
+  </si>
+  <si>
+    <t>Net Returns</t>
+  </si>
+  <si>
+    <t>Fees (% of gross)</t>
+  </si>
+  <si>
+    <t>Net Return</t>
+  </si>
+  <si>
+    <t>Cumulative Net Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,20 +192,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -136,6 +433,1075 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Day by Day'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Amount invested </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Day by Day'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Day by Day'!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C2D-450A-8344-F960F7673F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Day by Day'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Net profit </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Day by Day'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Day by Day'!$G$3:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.457499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1000000000000085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C2D-450A-8344-F960F7673F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="630811264"/>
+        <c:axId val="630813232"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Day by Day'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Cumulative Net Profit </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Day by Day'!$I$3:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.457499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.557500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C2D-450A-8344-F960F7673F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="746732096"/>
+        <c:axId val="746731440"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="630811264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630813232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="630813232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630811264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="746731440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746732096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="746732096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="746731440"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8425EA59-1F24-4D2F-B6C5-0C3B9048654E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,314 +1800,638 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
+  <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>8.4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(F2="", "", IF(F2="Win", E2*D2-E2, -E2))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="36">
+        <f>COUNTA(Master!A:A)-1</f>
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G31" si="0">IF(F3="", "", IF(F3="Win", E3*D3-E3, -E3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1.74</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>1.85</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>1.87</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1.59</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C3" s="23">
+        <f>SUM(Master!E:E)</f>
+        <v>105</v>
+      </c>
+      <c r="D3" s="23">
+        <f>SUM(Master!G:G)</f>
+        <v>46.000000000000007</v>
+      </c>
+      <c r="E3" s="23">
+        <f>SUM(Master!J:J)</f>
+        <v>45.557500000000005</v>
+      </c>
+      <c r="F3" s="37">
+        <f>E3/C3</f>
+        <v>0.43388095238095242</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="16" customWidth="1"/>
+    <col min="4" max="7" width="16.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="33">
+        <v>43452</v>
+      </c>
+      <c r="C3" s="28">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="29">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <f>IFERROR(G3/D3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
+        <f>SUM($G$3:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>43453</v>
+      </c>
+      <c r="C4" s="16">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B4)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="18">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B4)</f>
+        <v>35</v>
+      </c>
+      <c r="E4" s="18">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B4)</f>
+        <v>40.9</v>
+      </c>
+      <c r="F4" s="18">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B4)</f>
+        <v>-0.44250000000000012</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B4)</f>
+        <v>40.457499999999996</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H5" si="0">IFERROR(G4/D4,0)</f>
+        <v>1.1559285714285714</v>
+      </c>
+      <c r="I4" s="15">
+        <f>SUM($G$3:G4)</f>
+        <v>40.457499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>43456</v>
+      </c>
+      <c r="C5" s="16">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B5)</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="18">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B5)</f>
+        <v>70</v>
+      </c>
+      <c r="E5" s="18">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B5)</f>
+        <v>5.1000000000000085</v>
+      </c>
+      <c r="F5" s="18">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B5)</f>
+        <v>5.1000000000000085</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>7.2857142857142981E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>SUM($G$3:G5)</f>
+        <v>45.557500000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>43453</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8.4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">IF(F3="", 0, IF(F3="Win", E3*D3-E3, -E3))</f>
+        <v>37</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I13" si="1">-H3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J13" si="2">G3+I3</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>43453</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.0499999999999989</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="2"/>
+        <v>5.0499999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>43453</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.85</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="3">IF(F5="", 0, IF(F5="Win", E5*D5-E5, -E5))</f>
+        <v>-5</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>43453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>43453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>8.8500000000000014</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.44250000000000012</v>
+      </c>
+      <c r="J7" s="23">
+        <f t="shared" si="2"/>
+        <v>8.4075000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40">
+        <v>43456</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>43456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="2"/>
+        <v>17.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>43456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.87</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="2"/>
+        <v>8.7000000000000028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>43456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>43456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="41">
+        <v>43456</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="42">
+        <v>2.02</v>
+      </c>
+      <c r="E13" s="43">
+        <v>10</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3:F1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(F3&lt;&gt;"Win", F3&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>F3="Win"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FB5B5-3E14-4950-91C5-7DE1A13E6E0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2108AD-0E15-4AC7-91CA-A172EAD33E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Market</t>
   </si>
@@ -135,6 +135,78 @@
   </si>
   <si>
     <t>Cumulative Net Profit</t>
+  </si>
+  <si>
+    <t>Juan Hernangomez under 11.5</t>
+  </si>
+  <si>
+    <t>Deandre Ayton over 16.5</t>
+  </si>
+  <si>
+    <t>Pascal Siakam under 17.5</t>
+  </si>
+  <si>
+    <t>Fred VanVleet under 14.5</t>
+  </si>
+  <si>
+    <t>Trevor Ariza Under (13.5)</t>
+  </si>
+  <si>
+    <t>Joel Embiid Under (25.5)</t>
+  </si>
+  <si>
+    <t>Dwyane Wade Under (13.5)</t>
+  </si>
+  <si>
+    <t>Brook Lopez Under (4.5 REB)</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo Under (6.5 AST)</t>
+  </si>
+  <si>
+    <t>James Harden Under (33.5)</t>
+  </si>
+  <si>
+    <t>Eric Gordon Under (18.5)</t>
+  </si>
+  <si>
+    <t>Clint Capela Under (15.5)</t>
+  </si>
+  <si>
+    <t>PJ Tucker Under (9.5)</t>
+  </si>
+  <si>
+    <t>James Harden Under (6.5 rebounds)</t>
+  </si>
+  <si>
+    <t>Houston Win</t>
+  </si>
+  <si>
+    <t>Juancho Hernangomez Under (12.5)</t>
+  </si>
+  <si>
+    <t>Lou Williams Over (16.5)</t>
+  </si>
+  <si>
+    <t>Denver win</t>
+  </si>
+  <si>
+    <t>Stephen Curry Under (28.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Durant Over (5.5 AST) </t>
+  </si>
+  <si>
+    <t>Luka Doncic under 5.5 AST</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>Wizards win</t>
+  </si>
+  <si>
+    <t>Checked</t>
   </si>
 </sst>
 </file>
@@ -144,7 +216,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -295,9 +367,8 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -341,9 +412,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -370,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -396,13 +464,163 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -421,6 +639,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6969"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -495,6 +714,9 @@
                 <c:pt idx="2">
                   <c:v>43456</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -512,6 +734,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,6 +789,9 @@
                 <c:pt idx="2">
                   <c:v>43456</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43457</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -577,10 +805,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.457499999999996</c:v>
+                  <c:v>40.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.1000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,10 +874,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.457499999999996</c:v>
+                  <c:v>40.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.557500000000005</c:v>
+                  <c:v>45.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,6 +1064,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="746731440"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1815,42 +2050,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="23">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21">
         <f>SUM(Master!E:E)</f>
-        <v>105</v>
-      </c>
-      <c r="D3" s="23">
+        <v>237</v>
+      </c>
+      <c r="D3" s="21">
         <f>SUM(Master!G:G)</f>
-        <v>46.000000000000007</v>
-      </c>
-      <c r="E3" s="23">
+        <v>82.200000000000017</v>
+      </c>
+      <c r="E3" s="21">
         <f>SUM(Master!J:J)</f>
-        <v>45.557500000000005</v>
-      </c>
-      <c r="F3" s="37">
+        <v>81.250000000000014</v>
+      </c>
+      <c r="F3" s="35">
         <f>E3/C3</f>
-        <v>0.43388095238095242</v>
+        <v>0.34282700421940937</v>
       </c>
     </row>
   </sheetData>
@@ -1862,145 +2097,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="16" customWidth="1"/>
-    <col min="4" max="7" width="16.21875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="15" customWidth="1"/>
+    <col min="4" max="7" width="16.21875" style="17" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>43452</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <f>COUNTIF(Master!A:A,'Day by Day'!B3)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <f>IFERROR(G3/D3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="29">
         <f>SUM($G$3:G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>43453</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>COUNTIF(Master!A:A,'Day by Day'!B4)</f>
         <v>5</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B4)</f>
         <v>35</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B4)</f>
         <v>40.9</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B4)</f>
-        <v>-0.44250000000000012</v>
-      </c>
-      <c r="G4" s="18">
+        <v>-0.44</v>
+      </c>
+      <c r="G4" s="17">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B4)</f>
-        <v>40.457499999999996</v>
-      </c>
-      <c r="H4" s="14">
+        <v>40.46</v>
+      </c>
+      <c r="H4" s="13">
         <f t="shared" ref="H4:H5" si="0">IFERROR(G4/D4,0)</f>
-        <v>1.1559285714285714</v>
-      </c>
-      <c r="I4" s="15">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I4" s="14">
         <f>SUM($G$3:G4)</f>
-        <v>40.457499999999996</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>43456</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>COUNTIF(Master!A:A,'Day by Day'!B5)</f>
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B5)</f>
         <v>70</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B5)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B5)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>7.2857142857142981E-2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>SUM($G$3:G5)</f>
-        <v>45.557500000000005</v>
+        <v>45.560000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="15"/>
+      <c r="B6" s="16">
+        <v>43457</v>
+      </c>
+      <c r="C6" s="15">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B6)</f>
+        <v>22</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B6)</f>
+        <v>132</v>
+      </c>
+      <c r="E6" s="17">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B6)</f>
+        <v>36.199999999999996</v>
+      </c>
+      <c r="F6" s="17">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B6)</f>
+        <v>-0.51</v>
+      </c>
+      <c r="G6" s="17">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B6)</f>
+        <v>35.69</v>
+      </c>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6" si="1">IFERROR(G6/D6,0)</f>
+        <v>0.27037878787878789</v>
+      </c>
+      <c r="I6" s="14">
+        <f>SUM($G$3:G6)</f>
+        <v>81.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,61 +2276,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="36" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="15"/>
+    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
         <v>43453</v>
       </c>
       <c r="B3" t="s">
@@ -2074,30 +2343,33 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>8.4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">IF(F3="", 0, IF(F3="Win", E3*D3-E3, -E3))</f>
         <v>37</v>
       </c>
-      <c r="I3" s="15">
-        <f t="shared" ref="I3:I13" si="1">-H3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I26" si="1">ROUND(-H3*G3, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f t="shared" ref="J3:J13" si="2">G3+I3</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
         <v>43453</v>
       </c>
       <c r="B4" t="s">
@@ -2106,30 +2378,33 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>5.0499999999999989</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <f t="shared" si="2"/>
         <v>5.0499999999999989</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
         <v>43453</v>
       </c>
       <c r="B5" t="s">
@@ -2138,30 +2413,33 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.85</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" si="3">IF(F5="", 0, IF(F5="Win", E5*D5-E5, -E5))</f>
         <v>-5</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
         <v>43453</v>
       </c>
       <c r="B6" t="s">
@@ -2170,30 +2448,33 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>1.87</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
         <v>43453</v>
       </c>
       <c r="B7" t="s">
@@ -2202,65 +2483,72 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1.59</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
         <v>8.8500000000000014</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="47">
         <v>0.05</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>-0.44250000000000012</v>
-      </c>
-      <c r="J7" s="23">
+        <v>-0.44</v>
+      </c>
+      <c r="J7" s="21">
         <f t="shared" si="2"/>
-        <v>8.4075000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+        <v>8.4100000000000019</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
         <v>43456</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>3.15</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="I8" s="26">
+      <c r="H8" s="4"/>
+      <c r="I8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
         <v>43456</v>
       </c>
       <c r="B9" t="s">
@@ -2269,30 +2557,33 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1.87</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>20</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
         <v>17.400000000000006</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f t="shared" si="2"/>
         <v>17.400000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
         <v>43456</v>
       </c>
       <c r="B10" t="s">
@@ -2301,30 +2592,33 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1.87</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
         <v>8.7000000000000028</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f t="shared" si="2"/>
         <v>8.7000000000000028</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
         <v>43456</v>
       </c>
       <c r="B11" t="s">
@@ -2333,30 +2627,33 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
         <v>43456</v>
       </c>
       <c r="B12" t="s">
@@ -2365,70 +2662,861 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1.9</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
         <v>43456</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="40">
         <v>2.02</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>10</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>-10</v>
       </c>
-      <c r="I13" s="23">
+      <c r="H13" s="42"/>
+      <c r="I13" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="43">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="21"/>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G29" si="4">IF(F14="", 0, IF(F14="Win", E14*D14-E14, -E14))</f>
+        <v>4.75</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J29" si="5">G14+I14</f>
+        <v>4.75</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="5"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="5"/>
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="5"/>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="5"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="5"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="E25" s="7">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="5"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="E27" s="7">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="H27" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="14">
+        <f>ROUND(-H27*G27, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="5"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" ref="I28:I35" si="6">ROUND(-H28*G28, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="E29" s="7">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="E30" s="7">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:G31" si="7">IF(F30="", 0, IF(F30="Win", E30*D30-E30, -E30))</f>
+        <v>4.5499999999999989</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" ref="J30:J31" si="8">G30+I30</f>
+        <v>4.5499999999999989</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G35" si="9">IF(F32="", 0, IF(F32="Win", E32*D32-E32, -E32))</f>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" ref="J32:J35" si="10">G32+I32</f>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E33" s="7">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>5.35</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="10"/>
+        <v>5.35</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="E34" s="7">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="10"/>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="36">
+        <v>43457</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="E35" s="7">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H35" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="10"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(F3&lt;&gt;"Win", F3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>F3="Win"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Ladbrokes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2108AD-0E15-4AC7-91CA-A172EAD33E3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC86624-1E9A-4620-90EA-58EFC589A38E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
     <sheet name="Day by Day" sheetId="2" r:id="rId2"/>
-    <sheet name="Master" sheetId="1" r:id="rId3"/>
+    <sheet name="Exchange" sheetId="4" r:id="rId3"/>
+    <sheet name="Master" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$K$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>Market</t>
   </si>
@@ -207,6 +211,75 @@
   </si>
   <si>
     <t>Checked</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon under 8.5</t>
+  </si>
+  <si>
+    <t>Andre Drummond over 15.5 REB</t>
+  </si>
+  <si>
+    <t>Hassan Whitesode over 11.5</t>
+  </si>
+  <si>
+    <t>Aaron Gordon under 3.5 assists</t>
+  </si>
+  <si>
+    <t>DJ Augustin under 4.5 assists</t>
+  </si>
+  <si>
+    <t>Luka Doncic over 18.5</t>
+  </si>
+  <si>
+    <t>Luka Doncic over 5.5 REB</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma under 18.5</t>
+  </si>
+  <si>
+    <t>Marc Gasol under 9.5 REB</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma under 6.5 REB</t>
+  </si>
+  <si>
+    <t>Lonzo Ball over 4.5 AST</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic under 12.5 REB</t>
+  </si>
+  <si>
+    <t>Tobias Harris under 21.5</t>
+  </si>
+  <si>
+    <t>Danilo Galinari under 19.5</t>
+  </si>
+  <si>
+    <t>Josh Richardson under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Starting Capital</t>
+  </si>
+  <si>
+    <t>Injections</t>
+  </si>
+  <si>
+    <t>Winnings</t>
+  </si>
+  <si>
+    <t>Current balance</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Win %</t>
   </si>
 </sst>
 </file>
@@ -218,7 +291,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +320,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -361,13 +441,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -474,13 +580,32 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -505,20 +630,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -531,107 +642,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -680,7 +696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Day by Day'!$D$2</c:f>
+              <c:f>'Day by Day'!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -701,7 +717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Day by Day'!$B$3:$B$16</c:f>
+              <c:f>'Day by Day'!$B$19:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
@@ -717,12 +733,15 @@
                 <c:pt idx="3">
                   <c:v>43457</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>43458</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$D$3:$D$16</c:f>
+              <c:f>'Day by Day'!$D$19:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -738,6 +757,9 @@
                 <c:pt idx="3">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -752,7 +774,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Day by Day'!$G$2</c:f>
+              <c:f>'Day by Day'!$G$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -776,7 +798,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Day by Day'!$B$3:$B$16</c:f>
+              <c:f>'Day by Day'!$B$19:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
@@ -792,12 +814,15 @@
                 <c:pt idx="3">
                   <c:v>43457</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>43458</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$G$3:$G$16</c:f>
+              <c:f>'Day by Day'!$G$19:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -812,6 +837,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.950000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +871,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Day by Day'!$I$2</c:f>
+              <c:f>'Day by Day'!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,7 +894,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$I$3:$I$16</c:f>
+              <c:f>'Day by Day'!$I$19:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -881,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,16 +1733,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2036,11 +2067,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2049,7 +2078,7 @@
     <col min="4" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
         <v>29</v>
       </c>
@@ -2065,27 +2094,48 @@
       <c r="F2" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="34">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="21">
         <f>SUM(Master!E:E)</f>
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="D3" s="21">
         <f>SUM(Master!G:G)</f>
-        <v>82.200000000000017</v>
+        <v>94.15000000000002</v>
       </c>
       <c r="E3" s="21">
         <f>SUM(Master!J:J)</f>
-        <v>81.250000000000014</v>
+        <v>93.200000000000017</v>
       </c>
       <c r="F3" s="35">
         <f>E3/C3</f>
-        <v>0.34282700421940937</v>
+        <v>0.28944099378881993</v>
+      </c>
+      <c r="G3" s="61">
+        <f>COUNTIF(Master!$F:$F, G2)</f>
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
+        <f>COUNTIF(Master!$F:$F, H2)</f>
+        <v>19</v>
+      </c>
+      <c r="I3" s="35">
+        <f>G3/SUM(G3:H3)</f>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -2095,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B18:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,164 +2157,198 @@
     <col min="3" max="3" width="16.21875" style="15" customWidth="1"/>
     <col min="4" max="7" width="16.21875" style="17" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I18" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="31">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
         <v>43452</v>
       </c>
-      <c r="C3" s="26">
-        <f>COUNTIF(Master!A:A,'Day by Day'!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="27">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
-        <f>IFERROR(G3/D3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="29">
-        <f>SUM($G$3:G3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="16">
+      <c r="C19" s="26">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28">
+        <f>IFERROR(G19/D19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <f>SUM($G$19:G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
         <v>43453</v>
       </c>
-      <c r="C4" s="15">
-        <f>COUNTIF(Master!A:A,'Day by Day'!B4)</f>
-        <v>5</v>
-      </c>
-      <c r="D4" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B4)</f>
+      <c r="C20" s="15">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B20)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="17">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B20)</f>
         <v>35</v>
       </c>
-      <c r="E4" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B4)</f>
+      <c r="E20" s="17">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B20)</f>
         <v>40.9</v>
       </c>
-      <c r="F4" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B4)</f>
+      <c r="F20" s="17">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B20)</f>
         <v>-0.44</v>
       </c>
-      <c r="G4" s="17">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B4)</f>
+      <c r="G20" s="17">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B20)</f>
         <v>40.46</v>
       </c>
-      <c r="H4" s="13">
-        <f t="shared" ref="H4:H5" si="0">IFERROR(G4/D4,0)</f>
+      <c r="H20" s="13">
+        <f t="shared" ref="H20:H21" si="0">IFERROR(G20/D20,0)</f>
         <v>1.1559999999999999</v>
       </c>
-      <c r="I4" s="14">
-        <f>SUM($G$3:G4)</f>
+      <c r="I20" s="14">
+        <f>SUM($G$19:G20)</f>
         <v>40.46</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
         <v>43456</v>
       </c>
-      <c r="C5" s="15">
-        <f>COUNTIF(Master!A:A,'Day by Day'!B5)</f>
+      <c r="C21" s="15">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B21)</f>
         <v>6</v>
       </c>
-      <c r="D5" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B5)</f>
+      <c r="D21" s="17">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B21)</f>
         <v>70</v>
       </c>
-      <c r="E5" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B5)</f>
+      <c r="E21" s="17">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B21)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="F5" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B5)</f>
+      <c r="F21" s="17">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B21)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
         <v>7.2857142857142981E-2</v>
       </c>
-      <c r="I5" s="14">
-        <f>SUM($G$3:G5)</f>
+      <c r="I21" s="14">
+        <f>SUM($G$19:G21)</f>
         <v>45.560000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="16">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
         <v>43457</v>
       </c>
-      <c r="C6" s="15">
-        <f>COUNTIF(Master!A:A,'Day by Day'!B6)</f>
+      <c r="C22" s="15">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B22)</f>
         <v>22</v>
       </c>
-      <c r="D6" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B6)</f>
+      <c r="D22" s="17">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B22)</f>
         <v>132</v>
       </c>
-      <c r="E6" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B6)</f>
+      <c r="E22" s="17">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B22)</f>
         <v>36.199999999999996</v>
       </c>
-      <c r="F6" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B6)</f>
+      <c r="F22" s="17">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B22)</f>
         <v>-0.51</v>
       </c>
-      <c r="G6" s="17">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B6)</f>
+      <c r="G22" s="17">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B22)</f>
         <v>35.69</v>
       </c>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6" si="1">IFERROR(G6/D6,0)</f>
+      <c r="H22" s="13">
+        <f t="shared" ref="H22" si="1">IFERROR(G22/D22,0)</f>
         <v>0.27037878787878789</v>
       </c>
-      <c r="I6" s="14">
-        <f>SUM($G$3:G6)</f>
+      <c r="I22" s="14">
+        <f>SUM($G$19:G22)</f>
         <v>81.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>43458</v>
+      </c>
+      <c r="C23" s="15">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B23)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" s="17">
+        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B23)</f>
+        <v>85</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B23)</f>
+        <v>11.950000000000003</v>
+      </c>
+      <c r="F23" s="17">
+        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B23)</f>
+        <v>11.950000000000003</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" ref="H23" si="2">IFERROR(G23/D23,0)</f>
+        <v>0.14058823529411768</v>
+      </c>
+      <c r="I23" s="14">
+        <f>SUM($G$19:G23)</f>
+        <v>93.2</v>
       </c>
     </row>
   </sheetData>
@@ -2275,12 +2359,140 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="52">
+        <v>118.71</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52">
+        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B3)</f>
+        <v>35</v>
+      </c>
+      <c r="F3" s="53">
+        <f t="shared" ref="F3:F6" si="0">SUM(C3:E3)</f>
+        <v>153.70999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="52">
+        <v>325</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52">
+        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B4)</f>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F4" s="53">
+        <f t="shared" si="0"/>
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="52">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D5" s="52">
+        <v>50</v>
+      </c>
+      <c r="E5" s="52">
+        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B5)</f>
+        <v>21.900000000000006</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="0"/>
+        <v>106.10000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="54">
+        <f t="shared" ref="C6:E6" si="1">SUM(C3:C5)</f>
+        <v>477.90999999999997</v>
+      </c>
+      <c r="D6" s="54">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="54">
+        <f t="shared" si="1"/>
+        <v>93.2</v>
+      </c>
+      <c r="F6" s="55">
+        <f t="shared" si="0"/>
+        <v>621.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="59" t="b">
+        <f>E6=Overall!E3</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="60" t="b">
+        <f>F6=SUM(C3:E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E7:F7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,10 +2507,10 @@
     <col min="9" max="10" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>43453</v>
       </c>
@@ -2367,8 +2579,9 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>43453</v>
       </c>
@@ -2402,8 +2615,9 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>43453</v>
       </c>
@@ -2437,8 +2651,9 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>43453</v>
       </c>
@@ -2472,8 +2687,9 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>43453</v>
       </c>
@@ -2510,8 +2726,9 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>43456</v>
       </c>
@@ -2546,8 +2763,9 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>43456</v>
       </c>
@@ -2581,8 +2799,9 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>43456</v>
       </c>
@@ -2616,8 +2835,9 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>43456</v>
       </c>
@@ -2651,8 +2871,9 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>43456</v>
       </c>
@@ -2686,8 +2907,9 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>43456</v>
       </c>
@@ -2722,8 +2944,9 @@
       <c r="K13" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>43457</v>
       </c>
@@ -2757,8 +2980,9 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>43457</v>
       </c>
@@ -2792,8 +3016,9 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>43457</v>
       </c>
@@ -2827,8 +3052,9 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>43457</v>
       </c>
@@ -2862,8 +3088,9 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>43457</v>
       </c>
@@ -2897,8 +3124,9 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>43457</v>
       </c>
@@ -2932,8 +3160,9 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>43457</v>
       </c>
@@ -2967,8 +3196,9 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>43457</v>
       </c>
@@ -3002,8 +3232,9 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>43457</v>
       </c>
@@ -3037,8 +3268,9 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>43457</v>
       </c>
@@ -3072,8 +3304,9 @@
       <c r="K23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>43457</v>
       </c>
@@ -3107,8 +3340,9 @@
       <c r="K24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="36">
         <v>43457</v>
       </c>
@@ -3142,8 +3376,9 @@
       <c r="K25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="36">
         <v>43457</v>
       </c>
@@ -3177,8 +3412,9 @@
       <c r="K26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="36">
         <v>43457</v>
       </c>
@@ -3215,8 +3451,9 @@
       <c r="K27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="36">
         <v>43457</v>
       </c>
@@ -3250,8 +3487,9 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="36">
         <v>43457</v>
       </c>
@@ -3285,8 +3523,9 @@
       <c r="K29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="36">
         <v>43457</v>
       </c>
@@ -3320,8 +3559,9 @@
       <c r="K30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
         <v>43457</v>
       </c>
@@ -3355,8 +3595,9 @@
       <c r="K31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="36">
         <v>43457</v>
       </c>
@@ -3390,8 +3631,9 @@
       <c r="K32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="36">
         <v>43457</v>
       </c>
@@ -3425,8 +3667,9 @@
       <c r="K33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="36">
         <v>43457</v>
       </c>
@@ -3460,8 +3703,9 @@
       <c r="K34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="36">
         <v>43457</v>
       </c>
@@ -3498,25 +3742,639 @@
       <c r="K35" t="b">
         <v>1</v>
       </c>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>43458</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="49">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E36" s="9">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36:G52" si="11">IF(F36="", 0, IF(F36="Win", E36*D36-E36, -E36))</f>
+        <v>5.25</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="24">
+        <f t="shared" ref="I36:I52" si="12">ROUND(-H36*G36, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" ref="J36:J52" si="13">G36+I36</f>
+        <v>5.25</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="13"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="13"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="E41" s="7">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="11"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="13"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="E42" s="7">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="11"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="13"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="11"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="13"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="E46" s="7">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E48" s="7">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="11"/>
+        <v>4.75</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="13"/>
+        <v>4.75</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E50" s="7">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E51" s="7">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="14"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="E52" s="7">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(F3&lt;&gt;"Win", F3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>F3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Betfair"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Ladbrokes"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Ladbrokes"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC86624-1E9A-4620-90EA-58EFC589A38E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51087028-3CA7-4D69-A5E8-1B58A62572EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Master" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$K$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
   <si>
     <t>Market</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Number of bets</t>
   </si>
   <si>
-    <t>Amount invested</t>
-  </si>
-  <si>
     <t>Gross profit</t>
   </si>
   <si>
@@ -280,6 +277,78 @@
   </si>
   <si>
     <t>Win %</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr. Under 22.5</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Kevin Knox under 16.5</t>
+  </si>
+  <si>
+    <t>Khris Middleton over 17.5</t>
+  </si>
+  <si>
+    <t>Eric bledsoe under 4.5 REB</t>
+  </si>
+  <si>
+    <t>Kevin Knox under 6.5 REB</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay under 3.5 REB</t>
+  </si>
+  <si>
+    <t>Khris Middleton under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr. Under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay under 5.5 AST</t>
+  </si>
+  <si>
+    <t>Jerami Grant over 11.5</t>
+  </si>
+  <si>
+    <t>James Harden under 32.5</t>
+  </si>
+  <si>
+    <t>PJ Tucker under 6.5 REB</t>
+  </si>
+  <si>
+    <t>Edge ($)</t>
+  </si>
+  <si>
+    <t>Ben Simmons under 9.5 REB</t>
+  </si>
+  <si>
+    <t>Jae Crowder under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Damian Lillard over 5.5 AST</t>
+  </si>
+  <si>
+    <t>Rudy Gobert under 2.5 AST</t>
+  </si>
+  <si>
+    <t>Ricky Rubio under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Expected profit</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Amount bet</t>
   </si>
 </sst>
 </file>
@@ -336,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -467,13 +536,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -482,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -520,9 +606,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -558,17 +641,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,28 +654,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -606,6 +729,16 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -638,16 +771,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,7 +823,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Amount invested </c:v>
+                  <c:v> Amount bet </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -736,6 +859,9 @@
                 <c:pt idx="4">
                   <c:v>43458</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -759,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,6 +946,9 @@
                 <c:pt idx="4">
                   <c:v>43458</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -840,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,6 +1047,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2079,63 +2219,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="32">
+        <f>COUNTA(Master!A:A)-1</f>
+        <v>68</v>
+      </c>
+      <c r="C3" s="20">
+        <f>SUM(Master!F:F)</f>
+        <v>462</v>
+      </c>
+      <c r="D3" s="20">
+        <f>SUM(Master!J:J)</f>
+        <v>104.35000000000001</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SUM(Master!M:M)</f>
+        <v>103.40000000000002</v>
+      </c>
+      <c r="F3" s="33">
+        <f>E3/C3</f>
+        <v>0.22380952380952385</v>
+      </c>
+      <c r="G3" s="51">
+        <f>COUNTIF(Master!$I:$I, G2)</f>
+        <v>41</v>
+      </c>
+      <c r="H3" s="2">
+        <f>COUNTIF(Master!$I:$I, H2)</f>
         <v>27</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="34">
-        <f>COUNTA(Master!A:A)-1</f>
-        <v>50</v>
-      </c>
-      <c r="C3" s="21">
-        <f>SUM(Master!E:E)</f>
-        <v>322</v>
-      </c>
-      <c r="D3" s="21">
-        <f>SUM(Master!G:G)</f>
-        <v>94.15000000000002</v>
-      </c>
-      <c r="E3" s="21">
-        <f>SUM(Master!J:J)</f>
-        <v>93.200000000000017</v>
-      </c>
-      <c r="F3" s="35">
-        <f>E3/C3</f>
-        <v>0.28944099378881993</v>
-      </c>
-      <c r="G3" s="61">
-        <f>COUNTIF(Master!$F:$F, G2)</f>
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <f>COUNTIF(Master!$F:$F, H2)</f>
-        <v>19</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.62</v>
+        <v>0.6029411764705882</v>
       </c>
     </row>
   </sheetData>
@@ -2145,210 +2285,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:I23"/>
+  <dimension ref="B18:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="15" customWidth="1"/>
-    <col min="4" max="7" width="16.21875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="14" customWidth="1"/>
+    <col min="4" max="7" width="16.21875" style="16" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="31">
+      <c r="B19" s="29">
         <v>43452</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <f>COUNTIF(Master!A:A,'Day by Day'!B19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="27">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="27">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B19)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="D19" s="25">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="28">
+      <c r="F19" s="25">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
         <f>IFERROR(G19/D19,0)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="27">
         <f>SUM($G$19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>43453</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>COUNTIF(Master!A:A,'Day by Day'!B20)</f>
         <v>5</v>
       </c>
-      <c r="D20" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B20)</f>
+      <c r="D20" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B20)</f>
         <v>35</v>
       </c>
-      <c r="E20" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B20)</f>
+      <c r="E20" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B20)</f>
         <v>40.9</v>
       </c>
-      <c r="F20" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B20)</f>
+      <c r="F20" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B20)</f>
         <v>-0.44</v>
       </c>
-      <c r="G20" s="17">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B20)</f>
+      <c r="G20" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B20)</f>
         <v>40.46</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f t="shared" ref="H20:H21" si="0">IFERROR(G20/D20,0)</f>
         <v>1.1559999999999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f>SUM($G$19:G20)</f>
         <v>40.46</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>43456</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f>COUNTIF(Master!A:A,'Day by Day'!B21)</f>
         <v>6</v>
       </c>
-      <c r="D21" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B21)</f>
+      <c r="D21" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B21)</f>
         <v>70</v>
       </c>
-      <c r="E21" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B21)</f>
-        <v>5.1000000000000085</v>
-      </c>
-      <c r="F21" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="E21" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B21)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="H21" s="13">
+      <c r="F21" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B21)</f>
+        <v>5.1000000000000085</v>
+      </c>
+      <c r="H21" s="12">
         <f t="shared" si="0"/>
         <v>7.2857142857142981E-2</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <f>SUM($G$19:G21)</f>
         <v>45.560000000000009</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>43457</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>COUNTIF(Master!A:A,'Day by Day'!B22)</f>
         <v>22</v>
       </c>
-      <c r="D22" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B22)</f>
+      <c r="D22" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B22)</f>
         <v>132</v>
       </c>
-      <c r="E22" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B22)</f>
+      <c r="E22" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B22)</f>
         <v>36.199999999999996</v>
       </c>
-      <c r="F22" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B22)</f>
+      <c r="F22" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B22)</f>
         <v>-0.51</v>
       </c>
-      <c r="G22" s="17">
-        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B22)</f>
+      <c r="G22" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B22)</f>
         <v>35.69</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <f t="shared" ref="H22" si="1">IFERROR(G22/D22,0)</f>
         <v>0.27037878787878789</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f>SUM($G$19:G22)</f>
         <v>81.25</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>43458</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f>COUNTIF(Master!A:A,'Day by Day'!B23)</f>
         <v>17</v>
       </c>
-      <c r="D23" s="17">
-        <f>SUMIFS(Master!E:E,Master!A:A, 'Day by Day'!B23)</f>
+      <c r="D23" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B23)</f>
         <v>85</v>
       </c>
-      <c r="E23" s="17">
-        <f>SUMIFS(Master!G:G,Master!A:A,'Day by Day'!B23)</f>
-        <v>11.950000000000003</v>
-      </c>
-      <c r="F23" s="17">
-        <f>SUMIFS(Master!I:I,Master!A:A,'Day by Day'!B23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="E23" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B23)</f>
         <v>11.950000000000003</v>
       </c>
-      <c r="H23" s="13">
+      <c r="F23" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B23)</f>
+        <v>11.950000000000003</v>
+      </c>
+      <c r="H23" s="12">
         <f t="shared" ref="H23" si="2">IFERROR(G23/D23,0)</f>
         <v>0.14058823529411768</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <f>SUM($G$19:G23)</f>
         <v>93.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>43460</v>
+      </c>
+      <c r="C24" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B24)</f>
+        <v>18</v>
+      </c>
+      <c r="D24" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B24)</f>
+        <v>140</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B24)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F24" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B24)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24" si="3">IFERROR(G24/D24,0)</f>
+        <v>7.2857142857142856E-2</v>
+      </c>
+      <c r="I24" s="13">
+        <f>SUM($G$19:G24)</f>
+        <v>103.4</v>
       </c>
     </row>
   </sheetData>
@@ -2360,125 +2533,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="G2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="H2" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="J2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="78">
+        <v>118.71</v>
+      </c>
+      <c r="D3" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B3)</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B3)</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" ref="F3:F5" si="0">SUMIFS(L:L,K:K, B3)-SUMIFS(M:M,K:K,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B3)</f>
+        <v>35</v>
+      </c>
+      <c r="H3" s="78">
+        <f t="shared" ref="H3:H5" si="1">SUM(C3,F3,G3)</f>
+        <v>153.70999999999998</v>
+      </c>
+      <c r="J3" s="75">
+        <v>43460</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="78">
+        <v>325</v>
+      </c>
+      <c r="D4" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
+        <v>220</v>
+      </c>
+      <c r="E4" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B4)</f>
+        <v>37</v>
+      </c>
+      <c r="F4" s="45">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="G4" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
+        <v>67.149999999999991</v>
+      </c>
+      <c r="H4" s="78">
+        <f t="shared" si="1"/>
+        <v>292.14999999999998</v>
+      </c>
+      <c r="J4" s="75">
+        <v>43456</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="78">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D5" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
+        <v>182</v>
+      </c>
+      <c r="E5" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B5)</f>
+        <v>24</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G5" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
+        <v>1.2500000000000071</v>
+      </c>
+      <c r="H5" s="78">
+        <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
+        <v>85.450000000000017</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="52">
-        <v>118.71</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52">
-        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B3)</f>
-        <v>35</v>
-      </c>
-      <c r="F3" s="53">
-        <f t="shared" ref="F3:F6" si="0">SUM(C3:E3)</f>
-        <v>153.70999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="52">
-        <v>325</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52">
-        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B4)</f>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="F4" s="53">
-        <f t="shared" si="0"/>
-        <v>361.3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="52">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D5" s="52">
-        <v>50</v>
-      </c>
-      <c r="E5" s="52">
-        <f>SUMIFS(Master!J:J, Master!B:B,Exchange!B5)</f>
-        <v>21.900000000000006</v>
-      </c>
-      <c r="F5" s="53">
-        <f t="shared" si="0"/>
-        <v>106.10000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="79">
+        <f t="shared" ref="C6:G6" si="3">SUM(C3:C5)</f>
+        <v>477.90999999999997</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="47">
+        <f t="shared" si="3"/>
+        <v>-50</v>
+      </c>
+      <c r="G6" s="79">
+        <f t="shared" si="3"/>
+        <v>103.4</v>
+      </c>
+      <c r="H6" s="79">
+        <f t="shared" si="2"/>
+        <v>531.30999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="54">
-        <f t="shared" ref="C6:E6" si="1">SUM(C3:C5)</f>
-        <v>477.90999999999997</v>
-      </c>
-      <c r="D6" s="54">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E6" s="54">
-        <f t="shared" si="1"/>
-        <v>93.2</v>
-      </c>
-      <c r="F6" s="55">
-        <f t="shared" si="0"/>
-        <v>621.11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="59" t="b">
-        <f>E6=Overall!E3</f>
+      <c r="G7" s="82" t="b">
+        <f>G6=Overall!E3</f>
         <v>1</v>
       </c>
-      <c r="F7" s="60" t="b">
-        <f>F6=SUM(C3:E5)</f>
+      <c r="H7" s="81" t="b">
+        <f>H6=SUM(C3:C5,F3:G5)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:F7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2488,65 +2737,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="34" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="14"/>
+    <col min="4" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
+    <col min="7" max="7" width="8.88671875" style="61"/>
+    <col min="8" max="8" width="15.21875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="8.88671875" style="69"/>
+    <col min="11" max="11" width="15" style="70" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="45"/>
+    <col min="13" max="13" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="J2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="M2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="34">
         <v>43453</v>
       </c>
       <c r="B3" t="s">
@@ -2555,34 +2823,34 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>8.4</v>
       </c>
-      <c r="E3" s="7">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">IF(F3="", 0, IF(F3="Win", E3*D3-E3, -E3))</f>
+      <c r="J3" s="69">
+        <f t="shared" ref="J3:J34" si="0">IF(I3="", 0, IF(I3="Win", F3*D3-F3, -F3))</f>
         <v>37</v>
       </c>
-      <c r="I3" s="14">
-        <f t="shared" ref="I3:I26" si="1">ROUND(-H3*G3, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J13" si="2">G3+I3</f>
+      <c r="L3" s="45">
+        <f t="shared" ref="L3:L26" si="1">ROUND(-K3*J3, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="46">
+        <f t="shared" ref="M3:M13" si="2">J3+L3</f>
         <v>37</v>
       </c>
-      <c r="K3" t="b">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
         <v>43453</v>
       </c>
       <c r="B4" t="s">
@@ -2591,34 +2859,34 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E4" s="7">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>5.0499999999999989</v>
       </c>
-      <c r="I4" s="14">
+      <c r="L4" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="M4" s="46">
         <f t="shared" si="2"/>
         <v>5.0499999999999989</v>
       </c>
-      <c r="K4" t="b">
+      <c r="N4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
         <v>43453</v>
       </c>
       <c r="B5" t="s">
@@ -2627,34 +2895,34 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1.85</v>
       </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G13" si="3">IF(F5="", 0, IF(F5="Win", E5*D5-E5, -E5))</f>
+      <c r="J5" s="69">
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="I5" s="14">
+      <c r="L5" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="14">
+      <c r="M5" s="46">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="K5" t="b">
+      <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>43453</v>
       </c>
       <c r="B6" t="s">
@@ -2663,1717 +2931,2518 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.87</v>
       </c>
-      <c r="E6" s="7">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="J6" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L6" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="46">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>43453</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="69">
+        <f t="shared" si="0"/>
+        <v>8.8500000000000014</v>
+      </c>
+      <c r="K7" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="45">
+        <f t="shared" si="1"/>
+        <v>-0.44</v>
+      </c>
+      <c r="M7" s="72">
+        <f t="shared" si="2"/>
+        <v>8.4100000000000019</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>43456</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="65">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="46">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <v>43456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="69">
+        <f t="shared" si="0"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="L9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="46">
+        <f t="shared" si="2"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>43456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="69">
+        <f t="shared" si="0"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L10" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="46">
+        <f t="shared" si="2"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>43456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="69">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="L11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>43456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="69">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="73">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37">
+        <v>43456</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="56">
+        <v>2.02</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="38">
+        <v>10</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="51">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="74">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="69">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="L14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="46">
+        <f t="shared" ref="M14:M29" si="3">J14+L14</f>
+        <v>4.75</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="69">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="L15" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="46">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="69">
+        <f t="shared" si="0"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L16" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="46">
+        <f t="shared" si="3"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L17" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="46">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="I6" s="14">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L18" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="14">
-        <f t="shared" si="2"/>
+      <c r="M18" s="46">
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="K6" t="b">
+      <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>43453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.59</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="J19" s="69">
+        <f t="shared" si="0"/>
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="L19" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="46">
+        <f t="shared" si="3"/>
+        <v>3.9499999999999993</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="J20" s="69">
+        <f t="shared" si="0"/>
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="L20" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
         <f t="shared" si="3"/>
-        <v>8.8500000000000014</v>
-      </c>
-      <c r="H7" s="47">
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="69">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="L21" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L22" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="46">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="69">
+        <f t="shared" si="0"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="L23" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="46">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L24" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="46">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="69">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="69">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="46">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="69">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="K27" s="71">
         <v>0.05</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" si="1"/>
-        <v>-0.44</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" si="2"/>
-        <v>8.4100000000000019</v>
-      </c>
-      <c r="K7" t="b">
+      <c r="L27" s="45">
+        <f>ROUND(-K27*J27, 2)</f>
+        <v>-0.26</v>
+      </c>
+      <c r="M27" s="46">
+        <f t="shared" si="3"/>
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="N27" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>43456</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3.15</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="69">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" ref="L28:L35" si="4">ROUND(-K28*J28, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="46">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L29" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="46">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="C30" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="69">
+        <f t="shared" si="0"/>
+        <v>4.5499999999999989</v>
+      </c>
+      <c r="L30" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="46">
+        <f t="shared" ref="M30:M31" si="5">J30+L30</f>
+        <v>4.5499999999999989</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
-        <v>43456</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.87</v>
-      </c>
-      <c r="E9" s="7">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>17.400000000000006</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="2"/>
-        <v>17.400000000000006</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
-        <v>43456</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.87</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="2"/>
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
-        <v>43456</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>43456</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39">
-        <v>43456</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="40">
-        <v>2.02</v>
-      </c>
-      <c r="E13" s="41">
-        <v>10</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="43">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="E14" s="7">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G29" si="4">IF(F14="", 0, IF(F14="Win", E14*D14-E14, -E14))</f>
-        <v>4.75</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <f t="shared" ref="J14:J29" si="5">G14+I14</f>
-        <v>4.75</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
+      <c r="J31" s="69">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="L31" s="45">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="5"/>
-        <v>-10</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="E16" s="7">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
-        <f t="shared" si="5"/>
-        <v>8.7000000000000028</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="46">
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="K17" t="b">
+      <c r="N31" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
         <v>43457</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C32" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5">
         <v>1.87</v>
       </c>
-      <c r="E18" s="7">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="69">
+        <f t="shared" si="0"/>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="L32" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" ref="M32:M35" si="6">J32+L32</f>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="69">
+        <f t="shared" si="0"/>
+        <v>5.35</v>
+      </c>
+      <c r="L33" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="46">
+        <f t="shared" si="6"/>
+        <v>5.35</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F34" s="6">
+        <v>7</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="69">
+        <f t="shared" si="0"/>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="L34" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="46">
+        <f t="shared" si="6"/>
+        <v>8.0499999999999989</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="34">
+        <v>43457</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="69">
+        <f t="shared" ref="J35:J66" si="7">IF(I35="", 0, IF(I35="Win", F35*D35-F35, -F35))</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K35" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L35" s="45">
+        <f t="shared" si="4"/>
+        <v>-0.25</v>
+      </c>
+      <c r="M35" s="46">
+        <f t="shared" si="6"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36">
+        <v>43458</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8">
+        <v>5</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="65">
+        <f t="shared" si="7"/>
+        <v>5.25</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="22">
+        <f t="shared" ref="L36:L53" si="8">ROUND(-K36*J36, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="66">
+        <f t="shared" ref="M36:M53" si="9">J36+L36</f>
+        <v>5.25</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1.79</v>
-      </c>
-      <c r="E19" s="7">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>3.9499999999999993</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="5"/>
-        <v>3.9499999999999993</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="E20" s="7">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>5.7000000000000011</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="5"/>
-        <v>5.7000000000000011</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1.78</v>
-      </c>
-      <c r="E21" s="7">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="5"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1.82</v>
-      </c>
-      <c r="E22" s="7">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1.86</v>
-      </c>
-      <c r="E23" s="7">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="5"/>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1.94</v>
-      </c>
-      <c r="E24" s="7">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="5"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.74</v>
-      </c>
-      <c r="E26" s="7">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>3.6999999999999993</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="5"/>
-        <v>3.6999999999999993</v>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1.52</v>
-      </c>
-      <c r="E27" s="7">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="H27" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="I27" s="14">
-        <f>ROUND(-H27*G27, 2)</f>
-        <v>-0.26</v>
-      </c>
-      <c r="J27" s="14">
-        <f t="shared" si="5"/>
-        <v>4.9399999999999995</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1.74</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>3.6999999999999993</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" ref="I28:I35" si="6">ROUND(-H28*G28, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="5"/>
-        <v>3.6999999999999993</v>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1.79</v>
-      </c>
-      <c r="E29" s="7">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="14">
-        <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1.91</v>
-      </c>
-      <c r="E30" s="7">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G31" si="7">IF(F30="", 0, IF(F30="Win", E30*D30-E30, -E30))</f>
-        <v>4.5499999999999989</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" ref="J30:J31" si="8">G30+I30</f>
-        <v>4.5499999999999989</v>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E31" s="7">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31">
+      <c r="J37" s="69">
         <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-      <c r="I31" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14">
+      <c r="L37" s="45">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="46">
+        <f t="shared" si="9"/>
         <v>-5</v>
       </c>
-      <c r="K31" t="b">
+      <c r="N37" t="b">
         <v>1</v>
       </c>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C38" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="69">
+        <f t="shared" si="7"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="L38" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="46">
+        <f t="shared" si="9"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L39" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="69">
+        <f t="shared" si="7"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L40" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="46">
+        <f t="shared" si="9"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="69">
+        <f t="shared" si="7"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="L41" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="46">
+        <f t="shared" si="9"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="69">
+        <f t="shared" si="7"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L42" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="46">
+        <f t="shared" si="9"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="F43" s="6">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="69">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="L43" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="46">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="F44" s="6">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="69">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L44" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="46">
+        <f t="shared" si="9"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="69">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L45" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="46">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L46" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="69">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L47" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="46">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F48" s="6">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="69">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="L48" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="46">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="5">
         <v>1.87</v>
       </c>
-      <c r="E32" s="7">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="F49" s="6">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L49" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F51" s="6">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L51" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <v>43458</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="46">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" s="20"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36">
+        <v>43460</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="8">
+        <v>5</v>
+      </c>
+      <c r="G53" s="57">
+        <f t="shared" ref="G53:G70" si="10">D53/E53-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H53" s="58">
+        <f t="shared" ref="H53:H70" si="11">F53*G53</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G35" si="9">IF(F32="", 0, IF(F32="Win", E32*D32-E32, -E32))</f>
-        <v>4.3500000000000014</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" ref="J32:J35" si="10">G32+I32</f>
-        <v>4.3500000000000014</v>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="J53" s="65">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="66">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="F54" s="6">
         <v>15</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="9"/>
-        <v>5.35</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="G54" s="61">
         <f t="shared" si="10"/>
-        <v>5.35</v>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B34" t="s">
+        <v>0.36054421768707479</v>
+      </c>
+      <c r="H54" s="62">
+        <f t="shared" si="11"/>
+        <v>5.408163265306122</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="69">
+        <f t="shared" si="7"/>
+        <v>-15</v>
+      </c>
+      <c r="L54" s="45">
+        <f t="shared" ref="L54:L71" si="12">ROUND(-K54*J54, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="46">
+        <f t="shared" ref="M54:M71" si="13">J54+L54</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="E34" s="7">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="9"/>
-        <v>8.0499999999999989</v>
-      </c>
-      <c r="I34" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
+      <c r="C55" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5</v>
+      </c>
+      <c r="G55" s="61">
         <f t="shared" si="10"/>
-        <v>8.0499999999999989</v>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
-        <v>43457</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.49</v>
-      </c>
-      <c r="E35" s="7">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H35" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="I35" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.25</v>
-      </c>
-      <c r="J35" s="14">
-        <f t="shared" si="10"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
-        <v>43458</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="49">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E36" s="9">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ref="G36:G52" si="11">IF(F36="", 0, IF(F36="Win", E36*D36-E36, -E36))</f>
-        <v>5.25</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="24">
-        <f t="shared" ref="I36:I52" si="12">ROUND(-H36*G36, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <f t="shared" ref="J36:J52" si="13">G36+I36</f>
-        <v>5.25</v>
-      </c>
-      <c r="K36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="5">
-        <v>1.91</v>
-      </c>
-      <c r="E37" s="7">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3" t="s">
+        <v>0.20858895705521485</v>
+      </c>
+      <c r="H55" s="62">
+        <f t="shared" si="11"/>
+        <v>1.0429447852760743</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="11"/>
+      <c r="J55" s="69">
+        <f t="shared" si="7"/>
         <v>-5</v>
       </c>
-      <c r="I37" s="14">
+      <c r="L55" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J37" s="14">
+      <c r="M55" s="46">
         <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1.78</v>
-      </c>
-      <c r="E38" s="7">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F56" s="6">
+        <v>5</v>
+      </c>
+      <c r="G56" s="61">
+        <f t="shared" si="10"/>
+        <v>0.19871794871794868</v>
+      </c>
+      <c r="H56" s="62">
         <f t="shared" si="11"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="I38" s="14">
+        <v>0.99358974358974339</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L56" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J38" s="14">
-        <f t="shared" si="13"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1.65</v>
-      </c>
-      <c r="E39" s="7">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I39" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="M56" s="46">
         <f t="shared" si="13"/>
         <v>-5</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F57" s="6">
+        <v>15</v>
+      </c>
+      <c r="G57" s="61">
+        <f t="shared" si="10"/>
+        <v>0.48760330578512412</v>
+      </c>
+      <c r="H57" s="62">
+        <f t="shared" si="11"/>
+        <v>7.3140495867768616</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="69">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L57" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="46">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C58" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="F58" s="6">
+        <v>15</v>
+      </c>
+      <c r="G58" s="61">
+        <f t="shared" si="10"/>
+        <v>0.33093525179856131</v>
+      </c>
+      <c r="H58" s="62">
+        <f t="shared" si="11"/>
+        <v>4.9640287769784202</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="69">
+        <f t="shared" si="7"/>
+        <v>12.75</v>
+      </c>
+      <c r="L58" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="46">
+        <f t="shared" si="13"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5</v>
+      </c>
+      <c r="G59" s="61">
+        <f t="shared" si="10"/>
+        <v>0.20805369127516782</v>
+      </c>
+      <c r="H59" s="62">
+        <f t="shared" si="11"/>
+        <v>1.0402684563758391</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="69">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L59" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="46">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>5</v>
+      </c>
+      <c r="G60" s="61">
+        <f t="shared" si="10"/>
+        <v>0.20666666666666678</v>
+      </c>
+      <c r="H60" s="62">
+        <f t="shared" si="11"/>
+        <v>1.0333333333333339</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="69">
+        <f t="shared" si="7"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="L60" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="46">
+        <f t="shared" si="13"/>
+        <v>4.0500000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="F61" s="6">
+        <v>10</v>
+      </c>
+      <c r="G61" s="61">
+        <f t="shared" si="10"/>
+        <v>0.31746031746031744</v>
+      </c>
+      <c r="H61" s="62">
+        <f t="shared" si="11"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="69">
+        <f t="shared" si="7"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="L61" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="46">
+        <f t="shared" si="13"/>
+        <v>6.5999999999999979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F62" s="6">
+        <v>10</v>
+      </c>
+      <c r="G62" s="61">
+        <f t="shared" si="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="H62" s="62">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="69">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+      <c r="L62" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="46">
+        <f t="shared" si="13"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="6">
+        <v>5</v>
+      </c>
+      <c r="G63" s="61">
+        <f t="shared" si="10"/>
+        <v>0.24666666666666681</v>
+      </c>
+      <c r="H63" s="62">
+        <f t="shared" si="11"/>
+        <v>1.2333333333333341</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="69">
+        <f t="shared" si="7"/>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="L63" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="46">
+        <f t="shared" si="13"/>
+        <v>4.3500000000000014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F64" s="6">
+        <v>5</v>
+      </c>
+      <c r="G64" s="61">
+        <f t="shared" si="10"/>
+        <v>0.26623376623376616</v>
+      </c>
+      <c r="H64" s="62">
+        <f t="shared" si="11"/>
+        <v>1.3311688311688308</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L64" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="46">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1.59</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5</v>
+      </c>
+      <c r="G65" s="61">
+        <f t="shared" si="10"/>
+        <v>0.24528301886792447</v>
+      </c>
+      <c r="H65" s="62">
+        <f t="shared" si="11"/>
+        <v>1.2264150943396224</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L65" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="46">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F66" s="6">
+        <v>5</v>
+      </c>
+      <c r="G66" s="61">
+        <f t="shared" si="10"/>
+        <v>0.19871794871794868</v>
+      </c>
+      <c r="H66" s="62">
+        <f t="shared" si="11"/>
+        <v>0.99358974358974339</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="69">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="L66" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="46">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="F67" s="6">
+        <v>5</v>
+      </c>
+      <c r="G67" s="61">
+        <f t="shared" si="10"/>
+        <v>0.25563909774436078</v>
+      </c>
+      <c r="H67" s="62">
+        <f t="shared" si="11"/>
+        <v>1.2781954887218039</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="69">
+        <f t="shared" ref="J67:J98" si="14">IF(I67="", 0, IF(I67="Win", F67*D67-F67, -F67))</f>
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="L67" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="46">
+        <f t="shared" si="13"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F68" s="6">
+        <v>5</v>
+      </c>
+      <c r="G68" s="61">
+        <f t="shared" si="10"/>
+        <v>0.23076923076923062</v>
+      </c>
+      <c r="H68" s="62">
+        <f t="shared" si="11"/>
+        <v>1.1538461538461531</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="69">
+        <f t="shared" si="14"/>
+        <v>-5</v>
+      </c>
+      <c r="L68" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="46">
+        <f t="shared" si="13"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F69" s="6">
+        <v>15</v>
+      </c>
+      <c r="G69" s="61">
+        <f t="shared" si="10"/>
+        <v>0.30399999999999983</v>
+      </c>
+      <c r="H69" s="62">
+        <f t="shared" si="11"/>
+        <v>4.5599999999999969</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="69">
+        <f t="shared" si="14"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="L69" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="46">
+        <f t="shared" si="13"/>
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="34">
+        <v>43460</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="5">
         <v>1.93</v>
       </c>
-      <c r="E40" s="7">
-        <v>5</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E70" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F70" s="6">
+        <v>5</v>
+      </c>
+      <c r="G70" s="61">
+        <f t="shared" si="10"/>
+        <v>0.25324675324675328</v>
+      </c>
+      <c r="H70" s="62">
+        <f t="shared" si="11"/>
+        <v>1.2662337662337664</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="11"/>
+      <c r="J70" s="69">
+        <f t="shared" si="14"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="I40" s="14">
+      <c r="L70" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J40" s="14">
+      <c r="M70" s="46">
         <f t="shared" si="13"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1.94</v>
-      </c>
-      <c r="E41" s="7">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="11"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="I41" s="14">
+      <c r="Q70">
+        <f>PRODUCT(P53:P70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L71" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J41" s="14">
+      <c r="M71" s="46">
         <f t="shared" si="13"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1.82</v>
-      </c>
-      <c r="E42" s="7">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="11"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I42" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="14">
-        <f t="shared" si="13"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="E43" s="7">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-      <c r="I43" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="14">
-        <f t="shared" si="13"/>
-        <v>4.5</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="E44" s="7">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="11"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I44" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="14">
-        <f t="shared" si="13"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="I45" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="14">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="E46" s="7">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I46" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="14">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="5">
-        <v>2</v>
-      </c>
-      <c r="E47" s="7">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="I47" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="14">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="E48" s="7">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="11"/>
-        <v>4.75</v>
-      </c>
-      <c r="I48" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="14">
-        <f t="shared" si="13"/>
-        <v>4.75</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="E49" s="7">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I49" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="E50" s="7">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I50" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="E51" s="7">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I51" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="14">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="36">
-        <v>43458</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="E52" s="7">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-      <c r="I52" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="14">
-        <f t="shared" si="13"/>
-        <v>-5</v>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" s="14"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(F3&lt;&gt;"Win", F3&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="I3:I1048576">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>F3="Win"</formula>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51087028-3CA7-4D69-A5E8-1B58A62572EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B7E33-0FB2-4308-AD50-27B2AD15B076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
   <dimension ref="B2:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B7E33-0FB2-4308-AD50-27B2AD15B076}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB9551-31F3-41D6-A388-5984133899B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
     <sheet name="Day by Day" sheetId="2" r:id="rId2"/>
-    <sheet name="Exchange" sheetId="4" r:id="rId3"/>
-    <sheet name="Master" sheetId="1" r:id="rId4"/>
+    <sheet name="Master" sheetId="1" r:id="rId3"/>
+    <sheet name="Exchange" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Master!$A$2:$N$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="114">
   <si>
     <t>Market</t>
   </si>
@@ -349,6 +349,36 @@
   </si>
   <si>
     <t>Amount bet</t>
+  </si>
+  <si>
+    <t>Khris Middleton under 17.5</t>
+  </si>
+  <si>
+    <t>Brook Lopez over 12.5</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon over 14.5</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma under 24.5</t>
+  </si>
+  <si>
+    <t>Brandon Ingram under 19.5</t>
+  </si>
+  <si>
+    <t>Ivica Zubac under 13.5</t>
+  </si>
+  <si>
+    <t>Lonzo Ball under 12.5</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic under 15.5</t>
+  </si>
+  <si>
+    <t>Ricky Rubio under 13.5</t>
+  </si>
+  <si>
+    <t>LAL SAC Total points over 229.5</t>
   </si>
 </sst>
 </file>
@@ -562,7 +592,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -722,20 +752,35 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -771,6 +816,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -862,6 +917,9 @@
                 <c:pt idx="5">
                   <c:v>43460</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -888,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,6 +1010,9 @@
                 <c:pt idx="5">
                   <c:v>43460</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -975,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-52.780000000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,6 +1117,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>103.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.61999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2247,35 +2317,35 @@
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>462</v>
+        <v>827</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>104.35000000000001</v>
+        <v>53.000000000000014</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>103.40000000000002</v>
+        <v>50.620000000000026</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>0.22380952380952385</v>
+        <v>6.120918984280535E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.6029411764705882</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
   </sheetData>
@@ -2285,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:I24"/>
+  <dimension ref="B18:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2524,6 +2594,39 @@
         <v>103.4</v>
       </c>
     </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>43462</v>
+      </c>
+      <c r="C25" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B25)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B25)</f>
+        <v>365</v>
+      </c>
+      <c r="E25" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B25)</f>
+        <v>-51.350000000000009</v>
+      </c>
+      <c r="F25" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B25)</f>
+        <v>-1.43</v>
+      </c>
+      <c r="G25" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B25)</f>
+        <v>-52.780000000000015</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" ref="H25" si="4">IFERROR(G25/D25,0)</f>
+        <v>-0.14460273972602744</v>
+      </c>
+      <c r="I25" s="13">
+        <f>SUM($G$19:G25)</f>
+        <v>50.61999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2532,216 +2635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="78">
-        <v>118.71</v>
-      </c>
-      <c r="D3" s="78">
-        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B3)</f>
-        <v>60</v>
-      </c>
-      <c r="E3" s="80">
-        <f>COUNTIF(Master!B:B,Exchange!B3)</f>
-        <v>7</v>
-      </c>
-      <c r="F3" s="45">
-        <f t="shared" ref="F3:F5" si="0">SUMIFS(L:L,K:K, B3)-SUMIFS(M:M,K:K,B3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="78">
-        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B3)</f>
-        <v>35</v>
-      </c>
-      <c r="H3" s="78">
-        <f t="shared" ref="H3:H5" si="1">SUM(C3,F3,G3)</f>
-        <v>153.70999999999998</v>
-      </c>
-      <c r="J3" s="75">
-        <v>43460</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="78">
-        <v>325</v>
-      </c>
-      <c r="D4" s="78">
-        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>220</v>
-      </c>
-      <c r="E4" s="80">
-        <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>37</v>
-      </c>
-      <c r="F4" s="45">
-        <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="G4" s="78">
-        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>67.149999999999991</v>
-      </c>
-      <c r="H4" s="78">
-        <f t="shared" si="1"/>
-        <v>292.14999999999998</v>
-      </c>
-      <c r="J4" s="75">
-        <v>43456</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="78">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D5" s="78">
-        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>182</v>
-      </c>
-      <c r="E5" s="80">
-        <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>24</v>
-      </c>
-      <c r="F5" s="45">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G5" s="78">
-        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>1.2500000000000071</v>
-      </c>
-      <c r="H5" s="78">
-        <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>85.450000000000017</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="79">
-        <f t="shared" ref="C6:G6" si="3">SUM(C3:C5)</f>
-        <v>477.90999999999997</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="47">
-        <f t="shared" si="3"/>
-        <v>-50</v>
-      </c>
-      <c r="G6" s="79">
-        <f t="shared" si="3"/>
-        <v>103.4</v>
-      </c>
-      <c r="H6" s="79">
-        <f t="shared" si="2"/>
-        <v>531.30999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="82" t="b">
-        <f>G6=Overall!E3</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="81" t="b">
-        <f>H6=SUM(C3:C5,F3:G5)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q71"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4655,11 +4554,11 @@
         <v>5</v>
       </c>
       <c r="G53" s="57">
-        <f t="shared" ref="G53:G70" si="10">D53/E53-1</f>
+        <f t="shared" ref="G53:G84" si="10">D53/E53-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="H53" s="58">
-        <f t="shared" ref="H53:H70" si="11">F53*G53</f>
+        <f t="shared" ref="H53:H84" si="11">F53*G53</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -5271,7 +5170,7 @@
         <v>15</v>
       </c>
       <c r="J67" s="69">
-        <f t="shared" ref="J67:J98" si="14">IF(I67="", 0, IF(I67="Win", F67*D67-F67, -F67))</f>
+        <f t="shared" ref="J67:J70" si="14">IF(I67="", 0, IF(I67="Win", F67*D67-F67, -F67))</f>
         <v>3.3499999999999996</v>
       </c>
       <c r="L67" s="45">
@@ -5369,84 +5268,1002 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="34">
+    <row r="70" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37">
         <v>43460</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="56">
         <v>1.93</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="56">
         <v>1.54</v>
       </c>
-      <c r="F70" s="6">
-        <v>5</v>
-      </c>
-      <c r="G70" s="61">
+      <c r="F70" s="38">
+        <v>5</v>
+      </c>
+      <c r="G70" s="63">
         <f t="shared" si="10"/>
         <v>0.25324675324675328</v>
       </c>
-      <c r="H70" s="62">
+      <c r="H70" s="64">
         <f t="shared" si="11"/>
         <v>1.2662337662337664</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="69">
+      <c r="J70" s="51">
         <f t="shared" si="14"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="L70" s="45">
+      <c r="K70" s="39"/>
+      <c r="L70" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M70" s="46">
+      <c r="M70" s="72">
         <f t="shared" si="13"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="2">
         <f>PRODUCT(P53:P70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F71" s="6">
+        <v>10</v>
+      </c>
+      <c r="G71" s="61">
+        <f t="shared" si="10"/>
+        <v>0.16025641025641035</v>
+      </c>
+      <c r="H71" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6025641025641035</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="69">
+        <f t="shared" ref="J71" si="15">IF(I71="", 0, IF(I71="Win", F71*D71-F71, -F71))</f>
+        <v>-10</v>
+      </c>
       <c r="L71" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M71" s="46">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F72" s="6">
+        <v>10</v>
+      </c>
+      <c r="G72" s="61">
+        <f t="shared" si="10"/>
+        <v>0.19230769230769229</v>
+      </c>
+      <c r="H72" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="69">
+        <f t="shared" ref="J72:J86" si="16">IF(I72="", 0, IF(I72="Win", F72*D72-F72, -F72))</f>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="L72" s="45">
+        <f t="shared" ref="L72:L86" si="17">ROUND(-K72*J72, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="46">
+        <f t="shared" ref="M72:M86" si="18">J72+L72</f>
+        <v>8.6000000000000014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F73" s="6">
+        <v>10</v>
+      </c>
+      <c r="G73" s="61">
+        <f t="shared" si="10"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H73" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="69">
+        <f t="shared" si="16"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L73" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="46">
+        <f t="shared" si="18"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="F74" s="6">
+        <v>10</v>
+      </c>
+      <c r="G74" s="61">
+        <f t="shared" si="10"/>
+        <v>0.18115942028985499</v>
+      </c>
+      <c r="H74" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8115942028985499</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="69">
+        <f t="shared" si="16"/>
+        <v>6.2999999999999972</v>
+      </c>
+      <c r="L74" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="46">
+        <f t="shared" si="18"/>
+        <v>6.2999999999999972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F75" s="6">
+        <v>20</v>
+      </c>
+      <c r="G75" s="61">
+        <f t="shared" si="10"/>
+        <v>0.38016528925619841</v>
+      </c>
+      <c r="H75" s="62">
+        <f t="shared" si="11"/>
+        <v>7.6033057851239683</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="69">
+        <f t="shared" si="16"/>
+        <v>-20</v>
+      </c>
+      <c r="L75" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="46">
+        <f t="shared" si="18"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="F76" s="6">
+        <v>50</v>
+      </c>
+      <c r="G76" s="61">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H76" s="62">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="69">
+        <f t="shared" si="16"/>
+        <v>-50</v>
+      </c>
+      <c r="L76" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="46">
+        <f t="shared" si="18"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="F77" s="6">
+        <v>50</v>
+      </c>
+      <c r="G77" s="61">
+        <f t="shared" si="10"/>
+        <v>0.55813953488372081</v>
+      </c>
+      <c r="H77" s="62">
+        <f t="shared" si="11"/>
+        <v>27.906976744186039</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="69">
+        <f t="shared" si="16"/>
+        <v>-50</v>
+      </c>
+      <c r="L77" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="46">
+        <f t="shared" si="18"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F78" s="6">
+        <v>50</v>
+      </c>
+      <c r="G78" s="61">
+        <f t="shared" si="10"/>
+        <v>0.46280991735537191</v>
+      </c>
+      <c r="H78" s="62">
+        <f t="shared" si="11"/>
+        <v>23.140495867768596</v>
+      </c>
+      <c r="I78" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="69">
+        <f t="shared" si="16"/>
+        <v>38.5</v>
+      </c>
+      <c r="L78" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="46">
+        <f t="shared" si="18"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="F79" s="6">
+        <v>50</v>
+      </c>
+      <c r="G79" s="61">
+        <f t="shared" si="10"/>
+        <v>0.3839999999999999</v>
+      </c>
+      <c r="H79" s="62">
+        <f t="shared" si="11"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="69">
+        <f t="shared" si="16"/>
+        <v>-50</v>
+      </c>
+      <c r="L79" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="46">
+        <f t="shared" si="18"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="F80" s="6">
+        <v>10</v>
+      </c>
+      <c r="G80" s="61">
+        <f t="shared" si="10"/>
+        <v>0.19594594594594605</v>
+      </c>
+      <c r="H80" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9594594594594605</v>
+      </c>
+      <c r="I80" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="69">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="L80" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="46">
+        <f t="shared" si="18"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F81" s="6">
+        <v>20</v>
+      </c>
+      <c r="G81" s="61">
+        <f t="shared" si="10"/>
+        <v>0.34374999999999978</v>
+      </c>
+      <c r="H81" s="62">
+        <f t="shared" si="11"/>
+        <v>6.8749999999999956</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="69">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="L81" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="46">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="F82" s="6">
+        <v>10</v>
+      </c>
+      <c r="G82" s="61">
+        <f t="shared" si="10"/>
+        <v>0.18243243243243246</v>
+      </c>
+      <c r="H82" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8243243243243246</v>
+      </c>
+      <c r="I82" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="69">
+        <f t="shared" si="16"/>
+        <v>7.5</v>
+      </c>
+      <c r="L82" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="46">
+        <f t="shared" si="18"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="F83" s="6">
+        <v>10</v>
+      </c>
+      <c r="G83" s="61">
+        <f t="shared" si="10"/>
+        <v>0.26623376623376616</v>
+      </c>
+      <c r="H83" s="62">
+        <f t="shared" si="11"/>
+        <v>2.6623376623376616</v>
+      </c>
+      <c r="I83" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="69">
+        <f t="shared" si="16"/>
+        <v>9.5</v>
+      </c>
+      <c r="L83" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="46">
+        <f t="shared" si="18"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="F84" s="6">
+        <v>10</v>
+      </c>
+      <c r="G84" s="61">
+        <f t="shared" si="10"/>
+        <v>0.2635135135135136</v>
+      </c>
+      <c r="H84" s="62">
+        <f t="shared" si="11"/>
+        <v>2.635135135135136</v>
+      </c>
+      <c r="I84" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="69">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="L84" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="46">
+        <f t="shared" si="18"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F85" s="6">
+        <v>30</v>
+      </c>
+      <c r="G85" s="61">
+        <f t="shared" ref="G85:G86" si="19">D85/E85-1</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H85" s="62">
+        <f t="shared" ref="H85:H86" si="20">F85*G85</f>
+        <v>2.4999999999999978</v>
+      </c>
+      <c r="I85" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="69">
+        <f t="shared" si="16"/>
+        <v>28.5</v>
+      </c>
+      <c r="K85" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L85" s="45">
+        <f t="shared" si="17"/>
+        <v>-1.43</v>
+      </c>
+      <c r="M85" s="46">
+        <f t="shared" si="18"/>
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="34">
+        <v>43462</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F86" s="6">
+        <v>15</v>
+      </c>
+      <c r="G86" s="61">
+        <f t="shared" si="19"/>
+        <v>0.35624999999999996</v>
+      </c>
+      <c r="H86" s="62">
+        <f t="shared" si="20"/>
+        <v>5.3437499999999991</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="69">
+        <f t="shared" si="16"/>
+        <v>17.549999999999997</v>
+      </c>
+      <c r="L86" s="45">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="46">
+        <f t="shared" si="18"/>
+        <v>17.549999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B87" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I1048576">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="B1:B72 B74:B1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Ladbrokes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
+  <dimension ref="B2:M7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="78">
+        <v>118.71</v>
+      </c>
+      <c r="D3" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B3)</f>
+        <v>90</v>
+      </c>
+      <c r="E3" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B3)</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" ref="F3:F5" si="0">SUMIFS(L:L,K:K, B3)-SUMIFS(M:M,K:K,B3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B3)</f>
+        <v>62.07</v>
+      </c>
+      <c r="H3" s="78">
+        <f t="shared" ref="H3:H4" si="1">SUM(C3,F3,G3)</f>
+        <v>180.78</v>
+      </c>
+      <c r="J3" s="75">
+        <v>43460</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="78">
+        <v>325</v>
+      </c>
+      <c r="D4" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
+        <v>535</v>
+      </c>
+      <c r="E4" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B4)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="H4" s="78">
+        <f t="shared" si="1"/>
+        <v>312.8</v>
+      </c>
+      <c r="J4" s="75">
+        <v>43456</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="78">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D5" s="78">
+        <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
+        <v>202</v>
+      </c>
+      <c r="E5" s="80">
+        <f>COUNTIF(Master!B:B,Exchange!B5)</f>
+        <v>26</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G5" s="78">
+        <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
+        <v>0.75000000000000711</v>
+      </c>
+      <c r="H5" s="78">
+        <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
+        <v>184.95</v>
+      </c>
+      <c r="J5" s="75">
+        <v>43461</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="79">
+        <f t="shared" ref="C6:G6" si="3">SUM(C3:C5)</f>
+        <v>477.90999999999997</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="47">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="G6" s="79">
+        <f t="shared" si="3"/>
+        <v>50.620000000000005</v>
+      </c>
+      <c r="H6" s="79">
+        <f t="shared" si="2"/>
+        <v>678.53</v>
+      </c>
+      <c r="J6" s="75">
+        <v>43462</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="82" t="b">
+        <f>G6=Overall!E3</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="81" t="b">
+        <f>H6=SUM(C3:C5,F3:G5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB9551-31F3-41D6-A388-5984133899B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B25054-5EAD-4D77-A1EA-86C4D02E38A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
     <sheet name="Day by Day" sheetId="2" r:id="rId2"/>
-    <sheet name="Master" sheetId="1" r:id="rId3"/>
-    <sheet name="Exchange" sheetId="4" r:id="rId4"/>
+    <sheet name="Arbe" sheetId="5" r:id="rId3"/>
+    <sheet name="Master" sheetId="1" r:id="rId4"/>
+    <sheet name="Exchange" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Master!$A$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$52</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$19:$H$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$J$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$J$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$J$19:$J$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$G$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$G$19:$G$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Master!$D$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Master!$D$3:$D$118</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Master!$D$4:$D$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
   <si>
     <t>Market</t>
   </si>
@@ -379,18 +390,136 @@
   </si>
   <si>
     <t>LAL SAC Total points over 229.5</t>
+  </si>
+  <si>
+    <t>Justise Winslow under 13.5</t>
+  </si>
+  <si>
+    <t>Hassan Whiteside over 11.5 REB</t>
+  </si>
+  <si>
+    <t>Justise Winslow under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Bradley Beal under 27.5</t>
+  </si>
+  <si>
+    <t>Trevor Ariza under 13.5</t>
+  </si>
+  <si>
+    <t>Jeff Green over 12.5</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon under 9.5 REB</t>
+  </si>
+  <si>
+    <t>Bradley Beal under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Harrison Barnes under 20.5</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan under 11.5</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan over 11.5</t>
+  </si>
+  <si>
+    <t>Kemba Walker under 26.5</t>
+  </si>
+  <si>
+    <t>Malik Monk under 12.5</t>
+  </si>
+  <si>
+    <t>Luka Doncic under 6.5 REB</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan under 14.5 REB</t>
+  </si>
+  <si>
+    <t>Marvin Williams under 6.5 REB</t>
+  </si>
+  <si>
+    <t>Nicolas Batum under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Nicolas Batum under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Anthony Davis under 29.5</t>
+  </si>
+  <si>
+    <t>Julius Randle under 21.5</t>
+  </si>
+  <si>
+    <t>Arb exists</t>
+  </si>
+  <si>
+    <t>Fixed winning stake</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x wins</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>y wins</t>
+  </si>
+  <si>
+    <t>Rounded</t>
+  </si>
+  <si>
+    <t>Anthony Davis under 13.5 REB</t>
+  </si>
+  <si>
+    <t>Anthony Davis over 3.5 AST</t>
+  </si>
+  <si>
+    <t>Jrue Holiday over 7.5 AST</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins under 18.5</t>
+  </si>
+  <si>
+    <t>Josh Okogie under 10.5</t>
+  </si>
+  <si>
+    <t>Terry Rozier under 14.5</t>
+  </si>
+  <si>
+    <t>Jayson Tatum under 2.5 AST</t>
+  </si>
+  <si>
+    <t>Marcus Smart under 5.5 AST</t>
+  </si>
+  <si>
+    <t>Ben Simmons under 9.5 AST</t>
+  </si>
+  <si>
+    <t>Terry Rozier under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Weighted Average Odds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +551,13 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -592,7 +728,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -756,13 +892,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -816,16 +999,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -920,6 +1093,9 @@
                 <c:pt idx="6">
                   <c:v>43462</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43468</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -950,6 +1126,9 @@
                 <c:pt idx="6">
                   <c:v>365</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>805.59999999999991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -964,7 +1143,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Day by Day'!$G$18</c:f>
+              <c:f>'Day by Day'!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,12 +1192,15 @@
                 <c:pt idx="6">
                   <c:v>43462</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>43468</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$G$19:$G$32</c:f>
+              <c:f>'Day by Day'!$H$19:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1042,6 +1224,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-52.780000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.08000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1258,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Day by Day'!$I$18</c:f>
+              <c:f>'Day by Day'!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1096,7 +1281,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$I$19:$I$32</c:f>
+              <c:f>'Day by Day'!$J$19:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1120,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50.61999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1580,89 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v> Net profit </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1937,6 +2207,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1947,10 +2725,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1973,6 +2751,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC938A3-ECAF-47CF-BE68-5B7ABC87AD2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8183880" y="198120"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2275,20 +3131,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
-  <dimension ref="B2:I3"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
@@ -2313,39 +3175,47 @@
       <c r="I2" s="54" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>827</v>
+        <v>1632.6</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>53.000000000000014</v>
+        <v>167.08000000000004</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>50.620000000000026</v>
+        <v>164.70000000000005</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>6.120918984280535E-2</v>
+        <v>0.10088202866593167</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.59523809523809523</v>
+        <v>0.60344827586206895</v>
+      </c>
+      <c r="J3" s="92">
+        <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
+        <v>1.9679162072767362</v>
       </c>
     </row>
   </sheetData>
@@ -2355,22 +3225,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:I25"/>
+  <dimension ref="B18:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.21875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="14" customWidth="1"/>
-    <col min="4" max="7" width="16.21875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
@@ -2381,22 +3255,25 @@
         <v>103</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="H18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="J18" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="29">
         <v>43452</v>
       </c>
@@ -2409,27 +3286,31 @@
         <v>0</v>
       </c>
       <c r="E19" s="25">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B19)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="25">
+      <c r="G19" s="25">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B19)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="25">
+      <c r="H19" s="25">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B19)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="26">
-        <f>IFERROR(G19/D19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
-        <f>SUM($G$19:G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="26">
+        <f>IFERROR(H19/D19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <f>SUM($H$19:H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>43453</v>
       </c>
@@ -2442,27 +3323,31 @@
         <v>35</v>
       </c>
       <c r="E20" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B20)</f>
         <v>40.9</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B20)</f>
         <v>-0.44</v>
       </c>
-      <c r="G20" s="16">
+      <c r="H20" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B20)</f>
         <v>40.46</v>
       </c>
-      <c r="H20" s="12">
-        <f t="shared" ref="H20:H21" si="0">IFERROR(G20/D20,0)</f>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20:I21" si="0">IFERROR(H20/D20,0)</f>
         <v>1.1559999999999999</v>
       </c>
-      <c r="I20" s="13">
-        <f>SUM($G$19:G20)</f>
+      <c r="J20" s="13">
+        <f>SUM($H$19:H20)</f>
         <v>40.46</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>43456</v>
       </c>
@@ -2475,27 +3360,31 @@
         <v>70</v>
       </c>
       <c r="E21" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B21)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="16">
+      <c r="H21" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B21)</f>
         <v>5.1000000000000085</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>7.2857142857142981E-2</v>
       </c>
-      <c r="I21" s="13">
-        <f>SUM($G$19:G21)</f>
+      <c r="J21" s="13">
+        <f>SUM($H$19:H21)</f>
         <v>45.560000000000009</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>43457</v>
       </c>
@@ -2508,27 +3397,31 @@
         <v>132</v>
       </c>
       <c r="E22" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B22)</f>
         <v>36.199999999999996</v>
       </c>
-      <c r="F22" s="16">
+      <c r="G22" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B22)</f>
         <v>-0.51</v>
       </c>
-      <c r="G22" s="16">
+      <c r="H22" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B22)</f>
         <v>35.69</v>
       </c>
-      <c r="H22" s="12">
-        <f t="shared" ref="H22" si="1">IFERROR(G22/D22,0)</f>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22" si="1">IFERROR(H22/D22,0)</f>
         <v>0.27037878787878789</v>
       </c>
-      <c r="I22" s="13">
-        <f>SUM($G$19:G22)</f>
+      <c r="J22" s="13">
+        <f>SUM($H$19:H22)</f>
         <v>81.25</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>43458</v>
       </c>
@@ -2541,27 +3434,31 @@
         <v>85</v>
       </c>
       <c r="E23" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B23)</f>
         <v>11.950000000000003</v>
       </c>
-      <c r="F23" s="16">
+      <c r="G23" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="H23" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B23)</f>
         <v>11.950000000000003</v>
       </c>
-      <c r="H23" s="12">
-        <f t="shared" ref="H23" si="2">IFERROR(G23/D23,0)</f>
+      <c r="I23" s="12">
+        <f t="shared" ref="I23" si="2">IFERROR(H23/D23,0)</f>
         <v>0.14058823529411768</v>
       </c>
-      <c r="I23" s="13">
-        <f>SUM($G$19:G23)</f>
+      <c r="J23" s="13">
+        <f>SUM($H$19:H23)</f>
         <v>93.2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>43460</v>
       </c>
@@ -2574,27 +3471,31 @@
         <v>140</v>
       </c>
       <c r="E24" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B24)</f>
+        <v>42.763763533472819</v>
+      </c>
+      <c r="F24" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B24)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="F24" s="16">
+      <c r="G24" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B24)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="16">
+      <c r="H24" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B24)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="H24" s="12">
-        <f t="shared" ref="H24" si="3">IFERROR(G24/D24,0)</f>
+      <c r="I24" s="12">
+        <f t="shared" ref="I24" si="3">IFERROR(H24/D24,0)</f>
         <v>7.2857142857142856E-2</v>
       </c>
-      <c r="I24" s="13">
-        <f>SUM($G$19:G24)</f>
+      <c r="J24" s="13">
+        <f>SUM($H$19:H24)</f>
         <v>103.4</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>43462</v>
       </c>
@@ -2607,24 +3508,65 @@
         <v>365</v>
       </c>
       <c r="E25" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B25)</f>
+        <v>133.98802020687475</v>
+      </c>
+      <c r="F25" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B25)</f>
         <v>-51.350000000000009</v>
       </c>
-      <c r="F25" s="16">
+      <c r="G25" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B25)</f>
         <v>-1.43</v>
       </c>
-      <c r="G25" s="16">
+      <c r="H25" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B25)</f>
         <v>-52.780000000000015</v>
       </c>
-      <c r="H25" s="12">
-        <f t="shared" ref="H25" si="4">IFERROR(G25/D25,0)</f>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25" si="4">IFERROR(H25/D25,0)</f>
         <v>-0.14460273972602744</v>
       </c>
-      <c r="I25" s="13">
-        <f>SUM($G$19:G25)</f>
+      <c r="J25" s="13">
+        <f>SUM($H$19:H25)</f>
         <v>50.61999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>43468</v>
+      </c>
+      <c r="C26" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B26)</f>
+        <v>32</v>
+      </c>
+      <c r="D26" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B26)</f>
+        <v>805.59999999999991</v>
+      </c>
+      <c r="E26" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B26)</f>
+        <v>130.86537802468581</v>
+      </c>
+      <c r="F26" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B26)</f>
+        <v>114.08000000000001</v>
+      </c>
+      <c r="G26" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B26)</f>
+        <v>114.08000000000001</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" ref="I26" si="5">IFERROR(H26/D26,0)</f>
+        <v>0.1416087388282026</v>
+      </c>
+      <c r="J26" s="13">
+        <f>SUM($H$19:H26)</f>
+        <v>164.7</v>
       </c>
     </row>
   </sheetData>
@@ -2635,12 +3577,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3">
+        <v>2.25</v>
+      </c>
+      <c r="D3">
+        <f>IF(D6, 1, "")</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3-D3</f>
+        <v>1.25</v>
+      </c>
+      <c r="F3">
+        <f>-D3</f>
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(D3,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>H3*C3-H3</f>
+        <v>1.25</v>
+      </c>
+      <c r="J3">
+        <f>-H3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>1.81</v>
+      </c>
+      <c r="D4">
+        <f>IF(D6, C3/C4, "")</f>
+        <v>1.2430939226519337</v>
+      </c>
+      <c r="E4">
+        <f>-D4</f>
+        <v>-1.2430939226519337</v>
+      </c>
+      <c r="F4">
+        <f>D4*C4-D4</f>
+        <v>1.0069060773480663</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(D4,2)</f>
+        <v>1.24</v>
+      </c>
+      <c r="I4">
+        <f>-H4</f>
+        <v>-1.24</v>
+      </c>
+      <c r="J4">
+        <f>H4*C4-H4</f>
+        <v>1.0044000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
+        <v>6.906077348066253E-3</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
+        <v>6.906077348066253E-3</v>
+      </c>
+      <c r="I5">
+        <f>SUM(I3:I4)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J5">
+        <f>SUM(J3:J4)</f>
+        <v>4.4000000000001815E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="b">
+        <f>1/C3+1/C4 &lt; 1</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,7 +6823,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="34">
         <v>43462</v>
       </c>
@@ -5789,7 +6866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>43462</v>
       </c>
@@ -5832,7 +6909,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="34">
         <v>43462</v>
       </c>
@@ -5875,7 +6952,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="34">
         <v>43462</v>
       </c>
@@ -5918,7 +6995,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="34">
         <v>43462</v>
       </c>
@@ -5938,11 +7015,11 @@
         <v>30</v>
       </c>
       <c r="G85" s="61">
-        <f t="shared" ref="G85:G86" si="19">D85/E85-1</f>
+        <f t="shared" ref="G85:G105" si="19">D85/E85-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="H85" s="62">
-        <f t="shared" ref="H85:H86" si="20">F85*G85</f>
+        <f t="shared" ref="H85:H105" si="20">F85*G85</f>
         <v>2.4999999999999978</v>
       </c>
       <c r="I85" s="84" t="s">
@@ -5964,7 +7041,7 @@
         <v>27.07</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="34">
         <v>43462</v>
       </c>
@@ -6007,37 +7084,1515 @@
         <v>17.549999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
+    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="36">
+        <v>43468</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="F87" s="8">
+        <v>10</v>
+      </c>
+      <c r="G87" s="57">
+        <f t="shared" si="19"/>
+        <v>0.39860139860139876</v>
+      </c>
+      <c r="H87" s="58">
+        <f t="shared" si="20"/>
+        <v>3.9860139860139876</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="69">
+        <f t="shared" ref="J87:J118" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
+        <v>10</v>
+      </c>
+      <c r="K87" s="70"/>
+      <c r="L87" s="45">
+        <f t="shared" ref="L87:L118" si="22">ROUND(-K87*J87, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="46">
+        <f t="shared" ref="M87:M118" si="23">J87+L87</f>
+        <v>10</v>
+      </c>
+      <c r="N87" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F88" s="6">
+        <v>10</v>
+      </c>
+      <c r="G88" s="61">
+        <f t="shared" si="19"/>
+        <v>0.11931818181818188</v>
+      </c>
+      <c r="H88" s="62">
+        <f t="shared" si="20"/>
+        <v>1.1931818181818188</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="69">
+        <f t="shared" si="21"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L88" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="46">
+        <f t="shared" si="23"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="F89" s="6">
+        <v>10</v>
+      </c>
+      <c r="G89" s="61">
+        <f t="shared" si="19"/>
+        <v>0.43037974683544289</v>
+      </c>
+      <c r="H89" s="62">
+        <f t="shared" si="20"/>
+        <v>4.3037974683544284</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L89" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F90" s="6">
+        <v>10</v>
+      </c>
+      <c r="G90" s="61">
+        <f t="shared" si="19"/>
+        <v>0.46323529411764697</v>
+      </c>
+      <c r="H90" s="62">
+        <f t="shared" si="20"/>
+        <v>4.6323529411764692</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="69">
+        <f t="shared" si="21"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="L90" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="46">
+        <f t="shared" si="23"/>
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="86">
+        <v>2</v>
+      </c>
+      <c r="E91" s="86">
+        <v>1.43</v>
+      </c>
+      <c r="F91" s="87">
+        <v>10</v>
+      </c>
+      <c r="G91" s="88">
+        <f t="shared" si="19"/>
+        <v>0.39860139860139876</v>
+      </c>
+      <c r="H91" s="89">
+        <f t="shared" si="20"/>
+        <v>3.9860139860139876</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="69">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L91" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="46">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="86">
+        <v>1.93</v>
+      </c>
+      <c r="E92" s="86">
+        <v>1.7</v>
+      </c>
+      <c r="F92" s="87">
+        <v>10</v>
+      </c>
+      <c r="G92" s="88">
+        <f t="shared" si="19"/>
+        <v>0.13529411764705879</v>
+      </c>
+      <c r="H92" s="89">
+        <f t="shared" si="20"/>
+        <v>1.3529411764705879</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="69">
+        <f t="shared" si="21"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L92" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="46">
+        <f t="shared" si="23"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F93" s="6">
+        <v>10</v>
+      </c>
+      <c r="G93" s="61">
+        <f t="shared" si="19"/>
+        <v>0.34558823529411753</v>
+      </c>
+      <c r="H93" s="62">
+        <f t="shared" si="20"/>
+        <v>3.4558823529411753</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="69">
+        <f t="shared" si="21"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L93" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="46">
+        <f t="shared" si="23"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B94" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F94" s="6">
+        <v>10</v>
+      </c>
+      <c r="G94" s="61">
+        <f t="shared" si="19"/>
+        <v>0.375</v>
+      </c>
+      <c r="H94" s="62">
+        <f t="shared" si="20"/>
+        <v>3.75</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="69">
+        <f t="shared" si="21"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L94" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="46">
+        <f t="shared" si="23"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F95" s="6">
+        <v>10</v>
+      </c>
+      <c r="G95" s="61">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="H95" s="62">
+        <f t="shared" si="20"/>
+        <v>3.3333333333333326</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="69">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L95" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="46">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F96" s="6">
+        <v>242.8</v>
+      </c>
+      <c r="G96" s="61">
+        <f t="shared" si="19"/>
+        <v>0.19318181818181812</v>
+      </c>
+      <c r="H96" s="62">
+        <f t="shared" si="20"/>
+        <v>46.904545454545442</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="69">
+        <f t="shared" si="21"/>
+        <v>267.08000000000004</v>
+      </c>
+      <c r="L96" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="46">
+        <f t="shared" si="23"/>
+        <v>267.08000000000004</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="F97" s="6">
+        <v>200</v>
+      </c>
+      <c r="G97" s="61">
+        <f t="shared" si="19"/>
+        <v>-0.12554112554112551</v>
+      </c>
+      <c r="H97" s="62">
+        <f t="shared" si="20"/>
+        <v>-25.108225108225103</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="69">
+        <f t="shared" si="21"/>
+        <v>-200</v>
+      </c>
+      <c r="L97" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="46">
+        <f t="shared" si="23"/>
+        <v>-200</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F98" s="6">
+        <v>10</v>
+      </c>
+      <c r="G98" s="61">
+        <f t="shared" si="19"/>
+        <v>0.27333333333333321</v>
+      </c>
+      <c r="H98" s="62">
+        <f t="shared" si="20"/>
+        <v>2.7333333333333321</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" s="69">
+        <f t="shared" si="21"/>
+        <v>9.0999999999999979</v>
+      </c>
+      <c r="L98" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="46">
+        <f t="shared" si="23"/>
+        <v>9.0999999999999979</v>
+      </c>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F99" s="6">
+        <v>10</v>
+      </c>
+      <c r="G99" s="61">
+        <f t="shared" si="19"/>
+        <v>0.36666666666666647</v>
+      </c>
+      <c r="H99" s="62">
+        <f t="shared" si="20"/>
+        <v>3.6666666666666647</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="69">
+        <f t="shared" si="21"/>
+        <v>10.5</v>
+      </c>
+      <c r="L99" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="46">
+        <f t="shared" si="23"/>
+        <v>10.5</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F100" s="6">
+        <v>10</v>
+      </c>
+      <c r="G100" s="61">
+        <f t="shared" si="19"/>
+        <v>0.22058823529411753</v>
+      </c>
+      <c r="H100" s="62">
+        <f t="shared" si="20"/>
+        <v>2.2058823529411753</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="69">
+        <f t="shared" si="21"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="L100" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="46">
+        <f t="shared" si="23"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F101" s="6">
+        <v>10</v>
+      </c>
+      <c r="G101" s="61">
+        <f t="shared" si="19"/>
+        <v>5.9880239520958112E-2</v>
+      </c>
+      <c r="H101" s="62">
+        <f t="shared" si="20"/>
+        <v>0.59880239520958112</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L101" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F102" s="6">
+        <v>10</v>
+      </c>
+      <c r="G102" s="61">
+        <f t="shared" si="19"/>
+        <v>0.18562874251497008</v>
+      </c>
+      <c r="H102" s="62">
+        <f t="shared" si="20"/>
+        <v>1.8562874251497008</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="69">
+        <f t="shared" si="21"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L102" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="46">
+        <f t="shared" si="23"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F103" s="6">
+        <v>10</v>
+      </c>
+      <c r="G103" s="61">
+        <f t="shared" si="19"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="H103" s="62">
+        <f t="shared" si="20"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" s="69">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="L103" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="46">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F104" s="6">
+        <v>10</v>
+      </c>
+      <c r="G104" s="61">
+        <f t="shared" si="19"/>
+        <v>0.11976047904191622</v>
+      </c>
+      <c r="H104" s="62">
+        <f t="shared" si="20"/>
+        <v>1.1976047904191622</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="69">
+        <f t="shared" si="21"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L104" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="46">
+        <f t="shared" si="23"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F105" s="6">
+        <v>10</v>
+      </c>
+      <c r="G105" s="61">
+        <f t="shared" si="19"/>
+        <v>0.22159090909090895</v>
+      </c>
+      <c r="H105" s="62">
+        <f t="shared" si="20"/>
+        <v>2.2159090909090895</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L105" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E106" s="5">
+        <v>2.31</v>
+      </c>
+      <c r="F106" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="G106" s="61">
+        <f t="shared" ref="G106:G118" si="24">D106/E106-1</f>
+        <v>-0.11255411255411263</v>
+      </c>
+      <c r="H106" s="62">
+        <f t="shared" ref="H106:H118" si="25">F106*G106</f>
+        <v>-4.8173160173160205</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="69">
+        <f t="shared" si="21"/>
+        <v>-42.8</v>
+      </c>
+      <c r="L106" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="46">
+        <f t="shared" si="23"/>
+        <v>-42.8</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F107" s="6">
+        <v>10</v>
+      </c>
+      <c r="G107" s="61">
+        <f t="shared" si="24"/>
+        <v>0.19760479041916179</v>
+      </c>
+      <c r="H107" s="62">
+        <f t="shared" si="25"/>
+        <v>1.9760479041916179</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L107" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="F108" s="6">
+        <v>10</v>
+      </c>
+      <c r="G108" s="61">
+        <f t="shared" si="24"/>
+        <v>0.22360248447204967</v>
+      </c>
+      <c r="H108" s="62">
+        <f t="shared" si="25"/>
+        <v>2.2360248447204967</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="69">
+        <f t="shared" si="21"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L108" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="46">
+        <f t="shared" si="23"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F109" s="6">
+        <v>10</v>
+      </c>
+      <c r="G109" s="61">
+        <f t="shared" si="24"/>
+        <v>0.17613636363636354</v>
+      </c>
+      <c r="H109" s="62">
+        <f t="shared" si="25"/>
+        <v>1.7613636363636354</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L109" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E110" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+      <c r="G110" s="61">
+        <f t="shared" si="24"/>
+        <v>7.7844311377245567E-2</v>
+      </c>
+      <c r="H110" s="62">
+        <f t="shared" si="25"/>
+        <v>0.77844311377245567</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="69">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="L110" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="46">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="E111" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="F111" s="6">
+        <v>10</v>
+      </c>
+      <c r="G111" s="61">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="62">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L111" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="E112" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="F112" s="6">
+        <v>10</v>
+      </c>
+      <c r="G112" s="61">
+        <f t="shared" si="24"/>
+        <v>0.20886075949367089</v>
+      </c>
+      <c r="H112" s="62">
+        <f t="shared" si="25"/>
+        <v>2.0886075949367089</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L112" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="F113" s="6">
+        <v>20</v>
+      </c>
+      <c r="G113" s="61">
+        <f t="shared" si="24"/>
+        <v>0.73553719008264484</v>
+      </c>
+      <c r="H113" s="62">
+        <f t="shared" si="25"/>
+        <v>14.710743801652896</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="69">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="L113" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="46">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E114" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="F114" s="6">
+        <v>20</v>
+      </c>
+      <c r="G114" s="61">
+        <f t="shared" si="24"/>
+        <v>0.59090909090909083</v>
+      </c>
+      <c r="H114" s="62">
+        <f t="shared" si="25"/>
+        <v>11.818181818181817</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="69">
+        <f t="shared" si="21"/>
+        <v>-20</v>
+      </c>
+      <c r="L114" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="46">
+        <f t="shared" si="23"/>
+        <v>-20</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="F115" s="6">
+        <v>10</v>
+      </c>
+      <c r="G115" s="61">
+        <f t="shared" si="24"/>
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="H115" s="62">
+        <f t="shared" si="25"/>
+        <v>2.384615384615385</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L115" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F116" s="6">
+        <v>20</v>
+      </c>
+      <c r="G116" s="61">
+        <f t="shared" si="24"/>
+        <v>0.79824561403508776</v>
+      </c>
+      <c r="H116" s="62">
+        <f t="shared" si="25"/>
+        <v>15.964912280701755</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="69">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+      <c r="L116" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="46">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="F117" s="6">
+        <v>10</v>
+      </c>
+      <c r="G117" s="61">
+        <f t="shared" si="24"/>
+        <v>0.54814814814814805</v>
+      </c>
+      <c r="H117" s="62">
+        <f t="shared" si="25"/>
+        <v>5.481481481481481</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L117" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="34">
+        <v>43468</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="F118" s="6">
+        <v>10</v>
+      </c>
+      <c r="G118" s="61">
+        <f t="shared" si="24"/>
+        <v>0.12179487179487181</v>
+      </c>
+      <c r="H118" s="62">
+        <f t="shared" si="25"/>
+        <v>1.2179487179487181</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="69">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="L118" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="46">
+        <f t="shared" si="23"/>
+        <v>7.5</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I1048576">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B72 B74:B1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="B1:B72 B107:B1048576 B74:B105">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Ladbrokes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6046,12 +8601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:M7"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6148,23 +8703,23 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>535</v>
+        <v>927.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-12.200000000000003</v>
+        <v>-236.2</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>312.8</v>
+        <v>188.8</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -6185,23 +8740,23 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>202</v>
+        <v>614.79999999999995</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>0.75000000000000711</v>
+        <v>338.83000000000004</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>184.95</v>
+        <v>823.03</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -6225,15 +8780,15 @@
       <c r="E6" s="79"/>
       <c r="F6" s="47">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>50.620000000000005</v>
+        <v>164.70000000000005</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>678.53</v>
+        <v>1192.6099999999999</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>
@@ -6257,10 +8812,30 @@
         <f>H6=SUM(C3:C5,F3:G5)</f>
         <v>1</v>
       </c>
+      <c r="J7" s="75">
+        <v>43468</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="75">
+        <v>43468</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="13">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7:H7">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B25054-5EAD-4D77-A1EA-86C4D02E38A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFBE3F-0A4B-46FD-9366-8DF7C9ED5CE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -20,17 +20,14 @@
     <sheet name="Exchange" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$52</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$19:$H$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$J$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$J$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$J$19:$J$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$G$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$G$19:$G$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Master!$D$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Master!$D$3:$D$118</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Master!$D$4:$D$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$118</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$B$19:$B$44</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$H$19:$H$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$H$19:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="159">
   <si>
     <t>Market</t>
   </si>
@@ -507,6 +504,24 @@
   </si>
   <si>
     <t>Weighted Average Odds</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Clint Capela over 12.5 REB</t>
+  </si>
+  <si>
+    <t>Clint Capela under 13.5 REB</t>
+  </si>
+  <si>
+    <t>Lay Steph Curry under 27.5</t>
+  </si>
+  <si>
+    <t>Lay James Harden under 37.5</t>
+  </si>
+  <si>
+    <t>James Harden under 36.5</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -907,7 +922,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1096,6 +1111,9 @@
                 <c:pt idx="7">
                   <c:v>43468</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43469</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1128,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>805.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>268.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,6 +1216,9 @@
                 <c:pt idx="7">
                   <c:v>43468</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43469</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1227,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>114.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-50.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,6 +1335,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114.38999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,8 +1614,11 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1595,7 +1628,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3183,39 +3216,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>1632.6</v>
+        <v>1900.9199999999998</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>167.08000000000004</v>
+        <v>121.77000000000004</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>164.70000000000005</v>
+        <v>114.39000000000004</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>0.10088202866593167</v>
+        <v>6.017612524461842E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.60344827586206895</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9679162072767362</v>
+        <v>1.9538697051953791</v>
       </c>
     </row>
   </sheetData>
@@ -3225,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:J26"/>
+  <dimension ref="B18:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3569,6 +3602,43 @@
         <v>164.7</v>
       </c>
     </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>43469</v>
+      </c>
+      <c r="C27" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B27)</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B27)</f>
+        <v>268.32</v>
+      </c>
+      <c r="E27" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B27)</f>
+        <v>-45.31</v>
+      </c>
+      <c r="G27" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B27)</f>
+        <v>-5</v>
+      </c>
+      <c r="H27" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B27)</f>
+        <v>-50.31</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" ref="I27" si="6">IFERROR(H27/D27,0)</f>
+        <v>-0.1875</v>
+      </c>
+      <c r="J27" s="13">
+        <f>SUM($H$19:H27)</f>
+        <v>114.38999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3581,7 +3651,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,7 +3687,7 @@
         <v>136</v>
       </c>
       <c r="C3">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="D3">
         <f>IF(D6, 1, "")</f>
@@ -3625,7 +3695,7 @@
       </c>
       <c r="E3">
         <f>D3*C3-D3</f>
-        <v>1.25</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="F3">
         <f>-D3</f>
@@ -3637,7 +3707,7 @@
       </c>
       <c r="I3">
         <f>H3*C3-H3</f>
-        <v>1.25</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="J3">
         <f>-H3</f>
@@ -3649,31 +3719,31 @@
         <v>137</v>
       </c>
       <c r="C4">
-        <v>1.81</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D4">
         <f>IF(D6, C3/C4, "")</f>
-        <v>1.2430939226519337</v>
+        <v>0.81739130434782614</v>
       </c>
       <c r="E4">
         <f>-D4</f>
-        <v>-1.2430939226519337</v>
+        <v>-0.81739130434782614</v>
       </c>
       <c r="F4">
         <f>D4*C4-D4</f>
-        <v>1.0069060773480663</v>
+        <v>1.0626086956521736</v>
       </c>
       <c r="H4">
         <f>ROUND(D4,2)</f>
-        <v>1.24</v>
+        <v>0.82</v>
       </c>
       <c r="I4">
         <f>-H4</f>
-        <v>-1.24</v>
+        <v>-0.82</v>
       </c>
       <c r="J4">
         <f>H4*C4-H4</f>
-        <v>1.0044000000000002</v>
+        <v>1.0659999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -3682,19 +3752,19 @@
       </c>
       <c r="E5">
         <f>SUM(E3:E4)</f>
-        <v>6.906077348066253E-3</v>
+        <v>6.2608695652173751E-2</v>
       </c>
       <c r="F5">
         <f>SUM(F3:F4)</f>
-        <v>6.906077348066253E-3</v>
+        <v>6.260869565217364E-2</v>
       </c>
       <c r="I5">
         <f>SUM(I3:I4)</f>
-        <v>1.0000000000000009E-2</v>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="J5">
         <f>SUM(J3:J4)</f>
-        <v>4.4000000000001815E-3</v>
+        <v>6.5999999999999837E-2</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -3713,11 +3783,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7115,16 +7185,16 @@
         <v>15</v>
       </c>
       <c r="J87" s="69">
-        <f t="shared" ref="J87:J118" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
+        <f t="shared" ref="J87:J124" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
         <v>10</v>
       </c>
       <c r="K87" s="70"/>
       <c r="L87" s="45">
-        <f t="shared" ref="L87:L118" si="22">ROUND(-K87*J87, 2)</f>
+        <f t="shared" ref="L87:L124" si="22">ROUND(-K87*J87, 2)</f>
         <v>0</v>
       </c>
       <c r="M87" s="46">
-        <f t="shared" ref="M87:M118" si="23">J87+L87</f>
+        <f t="shared" ref="M87:M124" si="23">J87+L87</f>
         <v>10</v>
       </c>
       <c r="N87" s="1" t="b">
@@ -8511,50 +8581,250 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="34">
+    <row r="118" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="37">
         <v>43468</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="40" t="s">
+      <c r="C118" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="56">
         <v>1.75</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="56">
         <v>1.56</v>
       </c>
-      <c r="F118" s="6">
-        <v>10</v>
-      </c>
-      <c r="G118" s="61">
+      <c r="F118" s="38">
+        <v>10</v>
+      </c>
+      <c r="G118" s="63">
         <f t="shared" si="24"/>
         <v>0.12179487179487181</v>
       </c>
-      <c r="H118" s="62">
+      <c r="H118" s="64">
         <f t="shared" si="25"/>
         <v>1.2179487179487181</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J118" s="69">
+      <c r="J118" s="51">
         <f t="shared" si="21"/>
         <v>7.5</v>
       </c>
-      <c r="L118" s="45">
+      <c r="K118" s="39"/>
+      <c r="L118" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M118" s="46">
+      <c r="M118" s="72">
         <f t="shared" si="23"/>
         <v>7.5</v>
       </c>
     </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="F119" s="6">
+        <v>13</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="69">
+        <f t="shared" si="21"/>
+        <v>10.010000000000002</v>
+      </c>
+      <c r="L119" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="46">
+        <f t="shared" si="23"/>
+        <v>10.010000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="6">
+        <v>25.32</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="69">
+        <f t="shared" si="21"/>
+        <v>-25.32</v>
+      </c>
+      <c r="L120" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="46">
+        <f t="shared" si="23"/>
+        <v>-25.32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2</v>
+      </c>
+      <c r="F121" s="6">
+        <v>100</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="69">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="K121" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="L121" s="45">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
+      <c r="M121" s="46">
+        <f t="shared" si="23"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F122" s="6">
+        <v>20</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="69">
+        <f t="shared" si="21"/>
+        <v>-20</v>
+      </c>
+      <c r="L122" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="46">
+        <f t="shared" si="23"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D123" s="5">
+        <v>2</v>
+      </c>
+      <c r="F123" s="6">
+        <v>10</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L123" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="34">
+        <v>43469</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F124" s="6">
+        <v>100</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="69">
+        <f t="shared" si="21"/>
+        <v>-100</v>
+      </c>
+      <c r="L124" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="46">
+        <f t="shared" si="23"/>
+        <v>-100</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:N118" xr:uid="{C495B646-4148-40E1-952F-15C071FCCAB6}"/>
   <conditionalFormatting sqref="I3:I1048576">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
@@ -8563,7 +8833,7 @@
       <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B72 B107:B1048576 B74:B105">
+  <conditionalFormatting sqref="B1:B72 B74:B105 B107:B1048576">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -8603,10 +8873,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8622,7 +8892,7 @@
     <col min="12" max="13" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
@@ -8656,8 +8926,11 @@
       <c r="M2" s="20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
@@ -8666,23 +8939,23 @@
       </c>
       <c r="D3" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B3)</f>
-        <v>90</v>
+        <v>215.32</v>
       </c>
       <c r="E3" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="45">
         <f t="shared" ref="F3:F5" si="0">SUMIFS(L:L,K:K, B3)-SUMIFS(M:M,K:K,B3)</f>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="G3" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B3)</f>
-        <v>62.07</v>
+        <v>131.75</v>
       </c>
       <c r="H3" s="78">
         <f t="shared" ref="H3:H4" si="1">SUM(C3,F3,G3)</f>
-        <v>180.78</v>
+        <v>100.46</v>
       </c>
       <c r="J3" s="75">
         <v>43460</v>
@@ -8694,7 +8967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
@@ -8703,11 +8976,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>927.8</v>
+        <v>940.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -8715,11 +8988,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-236.2</v>
+        <v>-226.19</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>188.8</v>
+        <v>198.81</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -8731,7 +9004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
@@ -8740,11 +9013,11 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>614.79999999999995</v>
+        <v>744.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
@@ -8752,11 +9025,11 @@
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>338.83000000000004</v>
+        <v>208.83000000000004</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>823.03</v>
+        <v>693.03</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -8768,7 +9041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
         <v>77</v>
       </c>
@@ -8780,15 +9053,15 @@
       <c r="E6" s="79"/>
       <c r="F6" s="47">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>164.70000000000005</v>
+        <v>114.39000000000004</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>1192.6099999999999</v>
+        <v>992.3</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>
@@ -8800,7 +9073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F7" s="50" t="s">
         <v>78</v>
       </c>
@@ -8822,7 +9095,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J8" s="75">
         <v>43468</v>
       </c>
@@ -8831,6 +9104,17 @@
       </c>
       <c r="L8" s="13">
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J9" s="75">
+        <v>43469</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="13">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,26 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFBE3F-0A4B-46FD-9366-8DF7C9ED5CE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E41AB-3244-45A3-9FE7-503FF71EAA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="4" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
     <sheet name="Day by Day" sheetId="2" r:id="rId2"/>
-    <sheet name="Arbe" sheetId="5" r:id="rId3"/>
-    <sheet name="Master" sheetId="1" r:id="rId4"/>
-    <sheet name="Exchange" sheetId="4" r:id="rId5"/>
+    <sheet name="Cross" sheetId="6" r:id="rId3"/>
+    <sheet name="Arbe" sheetId="5" r:id="rId4"/>
+    <sheet name="Master" sheetId="1" r:id="rId5"/>
+    <sheet name="Exchange" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$B$19:$B$44</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$H$19:$H$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$H$19:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Cross!$F$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Cross!$E$6</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Cross!$E$10</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="179">
   <si>
     <t>Market</t>
   </si>
@@ -522,6 +554,66 @@
   </si>
   <si>
     <t>James Harden under 36.5</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Over and under</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>Just over</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie over 5.5 AST</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie under 5.5 AST</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell over 6.5 AST</t>
+  </si>
+  <si>
+    <t>D'Angelo Russell under 6.5 AST</t>
+  </si>
+  <si>
+    <t>DeAndre Jordan over 10.5</t>
+  </si>
+  <si>
+    <t>Marcus Smart under 9.5</t>
+  </si>
+  <si>
+    <t>Marcus Smart under 3.5 REB</t>
+  </si>
+  <si>
+    <t>Terry Rozier under 15.5</t>
+  </si>
+  <si>
+    <t>Terry Rozier under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Terry Rozier under 13.5</t>
+  </si>
+  <si>
+    <t>Collin Sexton under 3.5 AST</t>
   </si>
 </sst>
 </file>
@@ -1114,6 +1206,9 @@
                 <c:pt idx="8">
                   <c:v>43469</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43470</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1149,6 +1244,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>268.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,6 +1317,9 @@
                 <c:pt idx="8">
                   <c:v>43469</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43470</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1254,6 +1355,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-50.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.259999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,6 +1442,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>114.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.64999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1725,7 @@
         <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1628,7 +1735,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3216,39 +3323,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>1900.9199999999998</v>
+        <v>2141.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>121.77000000000004</v>
+        <v>135.03000000000003</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>114.39000000000004</v>
+        <v>127.65000000000003</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>6.017612524461842E-2</v>
+        <v>5.959606334503624E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.5901639344262295</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9538697051953791</v>
+        <v>1.9545594606707997</v>
       </c>
     </row>
   </sheetData>
@@ -3258,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:J27"/>
+  <dimension ref="B18:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,6 +3746,43 @@
         <v>114.38999999999999</v>
       </c>
     </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>43470</v>
+      </c>
+      <c r="C28" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B28)</f>
+        <v>14</v>
+      </c>
+      <c r="D28" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B28)</f>
+        <v>241</v>
+      </c>
+      <c r="E28" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B28)</f>
+        <v>13.259999999999987</v>
+      </c>
+      <c r="G28" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B28)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B28)</f>
+        <v>13.259999999999987</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" ref="I28" si="7">IFERROR(H28/D28,0)</f>
+        <v>5.5020746887966751E-2</v>
+      </c>
+      <c r="J28" s="13">
+        <f>SUM($H$19:H28)</f>
+        <v>127.64999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3647,11 +3791,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
-  <dimension ref="B2:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5CC70-3B01-4547-8649-2574819AA279}">
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>10.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>1.76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <f>1/C4</f>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5">
+        <f>1/E4</f>
+        <v>0.56818181818181823</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <f>E6+C6</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9">
+        <f>1-E5</f>
+        <v>0.43181818181818177</v>
+      </c>
+      <c r="D9">
+        <f>C6*C3-F6</f>
+        <v>-0.10000000000000853</v>
+      </c>
+      <c r="E9">
+        <f>C9*D9</f>
+        <v>-4.318181818182186E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <f>1-C5</f>
+        <v>0.43181818181818177</v>
+      </c>
+      <c r="D10">
+        <f>E6*E3-F6</f>
+        <v>-5.1999999999999957</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" si="0">C10*D10</f>
+        <v>-2.2454545454545434</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <f>4/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D11">
+        <f>C6*C3+E6*E3-F6</f>
+        <v>55.699999999999989</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7.426666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C9:C11)</f>
+        <v>0.99696969696969684</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E9:E11)</f>
+        <v>5.1380303030303001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3659,7 +3969,7 @@
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -3673,21 +3983,24 @@
         <v>140</v>
       </c>
       <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
         <v>141</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>136</v>
       </c>
       <c r="C3">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="D3">
         <f>IF(D6, 1, "")</f>
@@ -3695,79 +4008,85 @@
       </c>
       <c r="E3">
         <f>D3*C3-D3</f>
-        <v>0.87999999999999989</v>
+        <v>1.06</v>
       </c>
       <c r="F3">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
         <f>ROUND(D3,2)</f>
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>H3*C3-H3</f>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="J3">
+        <v>26.5</v>
+      </c>
+      <c r="K3">
         <f>-H3</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>137</v>
       </c>
       <c r="C4">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>IF(D6, C3/C4, "")</f>
-        <v>0.81739130434782614</v>
+        <v>1.03</v>
       </c>
       <c r="E4">
         <f>-D4</f>
-        <v>-0.81739130434782614</v>
+        <v>-1.03</v>
       </c>
       <c r="F4">
         <f>D4*C4-D4</f>
-        <v>1.0626086956521736</v>
+        <v>1.03</v>
       </c>
       <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
         <f>ROUND(D4,2)</f>
-        <v>0.82</v>
-      </c>
-      <c r="I4">
+        <v>1.03</v>
+      </c>
+      <c r="J4">
         <f>-H4</f>
-        <v>-0.82</v>
-      </c>
-      <c r="J4">
+        <v>-25</v>
+      </c>
+      <c r="K4">
         <f>H4*C4-H4</f>
-        <v>1.0659999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>139</v>
       </c>
       <c r="E5">
         <f>SUM(E3:E4)</f>
-        <v>6.2608695652173751E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="F5">
         <f>SUM(F3:F4)</f>
-        <v>6.260869565217364E-2</v>
-      </c>
-      <c r="I5">
-        <f>SUM(I3:I4)</f>
-        <v>5.9999999999999942E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J5">
         <f>SUM(J3:J4)</f>
-        <v>6.5999999999999837E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <f>SUM(K3:K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>134</v>
       </c>
@@ -3781,13 +4100,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7185,16 +7504,16 @@
         <v>15</v>
       </c>
       <c r="J87" s="69">
-        <f t="shared" ref="J87:J124" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
+        <f t="shared" ref="J87:J138" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
         <v>10</v>
       </c>
       <c r="K87" s="70"/>
       <c r="L87" s="45">
-        <f t="shared" ref="L87:L124" si="22">ROUND(-K87*J87, 2)</f>
+        <f t="shared" ref="L87:L138" si="22">ROUND(-K87*J87, 2)</f>
         <v>0</v>
       </c>
       <c r="M87" s="46">
-        <f t="shared" ref="M87:M124" si="23">J87+L87</f>
+        <f t="shared" ref="M87:M138" si="23">J87+L87</f>
         <v>10</v>
       </c>
       <c r="N87" s="1" t="b">
@@ -8821,6 +9140,458 @@
       <c r="M124" s="46">
         <f t="shared" si="23"/>
         <v>-100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="36">
+        <v>43470</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D125" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="8">
+        <v>25</v>
+      </c>
+      <c r="G125" s="57"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="65">
+        <f t="shared" si="21"/>
+        <v>-25</v>
+      </c>
+      <c r="K125" s="4"/>
+      <c r="L125" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="66">
+        <f t="shared" si="23"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
+      <c r="F126" s="6">
+        <v>25</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="69">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="L126" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="46">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="F127" s="6">
+        <v>24</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="69">
+        <f t="shared" si="21"/>
+        <v>26.159999999999997</v>
+      </c>
+      <c r="L127" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="46">
+        <f t="shared" si="23"/>
+        <v>26.159999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B128" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F128" s="6">
+        <v>26</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="69">
+        <f t="shared" si="21"/>
+        <v>-26</v>
+      </c>
+      <c r="L128" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="46">
+        <f t="shared" si="23"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F129" s="6">
+        <v>30</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="69">
+        <f t="shared" si="21"/>
+        <v>30.899999999999991</v>
+      </c>
+      <c r="L129" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="46">
+        <f t="shared" si="23"/>
+        <v>30.899999999999991</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B130" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F130" s="6">
+        <v>31</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="69">
+        <f t="shared" si="21"/>
+        <v>-31</v>
+      </c>
+      <c r="L130" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="46">
+        <f t="shared" si="23"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="F131" s="6">
+        <v>10</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L131" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="F132" s="6">
+        <v>10</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L132" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="F133" s="6">
+        <v>10</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="69">
+        <f t="shared" si="21"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L133" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="46">
+        <f t="shared" si="23"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="F134" s="6">
+        <v>10</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="69">
+        <f t="shared" si="21"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="L134" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="46">
+        <f t="shared" si="23"/>
+        <v>7.8999999999999986</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="F135" s="6">
+        <v>10</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L135" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="F136" s="6">
+        <v>10</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="69">
+        <f t="shared" si="21"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="L136" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="46">
+        <f t="shared" si="23"/>
+        <v>8.6000000000000014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>10</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="69">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="L137" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M137" s="46">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="34">
+        <v>43470</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="F138" s="6">
+        <v>10</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="69">
+        <f t="shared" si="21"/>
+        <v>6.5</v>
+      </c>
+      <c r="L138" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M138" s="46">
+        <f t="shared" si="23"/>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -8871,12 +9642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8976,11 +9747,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>940.8</v>
+        <v>1079.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -8988,11 +9759,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-226.19</v>
+        <v>-198.43</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>198.81</v>
+        <v>226.57</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -9013,11 +9784,11 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>744.8</v>
+        <v>846.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
@@ -9025,11 +9796,11 @@
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>208.83000000000004</v>
+        <v>194.33000000000004</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>693.03</v>
+        <v>678.53</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -9057,11 +9828,11 @@
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>114.39000000000004</v>
+        <v>127.65000000000003</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>992.3</v>
+        <v>1005.56</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E41AB-3244-45A3-9FE7-503FF71EAA7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C829EA-3688-4155-A45D-68DB6A10D1BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="4" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -3794,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5CC70-3B01-4547-8649-2574819AA279}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -4104,7 +4104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M148" sqref="M148"/>
     </sheetView>
@@ -9647,7 +9647,7 @@
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C829EA-3688-4155-A45D-68DB6A10D1BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BC9B3-2B0D-447F-9B6D-1E2096C5AE7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="186">
   <si>
     <t>Market</t>
   </si>
@@ -614,6 +612,27 @@
   </si>
   <si>
     <t>Collin Sexton under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Kemba Walker under 24.5</t>
+  </si>
+  <si>
+    <t>Jamal Murray under 20.5</t>
+  </si>
+  <si>
+    <t>Gary Harris under 1.5 FG3M</t>
+  </si>
+  <si>
+    <t>Jamal Murray under 1.5 FG3M</t>
+  </si>
+  <si>
+    <t>Nikola Jokic under 8.5 AST</t>
+  </si>
+  <si>
+    <t>Nikola Jokic under 11.5 REB</t>
+  </si>
+  <si>
+    <t>Marvin Williams under 11.5</t>
   </si>
 </sst>
 </file>
@@ -1209,6 +1228,9 @@
                 <c:pt idx="9">
                   <c:v>43470</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>43471</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1247,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,6 +1345,9 @@
                 <c:pt idx="9">
                   <c:v>43470</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>43471</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1358,6 +1386,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>13.259999999999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1445,6 +1476,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>127.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.14999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,10 +1756,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1735,7 +1769,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3323,39 +3357,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>2141.92</v>
+        <v>2221.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>135.03000000000003</v>
+        <v>128.53000000000003</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>127.65000000000003</v>
+        <v>121.15000000000003</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>5.959606334503624E-2</v>
+        <v>5.4524915388492849E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.58823529411764708</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9545594606707997</v>
+        <v>1.9575457262187654</v>
       </c>
     </row>
   </sheetData>
@@ -3365,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:J28"/>
+  <dimension ref="B18:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3783,6 +3817,43 @@
         <v>127.64999999999998</v>
       </c>
     </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>43471</v>
+      </c>
+      <c r="C29" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B29)</f>
+        <v>8</v>
+      </c>
+      <c r="D29" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B29)</f>
+        <v>80</v>
+      </c>
+      <c r="E29" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B29)</f>
+        <v>-6.5</v>
+      </c>
+      <c r="G29" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B29)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B29)</f>
+        <v>-6.5</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" ref="I29" si="8">IFERROR(H29/D29,0)</f>
+        <v>-8.1250000000000003E-2</v>
+      </c>
+      <c r="J29" s="13">
+        <f>SUM($H$19:H29)</f>
+        <v>121.14999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3794,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5CC70-3B01-4547-8649-2574819AA279}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -4102,11 +4173,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M148" sqref="M148"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A139:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7504,16 +7575,16 @@
         <v>15</v>
       </c>
       <c r="J87" s="69">
-        <f t="shared" ref="J87:J138" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
+        <f t="shared" ref="J87:J146" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
         <v>10</v>
       </c>
       <c r="K87" s="70"/>
       <c r="L87" s="45">
-        <f t="shared" ref="L87:L138" si="22">ROUND(-K87*J87, 2)</f>
+        <f t="shared" ref="L87:L146" si="22">ROUND(-K87*J87, 2)</f>
         <v>0</v>
       </c>
       <c r="M87" s="46">
-        <f t="shared" ref="M87:M138" si="23">J87+L87</f>
+        <f t="shared" ref="M87:M146" si="23">J87+L87</f>
         <v>10</v>
       </c>
       <c r="N87" s="1" t="b">
@@ -9562,36 +9633,296 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="34">
+    <row r="138" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="37">
         <v>43470</v>
       </c>
-      <c r="B138" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="40" t="s">
+      <c r="B138" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="56">
         <v>1.65</v>
       </c>
-      <c r="F138" s="6">
-        <v>10</v>
-      </c>
-      <c r="I138" s="3" t="s">
+      <c r="E138" s="56"/>
+      <c r="F138" s="38">
+        <v>10</v>
+      </c>
+      <c r="G138" s="63"/>
+      <c r="H138" s="64"/>
+      <c r="I138" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J138" s="69">
+      <c r="J138" s="51">
         <f t="shared" si="21"/>
         <v>6.5</v>
       </c>
-      <c r="L138" s="45">
+      <c r="K138" s="39"/>
+      <c r="L138" s="20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M138" s="46">
+      <c r="M138" s="72">
         <f t="shared" si="23"/>
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="F139" s="6">
+        <v>10</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="69">
+        <f t="shared" si="21"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L139" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="46">
+        <f t="shared" si="23"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F140" s="6">
+        <v>10</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="69">
+        <f t="shared" si="21"/>
+        <v>9.0999999999999979</v>
+      </c>
+      <c r="L140" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="46">
+        <f t="shared" si="23"/>
+        <v>9.0999999999999979</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D141" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="F141" s="6">
+        <v>10</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L141" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M141" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="F142" s="6">
+        <v>10</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L142" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B143" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="F143" s="6">
+        <v>10</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="69">
+        <f t="shared" si="21"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="L143" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="46">
+        <f t="shared" si="23"/>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="F144" s="6">
+        <v>10</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L144" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F145" s="6">
+        <v>10</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="69">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="L145" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="46">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="F146" s="6">
+        <v>10</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L146" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -9747,11 +10078,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1079.8</v>
+        <v>1139.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -9759,11 +10090,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-198.43</v>
+        <v>-222.33</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>226.57</v>
+        <v>202.67</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -9784,11 +10115,11 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>846.8</v>
+        <v>866.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
@@ -9796,11 +10127,11 @@
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>194.33000000000004</v>
+        <v>211.73000000000005</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>678.53</v>
+        <v>695.93000000000006</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -9828,11 +10159,11 @@
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>127.65000000000003</v>
+        <v>121.15000000000003</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>1005.56</v>
+        <v>999.06</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854BC9B3-2B0D-447F-9B6D-1E2096C5AE7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADCE82-D048-47B9-B92B-9BE2B8BB6AF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -23,8 +23,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -1409,8 +1421,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="630811264"/>
-        <c:axId val="630813232"/>
+        <c:axId val="746732096"/>
+        <c:axId val="746731440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1500,115 +1512,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="746732096"/>
-        <c:axId val="746731440"/>
+        <c:axId val="626974200"/>
+        <c:axId val="626973544"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="630811264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="630813232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="630813232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="630811264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
       <c:valAx>
         <c:axId val="746731440"/>
         <c:scaling>
@@ -1651,8 +1557,66 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dateAx>
+        <c:axId val="746732096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="746731440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="626973544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626974200"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:catAx>
-        <c:axId val="746732096"/>
+        <c:axId val="626974200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,11 +1625,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="746731440"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="626973544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
@@ -1756,10 +1721,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1769,7 +1734,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -1837,13 +1802,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2893,16 +2855,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2929,16 +2891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2974,8 +2936,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8183880" y="198120"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="556260" y="190500"/>
+              <a:ext cx="7414260" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3401,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
   <dimension ref="B18:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4177,7 +4139,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A139:A146"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADCE82-D048-47B9-B92B-9BE2B8BB6AF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CAD73D-F8CB-46DE-8ED8-25740082E2D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -22,21 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$B$19:$B$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Day by Day'!$B$19:$B$29</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Day by Day'!$H$19:$H$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Day by Day'!$H$19:$H$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$31</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -87,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="231">
   <si>
     <t>Market</t>
   </si>
@@ -590,9 +580,6 @@
     <t>Just over</t>
   </si>
   <si>
-    <t>Choose</t>
-  </si>
-  <si>
     <t>Spencer Dinwiddie over 5.5 AST</t>
   </si>
   <si>
@@ -645,6 +632,144 @@
   </si>
   <si>
     <t>Marvin Williams under 11.5</t>
+  </si>
+  <si>
+    <t>Just Under</t>
+  </si>
+  <si>
+    <t>Willie Cauley Stein under 13.5</t>
+  </si>
+  <si>
+    <t>James Harden under 6.5 REB</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge over 19.5</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge under 20.5</t>
+  </si>
+  <si>
+    <t>Fred VanVleet under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Joe Ingles over 4.5 AST</t>
+  </si>
+  <si>
+    <t>Rudy Gobert over 10.5 REB</t>
+  </si>
+  <si>
+    <t>Joel Embiid under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Harrison Barnes under 4.5 REB</t>
+  </si>
+  <si>
+    <t>Danny Green under 4.5 REB</t>
+  </si>
+  <si>
+    <t>Fred VanVleet under 12.5</t>
+  </si>
+  <si>
+    <t>Brook Lopez Under (3.5 REB)</t>
+  </si>
+  <si>
+    <t>Patty Mills over 2.5 AST</t>
+  </si>
+  <si>
+    <t>Marc Gasol under 4.5 AST</t>
+  </si>
+  <si>
+    <t>James Harden under 9.5 AST</t>
+  </si>
+  <si>
+    <t>Damian Lillard under 5.5 AST</t>
+  </si>
+  <si>
+    <t>James Harden under 7.5 REB</t>
+  </si>
+  <si>
+    <t>Russell Westbrook under 23.5</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky under 8.5 PTS</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon under 7.5 REB</t>
+  </si>
+  <si>
+    <t>Jeff Teague over 11.5</t>
+  </si>
+  <si>
+    <t>KAT under 12.5 REB</t>
+  </si>
+  <si>
+    <t>Zach Lavine over 3.5 REB</t>
+  </si>
+  <si>
+    <t>Spencer Dinwiddie under 18.5</t>
+  </si>
+  <si>
+    <t>Jarrett Allen under 12.5</t>
+  </si>
+  <si>
+    <t>Pascal Siakam under 7.5 REB</t>
+  </si>
+  <si>
+    <t>TJ Warren over 18.5</t>
+  </si>
+  <si>
+    <t>Al Farouq Aminu Under 11.5</t>
+  </si>
+  <si>
+    <t>Kevin Know under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic under 13.5 REB</t>
+  </si>
+  <si>
+    <t>Lonzo Ball under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Brandon Ingram under 20.5</t>
+  </si>
+  <si>
+    <t>Lonzo Ball under 11.5</t>
+  </si>
+  <si>
+    <t>Paul Millsap over 6.5 REB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricky Rubio under 14.5 </t>
+  </si>
+  <si>
+    <t>Donovan Mitchell under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell over 3.5 AST</t>
+  </si>
+  <si>
+    <t>Mike Conley under 3.5 REB</t>
+  </si>
+  <si>
+    <t>Mike Conley under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Jrue Holiday Iver 7.5 AST</t>
+  </si>
+  <si>
+    <t>Demar Derozan under 22.5</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge under 22.5</t>
+  </si>
+  <si>
+    <t>Jamal Murray under 19.5</t>
+  </si>
+  <si>
+    <t>Percent win</t>
   </si>
 </sst>
 </file>
@@ -657,7 +782,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +824,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -866,7 +997,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1046,13 +1177,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1060,6 +1195,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1243,6 +1399,12 @@
                 <c:pt idx="10">
                   <c:v>43471</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43473</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1283,7 +1445,13 @@
                   <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,6 +1528,12 @@
                 <c:pt idx="10">
                   <c:v>43471</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43473</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1400,7 +1574,13 @@
                   <c:v>13.259999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.5</c:v>
+                  <c:v>-65.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-13.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,7 +1670,13 @@
                   <c:v>127.64999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.14999999999998</c:v>
+                  <c:v>62.449999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.049999999999983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.249999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1613,6 +1799,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="626974200"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -1626,6 +1813,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="626973544"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3270,7 +3458,7 @@
   <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,39 +3507,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>2221.92</v>
+        <v>2903.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>128.53000000000003</v>
+        <v>58.630000000000052</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>121.15000000000003</v>
+        <v>51.250000000000057</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>5.4524915388492849E-2</v>
+        <v>1.7648557811509979E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9575457262187654</v>
+        <v>1.9515241466707065</v>
       </c>
     </row>
   </sheetData>
@@ -3361,10 +3549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:J29"/>
+  <dimension ref="B18:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3380,7 +3568,7 @@
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>6</v>
       </c>
@@ -3408,8 +3596,11 @@
       <c r="J18" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="29">
         <v>43452</v>
       </c>
@@ -3445,8 +3636,12 @@
         <f>SUM($H$19:H19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="12" t="e">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B19, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>43453</v>
       </c>
@@ -3482,8 +3677,12 @@
         <f>SUM($H$19:H20)</f>
         <v>40.46</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B20, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B20)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>43456</v>
       </c>
@@ -3519,8 +3718,12 @@
         <f>SUM($H$19:H21)</f>
         <v>45.560000000000009</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B21, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B21)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>43457</v>
       </c>
@@ -3556,8 +3759,12 @@
         <f>SUM($H$19:H22)</f>
         <v>81.25</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B22, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B22)</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>43458</v>
       </c>
@@ -3593,8 +3800,12 @@
         <f>SUM($H$19:H23)</f>
         <v>93.2</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B23, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B23)</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>43460</v>
       </c>
@@ -3630,8 +3841,12 @@
         <f>SUM($H$19:H24)</f>
         <v>103.4</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B24, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B24)</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>43462</v>
       </c>
@@ -3667,8 +3882,12 @@
         <f>SUM($H$19:H25)</f>
         <v>50.61999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B25, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B25)</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
         <v>43468</v>
       </c>
@@ -3704,8 +3923,12 @@
         <f>SUM($H$19:H26)</f>
         <v>164.7</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B26, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B26)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>43469</v>
       </c>
@@ -3741,8 +3964,12 @@
         <f>SUM($H$19:H27)</f>
         <v>114.38999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B27, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>43470</v>
       </c>
@@ -3778,18 +4005,22 @@
         <f>SUM($H$19:H28)</f>
         <v>127.64999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B28, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B28)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>43471</v>
       </c>
       <c r="C29" s="14">
         <f>COUNTIF(Master!A:A,'Day by Day'!B29)</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D29" s="16">
         <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B29)</f>
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="E29" s="16">
         <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B29)</f>
@@ -3797,7 +4028,7 @@
       </c>
       <c r="F29" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B29)</f>
-        <v>-6.5</v>
+        <v>-65.199999999999989</v>
       </c>
       <c r="G29" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B29)</f>
@@ -3805,15 +4036,101 @@
       </c>
       <c r="H29" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B29)</f>
-        <v>-6.5</v>
+        <v>-65.199999999999989</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" ref="I29" si="8">IFERROR(H29/D29,0)</f>
-        <v>-8.1250000000000003E-2</v>
+        <v>-0.21032258064516127</v>
       </c>
       <c r="J29" s="13">
         <f>SUM($H$19:H29)</f>
-        <v>121.14999999999998</v>
+        <v>62.449999999999989</v>
+      </c>
+      <c r="K29" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B29, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B29)</f>
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>43472</v>
+      </c>
+      <c r="C30" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B30)</f>
+        <v>15</v>
+      </c>
+      <c r="D30" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B30)</f>
+        <v>210</v>
+      </c>
+      <c r="E30" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B30)</f>
+        <v>-13.400000000000006</v>
+      </c>
+      <c r="G30" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B30)</f>
+        <v>-13.400000000000006</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30" si="9">IFERROR(H30/D30,0)</f>
+        <v>-6.380952380952383E-2</v>
+      </c>
+      <c r="J30" s="13">
+        <f>SUM($H$19:H30)</f>
+        <v>49.049999999999983</v>
+      </c>
+      <c r="K30" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B30, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B30)</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>43473</v>
+      </c>
+      <c r="C31" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B31)</f>
+        <v>21</v>
+      </c>
+      <c r="D31" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B31)</f>
+        <v>242</v>
+      </c>
+      <c r="E31" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B31)</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="G31" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B31)</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" ref="I31" si="10">IFERROR(H31/D31,0)</f>
+        <v>9.0909090909090887E-3</v>
+      </c>
+      <c r="J31" s="13">
+        <f>SUM($H$19:H31)</f>
+        <v>51.249999999999986</v>
+      </c>
+      <c r="K31" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B31, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B31)</f>
+        <v>0.52380952380952384</v>
       </c>
     </row>
   </sheetData>
@@ -3828,23 +4145,26 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>159</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="D2" t="s">
         <v>160</v>
       </c>
       <c r="E2">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -3852,13 +4172,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.0299999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -3866,13 +4186,13 @@
         <v>81</v>
       </c>
       <c r="C4">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
       </c>
       <c r="E4">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3881,14 +4201,14 @@
       </c>
       <c r="C5">
         <f>1/C4</f>
-        <v>0.56818181818181823</v>
+        <v>0.42918454935622319</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
       </c>
       <c r="E5">
         <f>1/E4</f>
-        <v>0.56818181818181823</v>
+        <v>0.68493150684931503</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -3896,14 +4216,14 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <f>E6+C6</f>
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -3926,49 +4246,49 @@
       </c>
       <c r="C9">
         <f>1-E5</f>
-        <v>0.43181818181818177</v>
+        <v>0.31506849315068497</v>
       </c>
       <c r="D9">
         <f>C6*C3-F6</f>
-        <v>-0.10000000000000853</v>
+        <v>7.4000000000000057</v>
       </c>
       <c r="E9">
         <f>C9*D9</f>
-        <v>-4.318181818182186E-2</v>
+        <v>2.3315068493150704</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <f>1-C5</f>
-        <v>0.43181818181818177</v>
+        <v>0.57081545064377681</v>
       </c>
       <c r="D10">
         <f>E6*E3-F6</f>
-        <v>-5.1999999999999957</v>
+        <v>-12.899999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:E11" si="0">C10*D10</f>
-        <v>-2.2454545454545434</v>
+        <v>-7.3635193133047201</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>162</v>
       </c>
-      <c r="C11">
-        <f>4/30</f>
-        <v>0.13333333333333333</v>
+      <c r="C11" s="93">
+        <f>1-SUM(C9:C10)</f>
+        <v>0.11411605620553822</v>
       </c>
       <c r="D11">
         <f>C6*C3+E6*E3-F6</f>
-        <v>55.699999999999989</v>
+        <v>24.500000000000007</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>7.426666666666665</v>
+        <v>2.7958433770356872</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -3977,11 +4297,11 @@
       </c>
       <c r="C12">
         <f>SUM(C9:C11)</f>
-        <v>0.99696969696969684</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <f>SUM(E9:E11)</f>
-        <v>5.1380303030303001</v>
+        <v>-2.236169086953963</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +4314,7 @@
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4016,7 +4336,7 @@
         <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>141</v>
@@ -4033,7 +4353,7 @@
         <v>136</v>
       </c>
       <c r="C3">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="D3">
         <f>IF(D6, 1, "")</f>
@@ -4041,14 +4361,14 @@
       </c>
       <c r="E3">
         <f>D3*C3-D3</f>
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="F3">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <f>ROUND(D3,2)</f>
@@ -4056,11 +4376,11 @@
       </c>
       <c r="J3">
         <f>H3*C3-H3</f>
-        <v>26.5</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <f>-H3</f>
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -4068,34 +4388,34 @@
         <v>137</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="D4">
         <f>IF(D6, C3/C4, "")</f>
-        <v>1.03</v>
+        <v>1.2032085561497325</v>
       </c>
       <c r="E4">
         <f>-D4</f>
-        <v>-1.03</v>
+        <v>-1.2032085561497325</v>
       </c>
       <c r="F4">
         <f>D4*C4-D4</f>
-        <v>1.03</v>
+        <v>1.0467914438502675</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <f>ROUND(D4,2)</f>
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="J4">
         <f>-H4</f>
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="K4">
         <f>H4*C4-H4</f>
-        <v>25</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -4104,19 +4424,19 @@
       </c>
       <c r="E5">
         <f>SUM(E3:E4)</f>
-        <v>3.0000000000000027E-2</v>
+        <v>4.6791443850267456E-2</v>
       </c>
       <c r="F5">
         <f>SUM(F3:F4)</f>
-        <v>3.0000000000000027E-2</v>
+        <v>4.6791443850267456E-2</v>
       </c>
       <c r="J5">
         <f>SUM(J3:J4)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <f>SUM(K3:K4)</f>
-        <v>0</v>
+        <v>0.35999999999999943</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -4135,11 +4455,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q205"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I185" sqref="I185:I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7537,16 +7857,16 @@
         <v>15</v>
       </c>
       <c r="J87" s="69">
-        <f t="shared" ref="J87:J146" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
+        <f t="shared" ref="J87:J161" si="21">IF(I87="", 0, IF(I87="Win", F87*D87-F87, -F87))</f>
         <v>10</v>
       </c>
       <c r="K87" s="70"/>
       <c r="L87" s="45">
-        <f t="shared" ref="L87:L146" si="22">ROUND(-K87*J87, 2)</f>
+        <f t="shared" ref="L87:L161" si="22">ROUND(-K87*J87, 2)</f>
         <v>0</v>
       </c>
       <c r="M87" s="46">
-        <f t="shared" ref="M87:M146" si="23">J87+L87</f>
+        <f t="shared" ref="M87:M161" si="23">J87+L87</f>
         <v>10</v>
       </c>
       <c r="N87" s="1" t="b">
@@ -9183,7 +9503,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D125" s="7">
         <v>2.06</v>
@@ -9219,7 +9539,7 @@
         <v>10</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D126" s="5">
         <v>2</v>
@@ -9251,7 +9571,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D127" s="5">
         <v>2.09</v>
@@ -9283,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D128" s="5">
         <v>1.95</v>
@@ -9315,7 +9635,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D129" s="5">
         <v>2.0299999999999998</v>
@@ -9379,7 +9699,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D131" s="5">
         <v>1.99</v>
@@ -9411,7 +9731,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D132" s="5">
         <v>1.88</v>
@@ -9475,7 +9795,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D134" s="5">
         <v>1.79</v>
@@ -9507,7 +9827,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D135" s="5">
         <v>2.14</v>
@@ -9571,7 +9891,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" s="5">
         <v>2.1</v>
@@ -9603,7 +9923,7 @@
         <v>10</v>
       </c>
       <c r="C138" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D138" s="56">
         <v>1.65</v>
@@ -9639,7 +9959,7 @@
         <v>10</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D139" s="5">
         <v>1.83</v>
@@ -9671,7 +9991,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D140" s="5">
         <v>1.91</v>
@@ -9703,7 +10023,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D141" s="5">
         <v>2.44</v>
@@ -9735,7 +10055,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D142" s="5">
         <v>2.62</v>
@@ -9767,7 +10087,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D143" s="5">
         <v>1.81</v>
@@ -9799,7 +10119,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D144" s="5">
         <v>1.9</v>
@@ -9863,7 +10183,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D146" s="5">
         <v>1.99</v>
@@ -9887,28 +10207,1939 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F147" s="6">
+        <v>10</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L147" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M147" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="5">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6">
+        <v>10</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="69">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="L148" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M148" s="46">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="F149" s="6">
+        <v>10</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L149" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F150" s="6">
+        <v>10</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" s="69">
+        <f t="shared" si="21"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L150" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M150" s="46">
+        <f t="shared" si="23"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D151" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F151" s="6">
+        <v>10</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L151" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F152" s="6">
+        <v>10</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="69">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="L152" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="46">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B153" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="F153" s="6">
+        <v>10</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L153" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M153" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B154" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="F154" s="6">
+        <v>10</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L154" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="F155" s="6">
+        <v>10</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="69">
+        <f t="shared" si="21"/>
+        <v>7.5</v>
+      </c>
+      <c r="L155" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M155" s="46">
+        <f t="shared" si="23"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B156" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F156" s="6">
+        <v>10</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L156" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M156" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="F157" s="6">
+        <v>10</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L157" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="F158" s="6">
+        <v>10</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L158" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B159" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F159" s="6">
+        <v>10</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L159" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M159" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B160" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="F160" s="6">
+        <v>10</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="69">
+        <f t="shared" si="21"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="L160" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="46">
+        <f t="shared" si="23"/>
+        <v>6.2000000000000028</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D161" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="F161" s="6">
+        <v>10</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="69">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="L161" s="45">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="46">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B162" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F162" s="6">
+        <v>10</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" s="69">
+        <f t="shared" ref="J162:J184" si="26">IF(I162="", 0, IF(I162="Win", F162*D162-F162, -F162))</f>
+        <v>-10</v>
+      </c>
+      <c r="L162" s="45">
+        <f t="shared" ref="L162:L184" si="27">ROUND(-K162*J162, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M162" s="46">
+        <f t="shared" ref="M162:M184" si="28">J162+L162</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D163" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F163" s="6">
+        <v>10</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L163" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M163" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B164" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D164" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F164" s="6">
+        <v>10</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="69">
+        <f t="shared" si="26"/>
+        <v>10.099999999999998</v>
+      </c>
+      <c r="L164" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="46">
+        <f t="shared" si="28"/>
+        <v>10.099999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B165" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D165" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="F165" s="6">
+        <v>10</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="69">
+        <f t="shared" si="26"/>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="L165" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="46">
+        <f t="shared" si="28"/>
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D166" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="F166" s="6">
+        <v>10</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L166" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M166" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="F167" s="6">
+        <v>10</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="69">
+        <f t="shared" si="26"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="L167" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M167" s="46">
+        <f t="shared" si="28"/>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D168" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="F168" s="6">
+        <v>10</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L168" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="34">
+        <v>43471</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="F169" s="6">
+        <v>10</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" s="69">
+        <f t="shared" si="26"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="L169" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M169" s="46">
+        <f t="shared" si="28"/>
+        <v>7.3999999999999986</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="36">
+        <v>43472</v>
+      </c>
+      <c r="B170" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="7">
+        <v>1.83</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="8">
+        <v>10</v>
+      </c>
+      <c r="G170" s="57"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" s="65">
+        <f t="shared" si="26"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K170" s="4"/>
+      <c r="L170" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="66">
+        <f t="shared" si="28"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="F171" s="6">
+        <v>10</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="69">
+        <f t="shared" si="26"/>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="L171" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M171" s="46">
+        <f t="shared" si="28"/>
+        <v>8.4000000000000021</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B172" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="F172" s="6">
+        <v>10</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="69">
+        <f t="shared" si="26"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L172" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M172" s="46">
+        <f t="shared" si="28"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B173" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2.17</v>
+      </c>
+      <c r="F173" s="6">
+        <v>20</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="69">
+        <f t="shared" si="26"/>
+        <v>23.4</v>
+      </c>
+      <c r="L173" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M173" s="46">
+        <f t="shared" si="28"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B174" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D174" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="F174" s="6">
+        <v>50</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" s="69">
+        <f t="shared" si="26"/>
+        <v>-50</v>
+      </c>
+      <c r="L174" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M174" s="46">
+        <f t="shared" si="28"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B175" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D175" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="F175" s="6">
+        <v>10</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L175" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M175" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D176" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="F176" s="6">
+        <v>10</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="69">
+        <f t="shared" si="26"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="L176" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M176" s="46">
+        <f t="shared" si="28"/>
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B177" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D177" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="F177" s="6">
+        <v>10</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="69">
+        <f t="shared" si="26"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L177" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M177" s="46">
+        <f t="shared" si="28"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B178" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F178" s="6">
+        <v>10</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L178" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M178" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D179" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F179" s="6">
+        <v>10</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L179" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M179" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D180" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="F180" s="6">
+        <v>10</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L180" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M180" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D181" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F181" s="6">
+        <v>10</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="69">
+        <f t="shared" si="26"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="L181" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M181" s="46">
+        <f t="shared" si="28"/>
+        <v>7.6000000000000014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D182" s="5">
+        <v>2</v>
+      </c>
+      <c r="F182" s="6">
+        <v>10</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L182" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M182" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="34">
+        <v>43472</v>
+      </c>
+      <c r="B183" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="F183" s="6">
+        <v>10</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" s="69">
+        <f t="shared" si="26"/>
+        <v>-10</v>
+      </c>
+      <c r="L183" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M183" s="46">
+        <f t="shared" si="28"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="37">
+        <v>43472</v>
+      </c>
+      <c r="B184" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D184" s="56">
+        <v>2</v>
+      </c>
+      <c r="E184" s="56"/>
+      <c r="F184" s="38">
+        <v>20</v>
+      </c>
+      <c r="G184" s="63"/>
+      <c r="H184" s="64"/>
+      <c r="I184" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J184" s="51">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="K184" s="39"/>
+      <c r="L184" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M184" s="72">
+        <f t="shared" si="28"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B185" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D185" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F185" s="6">
+        <v>10</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="69">
+        <f t="shared" ref="J185:J205" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
+        <v>10.7</v>
+      </c>
+      <c r="L185" s="45">
+        <f t="shared" ref="L185:L205" si="30">ROUND(-K185*J185, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M185" s="46">
+        <f t="shared" ref="M185:M205" si="31">J185+L185</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="F186" s="6">
+        <v>10</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J186" s="69">
+        <f t="shared" si="29"/>
+        <v>9.0999999999999979</v>
+      </c>
+      <c r="L186" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M186" s="46">
+        <f t="shared" si="31"/>
+        <v>9.0999999999999979</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F187" s="6">
+        <v>10</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J187" s="69">
+        <f t="shared" si="29"/>
+        <v>9.5</v>
+      </c>
+      <c r="L187" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="46">
+        <f t="shared" si="31"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="F188" s="6">
+        <v>10</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="69">
+        <f t="shared" si="29"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="L188" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="46">
+        <f t="shared" si="31"/>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D189" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="F189" s="6">
+        <v>10</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L189" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M189" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1.92</v>
+      </c>
+      <c r="F190" s="6">
+        <v>10</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J190" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L190" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M190" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D191" s="5">
+        <v>2.13</v>
+      </c>
+      <c r="F191" s="6">
+        <v>10</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L191" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M191" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="F192" s="6">
+        <v>10</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" s="69">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="L192" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M192" s="46">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="F193" s="6">
+        <v>10</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L193" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M193" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1.74</v>
+      </c>
+      <c r="F194" s="6">
+        <v>10</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="69">
+        <f t="shared" si="29"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="L194" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M194" s="46">
+        <f t="shared" si="31"/>
+        <v>7.3999999999999986</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F195" s="6">
+        <v>10</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J195" s="69">
+        <f t="shared" si="29"/>
+        <v>9.5</v>
+      </c>
+      <c r="L195" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M195" s="46">
+        <f t="shared" si="31"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="F196" s="6">
+        <v>24</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196" s="69">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+      <c r="L196" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M196" s="46">
+        <f t="shared" si="31"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D197" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F197" s="6">
+        <v>28</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" s="69">
+        <f t="shared" si="29"/>
+        <v>-28</v>
+      </c>
+      <c r="L197" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M197" s="46">
+        <f t="shared" si="31"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D198" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="F198" s="6">
+        <v>10</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198" s="69">
+        <f t="shared" si="29"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="L198" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M198" s="46">
+        <f t="shared" si="31"/>
+        <v>10.399999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D199" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="F199" s="6">
+        <v>10</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L199" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M199" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D200" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F200" s="6">
+        <v>10</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J200" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L200" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M200" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D201" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="F201" s="6">
+        <v>10</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L201" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M201" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F202" s="6">
+        <v>10</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J202" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L202" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M202" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D203" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F203" s="6">
+        <v>10</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L203" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M203" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="34">
+        <v>43473</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D204" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="F204" s="6">
+        <v>10</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J204" s="69">
+        <f t="shared" si="29"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L204" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="46">
+        <f t="shared" si="31"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="37">
+        <v>43473</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D205" s="56">
+        <v>1.87</v>
+      </c>
+      <c r="E205" s="56"/>
+      <c r="F205" s="38">
+        <v>10</v>
+      </c>
+      <c r="G205" s="63"/>
+      <c r="H205" s="64"/>
+      <c r="I205" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J205" s="51">
+        <f t="shared" si="29"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="K205" s="39"/>
+      <c r="L205" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M205" s="72">
+        <f t="shared" si="31"/>
+        <v>8.7000000000000028</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:N118" xr:uid="{C495B646-4148-40E1-952F-15C071FCCAB6}"/>
   <conditionalFormatting sqref="I3:I1048576">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B72 B74:B105 B107:B1048576">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Ladbrokes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -9919,7 +12150,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="C172:C185 C188:C205">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -9937,10 +12168,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10040,23 +12271,23 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1139.8</v>
+        <v>1703.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-222.33</v>
+        <v>-289.23</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>202.67</v>
+        <v>235.76999999999998</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -10077,23 +12308,23 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>866.8</v>
+        <v>984.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>211.73000000000005</v>
+        <v>208.73000000000008</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>695.93000000000006</v>
+        <v>392.93000000000006</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -10117,15 +12348,15 @@
       <c r="E6" s="79"/>
       <c r="F6" s="47">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>121.15000000000003</v>
+        <v>51.250000000000057</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>999.06</v>
+        <v>729.16000000000008</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>
@@ -10179,6 +12410,28 @@
       </c>
       <c r="M9" s="13">
         <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J10" s="75">
+        <v>43471</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="75">
+        <v>43108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="13">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CAD73D-F8CB-46DE-8ED8-25740082E2D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF81ACA-F5DF-4009-916F-A9370B614CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -22,11 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$32</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$30</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$32</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="235">
   <si>
     <t>Market</t>
   </si>
@@ -770,6 +770,18 @@
   </si>
   <si>
     <t>Percent win</t>
+  </si>
+  <si>
+    <t>Ben Simmons under 17.5</t>
+  </si>
+  <si>
+    <t>Kevin Knox under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Kevin Knox under 14.5</t>
+  </si>
+  <si>
+    <t>win</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1374,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Day by Day'!$B$19:$B$32</c:f>
+              <c:f>'Day by Day'!$B$19:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43452</c:v>
                 </c:pt>
@@ -1405,15 +1417,18 @@
                 <c:pt idx="12">
                   <c:v>43473</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$D$19:$D$32</c:f>
+              <c:f>'Day by Day'!$D$19:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1453,6 +1468,9 @@
                 <c:pt idx="12">
                   <c:v>242</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1491,10 +1509,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Day by Day'!$B$19:$B$32</c:f>
+              <c:f>'Day by Day'!$B$19:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43452</c:v>
                 </c:pt>
@@ -1533,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43473</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,6 +1602,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,10 +1659,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Day by Day'!$J$19:$J$32</c:f>
+              <c:f>'Day by Day'!$J$19:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1677,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>51.249999999999986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.84999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,7 +3485,7 @@
   <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3507,39 +3534,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>2903.92</v>
+        <v>2953.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>58.630000000000052</v>
+        <v>64.230000000000047</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>51.250000000000057</v>
+        <v>56.850000000000058</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>1.7648557811509979E-2</v>
+        <v>1.9245612609684777E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.55172413793103448</v>
+        <v>0.55288461538461542</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9515241466707065</v>
+        <v>1.9495687086989484</v>
       </c>
     </row>
   </sheetData>
@@ -3549,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K31"/>
+  <dimension ref="B18:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,6 +4158,47 @@
       <c r="K31" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B31, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B31)</f>
         <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>43474</v>
+      </c>
+      <c r="C32" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B32)</f>
+        <v>5</v>
+      </c>
+      <c r="D32" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B32)</f>
+        <v>50</v>
+      </c>
+      <c r="E32" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B32)</f>
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="G32" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B32)</f>
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ref="I32" si="11">IFERROR(H32/D32,0)</f>
+        <v>0.11199999999999996</v>
+      </c>
+      <c r="J32" s="13">
+        <f>SUM($H$19:H32)</f>
+        <v>56.84999999999998</v>
+      </c>
+      <c r="K32" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B32, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B32)</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4455,11 +4523,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q205"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I185" sqref="I185:I205"/>
+      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206:A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11451,15 +11519,15 @@
         <v>15</v>
       </c>
       <c r="J185" s="69">
-        <f t="shared" ref="J185:J205" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
+        <f t="shared" ref="J185:J210" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
         <v>10.7</v>
       </c>
       <c r="L185" s="45">
-        <f t="shared" ref="L185:L205" si="30">ROUND(-K185*J185, 2)</f>
+        <f t="shared" ref="L185:L210" si="30">ROUND(-K185*J185, 2)</f>
         <v>0</v>
       </c>
       <c r="M185" s="46">
-        <f t="shared" ref="M185:M205" si="31">J185+L185</f>
+        <f t="shared" ref="M185:M210" si="31">J185+L185</f>
         <v>10.7</v>
       </c>
     </row>
@@ -12105,6 +12173,166 @@
       <c r="M205" s="72">
         <f t="shared" si="31"/>
         <v>8.7000000000000028</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="34">
+        <v>43474</v>
+      </c>
+      <c r="B206" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D206" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F206" s="6">
+        <v>10</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L206" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M206" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="34">
+        <v>43474</v>
+      </c>
+      <c r="B207" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D207" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="F207" s="6">
+        <v>10</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J207" s="69">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="L207" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M207" s="46">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" s="34">
+        <v>43474</v>
+      </c>
+      <c r="B208" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="F208" s="6">
+        <v>10</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J208" s="69">
+        <f t="shared" si="29"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="L208" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M208" s="46">
+        <f t="shared" si="31"/>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" s="34">
+        <v>43474</v>
+      </c>
+      <c r="B209" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D209" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="F209" s="6">
+        <v>10</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J209" s="69">
+        <f t="shared" si="29"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="L209" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M209" s="46">
+        <f t="shared" si="31"/>
+        <v>7.8999999999999986</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="34">
+        <v>43474</v>
+      </c>
+      <c r="B210" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D210" s="5">
+        <v>2</v>
+      </c>
+      <c r="F210" s="6">
+        <v>10</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J210" s="69">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="L210" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M210" s="46">
+        <f t="shared" si="31"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12150,7 +12378,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C205">
+  <conditionalFormatting sqref="C172:C185 C188:C210">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12271,11 +12499,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1703.8</v>
+        <v>1753.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -12283,11 +12511,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-289.23</v>
+        <v>-283.63000000000005</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>235.76999999999998</v>
+        <v>241.36999999999995</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -12352,11 +12580,11 @@
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>51.250000000000057</v>
+        <v>56.850000000000023</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>729.16000000000008</v>
+        <v>734.76</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>
@@ -12374,7 +12602,7 @@
       </c>
       <c r="G7" s="82" t="b">
         <f>G6=Overall!E3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="81" t="b">
         <f>H6=SUM(C3:C5,F3:G5)</f>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF81ACA-F5DF-4009-916F-A9370B614CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFBCF5-ACBC-4AEB-9913-42012620BA50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$33</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$33</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="238">
   <si>
     <t>Market</t>
   </si>
@@ -782,6 +782,15 @@
   </si>
   <si>
     <t>win</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic under 12.5 REB</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari under 6.5 REB</t>
   </si>
 </sst>
 </file>
@@ -1420,6 +1429,9 @@
                 <c:pt idx="13">
                   <c:v>43474</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>43480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1470,6 +1482,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,6 +1722,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>56.84999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.84999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3534,39 +3555,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>2953.92</v>
+        <v>2993.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>64.230000000000047</v>
+        <v>82.230000000000047</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>56.850000000000058</v>
+        <v>74.850000000000065</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>1.9245612609684777E-2</v>
+        <v>2.5000668020521612E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.55288461538461542</v>
+        <v>0.55660377358490565</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9495687086989484</v>
+        <v>1.9488396483539967</v>
       </c>
     </row>
   </sheetData>
@@ -3576,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K32"/>
+  <dimension ref="B18:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4199,6 +4220,47 @@
       <c r="K32" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B32, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B32)</f>
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
+        <v>43480</v>
+      </c>
+      <c r="C33" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B33)</f>
+        <v>4</v>
+      </c>
+      <c r="D33" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B33)</f>
+        <v>40</v>
+      </c>
+      <c r="E33" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B33)</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="G33" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B33)</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" ref="I33" si="12">IFERROR(H33/D33,0)</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="J33" s="13">
+        <f>SUM($H$19:H33)</f>
+        <v>74.84999999999998</v>
+      </c>
+      <c r="K33" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B33, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B33)</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -4523,11 +4585,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q214"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206:A210"/>
+      <pane ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M206" sqref="M206:M210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11519,15 +11581,15 @@
         <v>15</v>
       </c>
       <c r="J185" s="69">
-        <f t="shared" ref="J185:J210" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
+        <f t="shared" ref="J185:J214" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
         <v>10.7</v>
       </c>
       <c r="L185" s="45">
-        <f t="shared" ref="L185:L210" si="30">ROUND(-K185*J185, 2)</f>
+        <f t="shared" ref="L185:L214" si="30">ROUND(-K185*J185, 2)</f>
         <v>0</v>
       </c>
       <c r="M185" s="46">
-        <f t="shared" ref="M185:M210" si="31">J185+L185</f>
+        <f t="shared" ref="M185:M214" si="31">J185+L185</f>
         <v>10.7</v>
       </c>
     </row>
@@ -12333,6 +12395,142 @@
       <c r="M210" s="46">
         <f t="shared" si="31"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="36">
+        <v>43480</v>
+      </c>
+      <c r="B211" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D211" s="7">
+        <v>1.78</v>
+      </c>
+      <c r="E211" s="7"/>
+      <c r="F211" s="8">
+        <v>10</v>
+      </c>
+      <c r="G211" s="57"/>
+      <c r="H211" s="58"/>
+      <c r="I211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" s="65">
+        <f t="shared" si="29"/>
+        <v>-10</v>
+      </c>
+      <c r="K211" s="4"/>
+      <c r="L211" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="66">
+        <f t="shared" si="31"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" s="34">
+        <v>43480</v>
+      </c>
+      <c r="B212" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D212" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F212" s="6">
+        <v>10</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J212" s="69">
+        <f t="shared" si="29"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L212" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M212" s="46">
+        <f t="shared" si="31"/>
+        <v>8.7000000000000028</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" s="34">
+        <v>43480</v>
+      </c>
+      <c r="B213" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D213" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F213" s="6">
+        <v>10</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J213" s="69">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="L213" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M213" s="46">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="37">
+        <v>43480</v>
+      </c>
+      <c r="B214" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D214" s="56">
+        <v>1.83</v>
+      </c>
+      <c r="E214" s="56"/>
+      <c r="F214" s="38">
+        <v>10</v>
+      </c>
+      <c r="G214" s="63"/>
+      <c r="H214" s="64"/>
+      <c r="I214" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J214" s="51">
+        <f t="shared" si="29"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K214" s="39"/>
+      <c r="L214" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M214" s="72">
+        <f t="shared" si="31"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -12378,7 +12576,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C210">
+  <conditionalFormatting sqref="C172:C185 C188:C214">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12399,7 +12597,7 @@
   <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12412,7 +12610,8 @@
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="8" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="13"/>
+    <col min="12" max="12" width="8.88671875" style="13"/>
+    <col min="13" max="13" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
@@ -12536,23 +12735,23 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>984.8</v>
+        <v>1024.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>208.73000000000008</v>
+        <v>226.73000000000008</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>392.93000000000006</v>
+        <v>310.93000000000006</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -12576,15 +12775,15 @@
       <c r="E6" s="79"/>
       <c r="F6" s="47">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>56.850000000000023</v>
+        <v>74.850000000000023</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>734.76</v>
+        <v>652.76</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>
@@ -12601,8 +12800,8 @@
         <v>78</v>
       </c>
       <c r="G7" s="82" t="b">
-        <f>G6=Overall!E3</f>
-        <v>0</v>
+        <f>Overall!E3-G6 &lt; 0.01</f>
+        <v>1</v>
       </c>
       <c r="H7" s="81" t="b">
         <f>H6=SUM(C3:C5,F3:G5)</f>
@@ -12659,7 +12858,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="13">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCFBCF5-ACBC-4AEB-9913-42012620BA50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B0E05-4D70-40A3-8EDC-A0C84C14E735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$33</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$33</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$34</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$34</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -43,7 +41,7 @@
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Cross!$E$10</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Cross!$C$14</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
@@ -57,7 +55,7 @@
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="244">
   <si>
     <t>Market</t>
   </si>
@@ -496,9 +494,6 @@
     <t>x wins</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>y wins</t>
   </si>
   <si>
@@ -562,9 +557,6 @@
     <t>Under</t>
   </si>
   <si>
-    <t>Pr</t>
-  </si>
-  <si>
     <t>Over and under</t>
   </si>
   <si>
@@ -791,17 +783,42 @@
   </si>
   <si>
     <t>Danilo Gallinari under 6.5 REB</t>
+  </si>
+  <si>
+    <t>Russell Westbrook under 12.5 AST</t>
+  </si>
+  <si>
+    <t>Jerami Grant under 5.5 REB</t>
+  </si>
+  <si>
+    <t>Kyle Kuzma under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Profit:</t>
+  </si>
+  <si>
+    <t>Pr over</t>
+  </si>
+  <si>
+    <t>Pr under</t>
+  </si>
+  <si>
+    <t>Worst case</t>
+  </si>
+  <si>
+    <t>Best case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -853,15 +870,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1012,13 +1035,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1198,10 +1247,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1432,6 +1554,9 @@
                 <c:pt idx="14">
                   <c:v>43480</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>43481</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1485,6 +1610,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,6 +1856,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>74.84999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104.64999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,10 +2091,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1970,7 +2104,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3505,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE740B-DE5B-4DA0-BB8C-CF8C70395C12}">
   <dimension ref="B2:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3548,34 +3682,34 @@
         <v>79</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="90"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>2993.92</v>
+        <v>3023.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>82.230000000000047</v>
+        <v>112.03000000000004</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>74.850000000000065</v>
+        <v>104.65000000000006</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>2.5000668020521612E-2</v>
+        <v>3.4607397021085236E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
@@ -3583,11 +3717,11 @@
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.55660377358490565</v>
+        <v>0.56279069767441858</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9488396483539967</v>
+        <v>1.9492810656366566</v>
       </c>
     </row>
   </sheetData>
@@ -3597,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K33"/>
+  <dimension ref="B18:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,7 +3779,7 @@
         <v>32</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -3684,10 +3818,7 @@
         <f>SUM($H$19:H19)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="12" t="e">
-        <f>COUNTIFS(Master!A:A, 'Day by Day'!B19, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B19)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
@@ -4261,6 +4392,47 @@
       <c r="K33" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B33, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B33)</f>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
+        <v>43481</v>
+      </c>
+      <c r="C34" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B34)</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B34)</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B34)</f>
+        <v>29.8</v>
+      </c>
+      <c r="G34" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B34)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B34)</f>
+        <v>29.8</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" ref="I34" si="13">IFERROR(H34/D34,0)</f>
+        <v>0.9933333333333334</v>
+      </c>
+      <c r="J34" s="13">
+        <f>SUM($H$19:H34)</f>
+        <v>104.64999999999998</v>
+      </c>
+      <c r="K34" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B34, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B34)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4272,166 +4444,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5CC70-3B01-4547-8649-2574819AA279}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="121">
+        <v>14.5</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="C2">
-        <v>14.5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="122">
         <v>15.5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="123">
         <v>1.87</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="124">
         <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="123">
         <v>2.33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="124">
         <v>1.46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="125">
         <f>1/C4</f>
         <v>0.42918454935622319</v>
       </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="126">
         <f>1/E4</f>
         <v>0.68493150684931503</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="127">
+        <v>48</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="128">
+        <v>52</v>
+      </c>
+      <c r="F6" s="129">
         <f>E6+C6</f>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8" s="94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9">
+      <c r="C9" s="118">
         <f>1-E5</f>
         <v>0.31506849315068497</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="22">
         <f>C6*C3-F6</f>
-        <v>7.4000000000000057</v>
-      </c>
-      <c r="E9">
+        <v>-10.239999999999995</v>
+      </c>
+      <c r="E9" s="66">
         <f>C9*D9</f>
-        <v>2.3315068493150704</v>
+        <v>-3.2263013698630125</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="119">
         <f>1-C5</f>
         <v>0.57081545064377681</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="45">
         <f>E6*E3-F6</f>
-        <v>-12.899999999999999</v>
-      </c>
-      <c r="E10">
+        <v>-11.079999999999998</v>
+      </c>
+      <c r="E10" s="46">
         <f t="shared" ref="E10:E11" si="0">C10*D10</f>
-        <v>-7.3635193133047201</v>
+        <v>-6.3246351931330462</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="93">
+      <c r="B11" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="120">
         <f>1-SUM(C9:C10)</f>
         <v>0.11411605620553822</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <f>C6*C3+E6*E3-F6</f>
-        <v>24.500000000000007</v>
-      </c>
-      <c r="E11">
+        <v>78.680000000000007</v>
+      </c>
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
-        <v>2.7958433770356872</v>
+        <v>8.9786513022517482</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="117">
         <f>SUM(C9:C11)</f>
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="2"/>
+      <c r="E12" s="72">
         <f>SUM(E9:E11)</f>
-        <v>-2.236169086953963</v>
+        <v>-0.57228526074431052</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="13">
+        <f>MIN(D9:D11)</f>
+        <v>-11.079999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="13">
+        <f>MAX(D9:D11)</f>
+        <v>78.680000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -4441,141 +4634,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="K2" t="s">
-        <v>140</v>
+      <c r="K2" s="107" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="98">
         <v>2.25</v>
       </c>
-      <c r="D3">
-        <f>IF(D6, 1, "")</f>
+      <c r="D3" s="115">
+        <f>IF(C5, 1, "")</f>
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="111">
         <f>D3*C3-D3</f>
         <v>1.25</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="112">
         <f>-D3</f>
         <v>-1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="102">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="96">
         <f>ROUND(D3,2)</f>
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="70">
         <f>H3*C3-H3</f>
         <v>30</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="108">
         <f>-H3</f>
         <v>-24</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="95">
         <v>1.87</v>
       </c>
-      <c r="D4">
-        <f>IF(D6, C3/C4, "")</f>
+      <c r="D4" s="116">
+        <f>IF(C5, C3/C4, "")</f>
         <v>1.2032085561497325</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="113">
         <f>-D4</f>
         <v>-1.2032085561497325</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="114">
         <f>D4*C4-D4</f>
         <v>1.0467914438502675</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="97">
         <v>28</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
         <v>1.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="39">
         <f>-H4</f>
         <v>-28</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="109">
         <f>H4*C4-H4</f>
         <v>24.36</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="104" t="b">
+        <f>1/C3+1/C4 &lt; 1</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="113">
         <f>SUM(E3:E4)</f>
         <v>4.6791443850267456E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="114">
         <f>SUM(F3:F4)</f>
         <v>4.6791443850267456E-2</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" s="106">
         <f>SUM(J3:J4)</f>
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="107">
         <f>SUM(K3:K4)</f>
         <v>0.35999999999999943</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="b">
-        <f>1/C3+1/C4 &lt; 1</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4585,11 +4781,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q214"/>
+  <dimension ref="A1:Q217"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M206" sqref="M206:M210"/>
+      <pane ySplit="2" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I218" sqref="I218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8977,7 +9173,7 @@
         <v>9</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D109" s="5">
         <v>2.0699999999999998</v>
@@ -9023,7 +9219,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D110" s="5">
         <v>1.8</v>
@@ -9069,7 +9265,7 @@
         <v>9</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D111" s="5">
         <v>1.95</v>
@@ -9115,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" s="5">
         <v>1.91</v>
@@ -9161,7 +9357,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D113" s="5">
         <v>2.1</v>
@@ -9207,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D114" s="5">
         <v>2.1</v>
@@ -9253,7 +9449,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D115" s="5">
         <v>1.61</v>
@@ -9299,7 +9495,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116" s="5">
         <v>2.0499999999999998</v>
@@ -9345,7 +9541,7 @@
         <v>9</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D117" s="5">
         <v>2.09</v>
@@ -9391,7 +9587,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D118" s="56">
         <v>1.75</v>
@@ -9435,7 +9631,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119" s="5">
         <v>1.77</v>
@@ -9467,7 +9663,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D120" s="5">
         <v>1</v>
@@ -9499,7 +9695,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D121" s="5">
         <v>2</v>
@@ -9569,7 +9765,7 @@
         <v>10</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D123" s="5">
         <v>2</v>
@@ -9601,7 +9797,7 @@
         <v>10</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" s="5">
         <v>1.91</v>
@@ -9633,7 +9829,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D125" s="7">
         <v>2.06</v>
@@ -9669,7 +9865,7 @@
         <v>10</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D126" s="5">
         <v>2</v>
@@ -9701,7 +9897,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D127" s="5">
         <v>2.09</v>
@@ -9733,7 +9929,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D128" s="5">
         <v>1.95</v>
@@ -9765,7 +9961,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D129" s="5">
         <v>2.0299999999999998</v>
@@ -9829,7 +10025,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D131" s="5">
         <v>1.99</v>
@@ -9861,7 +10057,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D132" s="5">
         <v>1.88</v>
@@ -9893,7 +10089,7 @@
         <v>9</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" s="5">
         <v>1.92</v>
@@ -9925,7 +10121,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D134" s="5">
         <v>1.79</v>
@@ -9957,7 +10153,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D135" s="5">
         <v>2.14</v>
@@ -10021,7 +10217,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D137" s="5">
         <v>2.1</v>
@@ -10053,7 +10249,7 @@
         <v>10</v>
       </c>
       <c r="C138" s="83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D138" s="56">
         <v>1.65</v>
@@ -10089,7 +10285,7 @@
         <v>10</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D139" s="5">
         <v>1.83</v>
@@ -10121,7 +10317,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D140" s="5">
         <v>1.91</v>
@@ -10153,7 +10349,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D141" s="5">
         <v>2.44</v>
@@ -10185,7 +10381,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D142" s="5">
         <v>2.62</v>
@@ -10217,7 +10413,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D143" s="5">
         <v>1.81</v>
@@ -10249,7 +10445,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D144" s="5">
         <v>1.9</v>
@@ -10313,7 +10509,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D146" s="5">
         <v>1.99</v>
@@ -10345,7 +10541,7 @@
         <v>10</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D147" s="5">
         <v>1.87</v>
@@ -10377,7 +10573,7 @@
         <v>10</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D148" s="5">
         <v>2</v>
@@ -10409,7 +10605,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D149" s="5">
         <v>1.83</v>
@@ -10441,7 +10637,7 @@
         <v>9</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D150" s="5">
         <v>1.93</v>
@@ -10473,7 +10669,7 @@
         <v>10</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D151" s="5">
         <v>2.15</v>
@@ -10537,7 +10733,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D153" s="5">
         <v>1.78</v>
@@ -10601,7 +10797,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D155" s="5">
         <v>1.75</v>
@@ -10633,7 +10829,7 @@
         <v>9</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D156" s="5">
         <v>2.1</v>
@@ -10665,7 +10861,7 @@
         <v>9</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D157" s="5">
         <v>1.7</v>
@@ -10697,7 +10893,7 @@
         <v>9</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D158" s="5">
         <v>1.98</v>
@@ -10729,7 +10925,7 @@
         <v>9</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D159" s="5">
         <v>1.87</v>
@@ -10761,7 +10957,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D160" s="5">
         <v>1.62</v>
@@ -10793,7 +10989,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D161" s="5">
         <v>1.94</v>
@@ -10825,7 +11021,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D162" s="5">
         <v>1.91</v>
@@ -10857,7 +11053,7 @@
         <v>9</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D163" s="5">
         <v>1.76</v>
@@ -10889,7 +11085,7 @@
         <v>9</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D164" s="5">
         <v>2.0099999999999998</v>
@@ -10921,7 +11117,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D165" s="5">
         <v>2.19</v>
@@ -10953,7 +11149,7 @@
         <v>9</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D166" s="5">
         <v>2.06</v>
@@ -10985,7 +11181,7 @@
         <v>9</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D167" s="5">
         <v>2.09</v>
@@ -11017,7 +11213,7 @@
         <v>9</v>
       </c>
       <c r="C168" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D168" s="5">
         <v>2.14</v>
@@ -11049,7 +11245,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D169" s="5">
         <v>1.74</v>
@@ -11149,7 +11345,7 @@
         <v>9</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D172" s="5">
         <v>1.97</v>
@@ -11181,7 +11377,7 @@
         <v>9</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D173" s="5">
         <v>2.17</v>
@@ -11213,7 +11409,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D174" s="5">
         <v>2.04</v>
@@ -11245,7 +11441,7 @@
         <v>9</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D175" s="5">
         <v>1.99</v>
@@ -11309,7 +11505,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D177" s="5">
         <v>1.98</v>
@@ -11341,7 +11537,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D178" s="5">
         <v>1.91</v>
@@ -11373,7 +11569,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D179" s="5">
         <v>1.95</v>
@@ -11405,7 +11601,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D180" s="5">
         <v>1.89</v>
@@ -11437,7 +11633,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D181" s="5">
         <v>1.76</v>
@@ -11469,7 +11665,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D182" s="5">
         <v>2</v>
@@ -11501,7 +11697,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D183" s="5">
         <v>1.74</v>
@@ -11533,7 +11729,7 @@
         <v>10</v>
       </c>
       <c r="C184" s="83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D184" s="56">
         <v>2</v>
@@ -11569,7 +11765,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D185" s="5">
         <v>2.0699999999999998</v>
@@ -11581,15 +11777,15 @@
         <v>15</v>
       </c>
       <c r="J185" s="69">
-        <f t="shared" ref="J185:J214" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
+        <f t="shared" ref="J185:J217" si="29">IF(I185="", 0, IF(I185="Win", F185*D185-F185, -F185))</f>
         <v>10.7</v>
       </c>
       <c r="L185" s="45">
-        <f t="shared" ref="L185:L214" si="30">ROUND(-K185*J185, 2)</f>
+        <f t="shared" ref="L185:L217" si="30">ROUND(-K185*J185, 2)</f>
         <v>0</v>
       </c>
       <c r="M185" s="46">
-        <f t="shared" ref="M185:M214" si="31">J185+L185</f>
+        <f t="shared" ref="M185:M217" si="31">J185+L185</f>
         <v>10.7</v>
       </c>
     </row>
@@ -11600,8 +11796,8 @@
       <c r="B186" t="s">
         <v>9</v>
       </c>
-      <c r="C186" s="94" t="s">
-        <v>214</v>
+      <c r="C186" s="93" t="s">
+        <v>212</v>
       </c>
       <c r="D186" s="5">
         <v>1.91</v>
@@ -11632,8 +11828,8 @@
       <c r="B187" t="s">
         <v>9</v>
       </c>
-      <c r="C187" s="94" t="s">
-        <v>216</v>
+      <c r="C187" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="D187" s="5">
         <v>1.95</v>
@@ -11665,7 +11861,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D188" s="5">
         <v>1.96</v>
@@ -11697,7 +11893,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D189" s="5">
         <v>1.76</v>
@@ -11729,7 +11925,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D190" s="5">
         <v>1.92</v>
@@ -11761,7 +11957,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D191" s="5">
         <v>2.13</v>
@@ -11793,7 +11989,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D192" s="5">
         <v>1.7</v>
@@ -11857,7 +12053,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D194" s="5">
         <v>1.74</v>
@@ -11921,7 +12117,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D196" s="5">
         <v>2.25</v>
@@ -11953,7 +12149,7 @@
         <v>10</v>
       </c>
       <c r="C197" s="40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D197" s="5">
         <v>1.87</v>
@@ -11985,7 +12181,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D198" s="5">
         <v>2.04</v>
@@ -12017,7 +12213,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D199" s="5">
         <v>1.88</v>
@@ -12049,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="C200" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D200" s="5">
         <v>2.1</v>
@@ -12081,7 +12277,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D201" s="5">
         <v>1.55</v>
@@ -12113,7 +12309,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D202" s="5">
         <v>1.87</v>
@@ -12145,7 +12341,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D203" s="5">
         <v>1.87</v>
@@ -12177,7 +12373,7 @@
         <v>10</v>
       </c>
       <c r="C204" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D204" s="5">
         <v>1.83</v>
@@ -12209,7 +12405,7 @@
         <v>10</v>
       </c>
       <c r="C205" s="83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D205" s="56">
         <v>1.87</v>
@@ -12245,7 +12441,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D206" s="5">
         <v>2.0099999999999998</v>
@@ -12277,7 +12473,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D207" s="5">
         <v>1.61</v>
@@ -12341,7 +12537,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D209" s="5">
         <v>1.79</v>
@@ -12350,7 +12546,7 @@
         <v>10</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J209" s="69">
         <f t="shared" si="29"/>
@@ -12373,7 +12569,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D210" s="5">
         <v>2</v>
@@ -12382,7 +12578,7 @@
         <v>10</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J210" s="69">
         <f t="shared" si="29"/>
@@ -12405,7 +12601,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D211" s="7">
         <v>1.78</v>
@@ -12441,7 +12637,7 @@
         <v>10</v>
       </c>
       <c r="C212" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D212" s="5">
         <v>1.87</v>
@@ -12473,7 +12669,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D213" s="5">
         <v>2.1</v>
@@ -12505,7 +12701,7 @@
         <v>10</v>
       </c>
       <c r="C214" s="83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D214" s="56">
         <v>1.83</v>
@@ -12531,6 +12727,106 @@
       <c r="M214" s="72">
         <f t="shared" si="31"/>
         <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" s="34">
+        <v>43481</v>
+      </c>
+      <c r="B215" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D215" s="5">
+        <v>2</v>
+      </c>
+      <c r="F215" s="6">
+        <v>10</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J215" s="69">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="L215" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M215" s="46">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" s="34">
+        <v>43481</v>
+      </c>
+      <c r="B216" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D216" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="F216" s="6">
+        <v>10</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J216" s="69">
+        <f t="shared" si="29"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L216" s="45">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M216" s="46">
+        <f t="shared" si="31"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="37">
+        <v>43481</v>
+      </c>
+      <c r="B217" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D217" s="56">
+        <v>2.15</v>
+      </c>
+      <c r="E217" s="56"/>
+      <c r="F217" s="38">
+        <v>10</v>
+      </c>
+      <c r="G217" s="63"/>
+      <c r="H217" s="64"/>
+      <c r="I217" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J217" s="51">
+        <f t="shared" si="29"/>
+        <v>11.5</v>
+      </c>
+      <c r="K217" s="39"/>
+      <c r="L217" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M217" s="72">
+        <f t="shared" si="31"/>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -12576,7 +12872,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C214">
+  <conditionalFormatting sqref="C172:C185 C188:C217">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12649,7 +12945,7 @@
         <v>102</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -12698,11 +12994,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1753.8</v>
+        <v>1773.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -12710,11 +13006,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-283.63000000000005</v>
+        <v>-265.33000000000004</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>241.36999999999995</v>
+        <v>259.66999999999996</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -12735,11 +13031,11 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1024.8</v>
+        <v>1034.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
@@ -12747,11 +13043,11 @@
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>226.73000000000008</v>
+        <v>238.23000000000008</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>310.93000000000006</v>
+        <v>322.43000000000006</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -12779,11 +13075,11 @@
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>74.850000000000023</v>
+        <v>104.65000000000003</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>652.76</v>
+        <v>682.56</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B0E05-4D70-40A3-8EDC-A0C84C14E735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E665846-CC3A-4013-BF29-3585BB692585}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="2" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$34</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$34</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$35</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$36</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="258">
   <si>
     <t>Market</t>
   </si>
@@ -807,6 +809,48 @@
   </si>
   <si>
     <t>Best case</t>
+  </si>
+  <si>
+    <t>Rudy Gobert under 15.5</t>
+  </si>
+  <si>
+    <t>Luka Doncic under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Eric Bledsoe over 4.5 AST</t>
+  </si>
+  <si>
+    <t>PJ Tucker under 7.5 REB</t>
+  </si>
+  <si>
+    <t>Reggie Jackson over 4.5 AST</t>
+  </si>
+  <si>
+    <t>Reggie Jackson under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell under 25.6</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell under 5.5 AST</t>
+  </si>
+  <si>
+    <t>Luka Doncic under 22.5</t>
+  </si>
+  <si>
+    <t>Danny Green under 11.5</t>
+  </si>
+  <si>
+    <t>Ben simmons under 8.5 AST</t>
+  </si>
+  <si>
+    <t>Ben Simmons over 8.5 AST</t>
+  </si>
+  <si>
+    <t>Danny Green over 11.5</t>
+  </si>
+  <si>
+    <t>Pascal Siakam under 18.5</t>
   </si>
 </sst>
 </file>
@@ -818,7 +862,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1295,10 +1339,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,10 +1355,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,6 +1601,12 @@
                 <c:pt idx="15">
                   <c:v>43481</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43483</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1613,6 +1663,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,6 +1759,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43481</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,6 +1921,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>104.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.84999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.119999999999976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,10 +2159,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2104,7 +2172,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -3689,39 +3757,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="32">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>3023.92</v>
+        <v>3275.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>112.03000000000004</v>
+        <v>57.500000000000043</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>104.65000000000006</v>
+        <v>50.120000000000061</v>
       </c>
       <c r="F3" s="33">
         <f>E3/C3</f>
-        <v>3.4607397021085236E-2</v>
+        <v>1.5299518913770807E-2</v>
       </c>
       <c r="G3" s="51">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I3" s="33">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.56279069767441858</v>
+        <v>0.54741379310344829</v>
       </c>
       <c r="J3" s="92">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9492810656366566</v>
+        <v>1.8892677476861457</v>
       </c>
     </row>
   </sheetData>
@@ -3731,10 +3799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K34"/>
+  <dimension ref="B18:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3747,7 +3815,7 @@
     <col min="7" max="7" width="6.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4433,6 +4501,88 @@
       <c r="K34" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B34, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B34)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <v>43482</v>
+      </c>
+      <c r="C35" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B35)</f>
+        <v>12</v>
+      </c>
+      <c r="D35" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B35)</f>
+        <v>150</v>
+      </c>
+      <c r="E35" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B35)</f>
+        <v>-60.8</v>
+      </c>
+      <c r="G35" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B35)</f>
+        <v>-60.8</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" ref="I35" si="14">IFERROR(H35/D35,0)</f>
+        <v>-0.40533333333333332</v>
+      </c>
+      <c r="J35" s="13">
+        <f>SUM($H$19:H35)</f>
+        <v>43.84999999999998</v>
+      </c>
+      <c r="K35" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B35, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B35)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>43483</v>
+      </c>
+      <c r="C36" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B36)</f>
+        <v>5</v>
+      </c>
+      <c r="D36" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B36)</f>
+        <v>102</v>
+      </c>
+      <c r="E36" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B36)</f>
+        <v>6.269999999999996</v>
+      </c>
+      <c r="G36" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B36)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B36)</f>
+        <v>6.269999999999996</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" ref="I36" si="15">IFERROR(H36/D36,0)</f>
+        <v>6.1470588235294076E-2</v>
+      </c>
+      <c r="J36" s="13">
+        <f>SUM($H$19:H36)</f>
+        <v>50.119999999999976</v>
+      </c>
+      <c r="K36" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B36, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B36)</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4446,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5CC70-3B01-4547-8649-2574819AA279}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4475,13 +4625,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="123">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="124">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -4489,13 +4639,13 @@
         <v>81</v>
       </c>
       <c r="C4" s="123">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="124">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -4504,14 +4654,14 @@
       </c>
       <c r="C5" s="125">
         <f>1/C4</f>
-        <v>0.42918454935622319</v>
+        <v>0.5524861878453039</v>
       </c>
       <c r="D5" s="119" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="126">
         <f>1/E4</f>
-        <v>0.68493150684931503</v>
+        <v>0.5181347150259068</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -4519,15 +4669,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="127">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="128">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F6" s="129">
         <f>E6+C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -4550,15 +4700,15 @@
       </c>
       <c r="C9" s="118">
         <f>1-E5</f>
-        <v>0.31506849315068497</v>
+        <v>0.4818652849740932</v>
       </c>
       <c r="D9" s="22">
         <f>C6*C3-F6</f>
-        <v>-10.239999999999995</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="66">
         <f>C9*D9</f>
-        <v>-3.2263013698630125</v>
+        <v>-0.9637305699481864</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -4567,15 +4717,15 @@
       </c>
       <c r="C10" s="119">
         <f>1-C5</f>
-        <v>0.57081545064377681</v>
+        <v>0.4475138121546961</v>
       </c>
       <c r="D10" s="45">
         <f>E6*E3-F6</f>
-        <v>-11.079999999999998</v>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" ref="E10:E11" si="0">C10*D10</f>
-        <v>-6.3246351931330462</v>
+        <v>-0.58176795580110363</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -4584,15 +4734,15 @@
       </c>
       <c r="C11" s="120">
         <f>1-SUM(C9:C10)</f>
-        <v>0.11411605620553822</v>
+        <v>7.06209028712107E-2</v>
       </c>
       <c r="D11" s="20">
         <f>C6*C3+E6*E3-F6</f>
-        <v>78.680000000000007</v>
+        <v>16.700000000000003</v>
       </c>
       <c r="E11" s="72">
         <f t="shared" si="0"/>
-        <v>8.9786513022517482</v>
+        <v>1.179369077949219</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -4606,7 +4756,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="72">
         <f>SUM(E9:E11)</f>
-        <v>-0.57228526074431052</v>
+        <v>-0.36612944780007117</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -4615,7 +4765,7 @@
       </c>
       <c r="C14" s="13">
         <f>MIN(D9:D11)</f>
-        <v>-11.079999999999998</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -4624,7 +4774,7 @@
       </c>
       <c r="C15" s="13">
         <f>MAX(D9:D11)</f>
-        <v>78.680000000000007</v>
+        <v>16.700000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4634,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
-  <dimension ref="B2:K5"/>
+  <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4678,7 +4828,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="98">
-        <v>2.25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="115">
         <f>IF(C5, 1, "")</f>
@@ -4686,14 +4836,14 @@
       </c>
       <c r="E3" s="111">
         <f>D3*C3-D3</f>
-        <v>1.25</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F3" s="112">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3" s="102">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I3" s="96">
         <f>ROUND(D3,2)</f>
@@ -4701,11 +4851,11 @@
       </c>
       <c r="J3" s="70">
         <f>H3*C3-H3</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K3" s="108">
         <f>-H3</f>
-        <v>-24</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -4713,34 +4863,34 @@
         <v>137</v>
       </c>
       <c r="C4" s="95">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="D4" s="116">
         <f>IF(C5, C3/C4, "")</f>
-        <v>1.2032085561497325</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="E4" s="113">
         <f>-D4</f>
-        <v>-1.2032085561497325</v>
+        <v>-1.1578947368421053</v>
       </c>
       <c r="F4" s="114">
         <f>D4*C4-D4</f>
-        <v>1.0467914438502675</v>
+        <v>1.0421052631578949</v>
       </c>
       <c r="H4" s="97">
-        <v>28</v>
+        <v>11.6</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J4" s="39">
         <f>-H4</f>
-        <v>-28</v>
+        <v>-11.6</v>
       </c>
       <c r="K4" s="109">
         <f>H4*C4-H4</f>
-        <v>24.36</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -4756,22 +4906,32 @@
       </c>
       <c r="E5" s="113">
         <f>SUM(E3:E4)</f>
-        <v>4.6791443850267456E-2</v>
+        <v>4.2105263157894868E-2</v>
       </c>
       <c r="F5" s="114">
         <f>SUM(F3:F4)</f>
-        <v>4.6791443850267456E-2</v>
+        <v>4.2105263157894868E-2</v>
       </c>
       <c r="I5" s="105" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="106">
         <f>SUM(J3:J4)</f>
-        <v>2</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="K5" s="107">
         <f>SUM(K3:K4)</f>
-        <v>0.35999999999999943</v>
+        <v>0.4399999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>C3-1-C3/C4</f>
+        <v>4.2105263157894868E-2</v>
+      </c>
+      <c r="F6">
+        <f>C4-1-C4/C3</f>
+        <v>3.6363636363636376E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4781,11 +4941,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q217"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I218" sqref="I218"/>
+      <pane ySplit="2" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M235" sqref="M235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12827,6 +12987,532 @@
       <c r="M217" s="72">
         <f t="shared" si="31"/>
         <v>11.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B218" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F218" s="6">
+        <v>10</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J218" s="69">
+        <f t="shared" ref="J218:J224" si="32">IF(I218="", 0, IF(I218="Win", F218*D218-F218, -F218))</f>
+        <v>-10</v>
+      </c>
+      <c r="L218" s="45">
+        <f t="shared" ref="L218:L224" si="33">ROUND(-K218*J218, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M218" s="46">
+        <f t="shared" ref="M218:M224" si="34">J218+L218</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="F219" s="6">
+        <v>10</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J219" s="69">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+      <c r="L219" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M219" s="46">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F220" s="6">
+        <v>10</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J220" s="69">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+      <c r="L220" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M220" s="46">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="F221" s="6">
+        <v>10</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J221" s="69">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+      <c r="L221" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M221" s="46">
+        <f t="shared" si="34"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F222" s="6">
+        <v>25</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J222" s="69">
+        <f t="shared" si="32"/>
+        <v>-25</v>
+      </c>
+      <c r="L222" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M222" s="46">
+        <f t="shared" si="34"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D223" s="5">
+        <v>2</v>
+      </c>
+      <c r="F223" s="6">
+        <v>25</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J223" s="69">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+      <c r="L223" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="46">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D224" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F224" s="6">
+        <v>10</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J224" s="69">
+        <f t="shared" si="32"/>
+        <v>11.5</v>
+      </c>
+      <c r="L224" s="45">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M224" s="46">
+        <f t="shared" si="34"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D225" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="F225" s="6">
+        <v>10</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J225" s="69">
+        <f t="shared" ref="J225" si="35">IF(I225="", 0, IF(I225="Win", F225*D225-F225, -F225))</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="L225" s="45">
+        <f t="shared" ref="L225" si="36">ROUND(-K225*J225, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M225" s="46">
+        <f t="shared" ref="M225" si="37">J225+L225</f>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F226" s="6">
+        <v>10</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J226" s="69">
+        <f t="shared" ref="J226:J229" si="38">IF(I226="", 0, IF(I226="Win", F226*D226-F226, -F226))</f>
+        <v>-10</v>
+      </c>
+      <c r="L226" s="45">
+        <f t="shared" ref="L226:L229" si="39">ROUND(-K226*J226, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M226" s="46">
+        <f t="shared" ref="M226:M229" si="40">J226+L226</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="F227" s="6">
+        <v>10</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J227" s="69">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="L227" s="45">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M227" s="46">
+        <f t="shared" si="40"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" s="34">
+        <v>43482</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F228" s="6">
+        <v>10</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J228" s="69">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="L228" s="45">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M228" s="46">
+        <f t="shared" si="40"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="37">
+        <v>43482</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" s="56"/>
+      <c r="E229" s="56"/>
+      <c r="F229" s="38">
+        <v>10</v>
+      </c>
+      <c r="G229" s="63"/>
+      <c r="H229" s="64"/>
+      <c r="I229" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J229" s="51">
+        <f t="shared" si="38"/>
+        <v>-10</v>
+      </c>
+      <c r="K229" s="39"/>
+      <c r="L229" s="20">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M229" s="72">
+        <f t="shared" si="40"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" s="34">
+        <v>43483</v>
+      </c>
+      <c r="B230" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D230" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="F230" s="6">
+        <v>25</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J230" s="69">
+        <f t="shared" ref="J230:J234" si="41">IF(I230="", 0, IF(I230="Win", F230*D230-F230, -F230))</f>
+        <v>26</v>
+      </c>
+      <c r="L230" s="45">
+        <f t="shared" ref="L230:L234" si="42">ROUND(-K230*J230, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M230" s="46">
+        <f t="shared" ref="M230:M234" si="43">J230+L230</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231" s="34">
+        <v>43483</v>
+      </c>
+      <c r="B231" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D231" s="5">
+        <v>2</v>
+      </c>
+      <c r="F231" s="6">
+        <v>25</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J231" s="69">
+        <f t="shared" si="41"/>
+        <v>-25</v>
+      </c>
+      <c r="L231" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M231" s="46">
+        <f t="shared" si="43"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232" s="34">
+        <v>43483</v>
+      </c>
+      <c r="B232" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="F232" s="6">
+        <v>24</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J232" s="69">
+        <f t="shared" si="41"/>
+        <v>23.519999999999996</v>
+      </c>
+      <c r="L232" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M232" s="46">
+        <f t="shared" si="43"/>
+        <v>23.519999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233" s="34">
+        <v>43483</v>
+      </c>
+      <c r="B233" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D233" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F233" s="6">
+        <v>23</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J233" s="69">
+        <f t="shared" si="41"/>
+        <v>-23</v>
+      </c>
+      <c r="L233" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M233" s="46">
+        <f t="shared" si="43"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="37">
+        <v>43483</v>
+      </c>
+      <c r="B234" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D234" s="56">
+        <v>1.95</v>
+      </c>
+      <c r="E234" s="56"/>
+      <c r="F234" s="38">
+        <v>5</v>
+      </c>
+      <c r="G234" s="63"/>
+      <c r="H234" s="64"/>
+      <c r="I234" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J234" s="51">
+        <f t="shared" si="41"/>
+        <v>4.75</v>
+      </c>
+      <c r="K234" s="39"/>
+      <c r="L234" s="20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M234" s="72">
+        <f t="shared" si="43"/>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
@@ -12872,7 +13558,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C217">
+  <conditionalFormatting sqref="C172:C185 C188:C234">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12893,7 +13579,7 @@
   <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12994,11 +13680,11 @@
       </c>
       <c r="D4" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1773.8</v>
+        <v>1887.8</v>
       </c>
       <c r="E4" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" si="0"/>
@@ -13006,11 +13692,11 @@
       </c>
       <c r="G4" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-265.33000000000004</v>
+        <v>-280.81000000000006</v>
       </c>
       <c r="H4" s="78">
         <f t="shared" si="1"/>
-        <v>259.66999999999996</v>
+        <v>244.18999999999994</v>
       </c>
       <c r="J4" s="75">
         <v>43456</v>
@@ -13031,11 +13717,11 @@
       </c>
       <c r="D5" s="78">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1034.8</v>
+        <v>1172.8</v>
       </c>
       <c r="E5" s="80">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="0"/>
@@ -13043,11 +13729,11 @@
       </c>
       <c r="G5" s="78">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>238.23000000000008</v>
+        <v>199.18000000000006</v>
       </c>
       <c r="H5" s="78">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>322.43000000000006</v>
+        <v>283.38000000000005</v>
       </c>
       <c r="J5" s="75">
         <v>43461</v>
@@ -13075,11 +13761,11 @@
       </c>
       <c r="G6" s="79">
         <f t="shared" si="3"/>
-        <v>104.65000000000003</v>
+        <v>50.120000000000005</v>
       </c>
       <c r="H6" s="79">
         <f t="shared" si="2"/>
-        <v>682.56</v>
+        <v>628.03</v>
       </c>
       <c r="J6" s="75">
         <v>43462</v>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C81AD4-BAF4-4C80-8E29-A2B3D8DF900F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2E643C-BCCF-475D-854B-B1B86320869D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="5" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,12 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$36</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$37</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$B$19:$B$36</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Day by Day'!$H$19:$H$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$37</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -63,7 +60,6 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="262">
   <si>
     <t>Market</t>
   </si>
@@ -856,6 +852,15 @@
   </si>
   <si>
     <t>DJ Augustin over 3.5 assists</t>
+  </si>
+  <si>
+    <t>Devin Booker under 4.5 REB</t>
+  </si>
+  <si>
+    <t>Devin Booker over 4.5 REB</t>
+  </si>
+  <si>
+    <t>Win prop</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1121,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1362,13 +1367,16 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1376,6 +1384,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2519,39 +2569,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>3357.92</v>
+        <v>3413.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>94.05000000000004</v>
+        <v>83.200000000000045</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>86.670000000000044</v>
+        <v>75.82000000000005</v>
       </c>
       <c r="F3" s="27">
         <f>E3/C3</f>
-        <v>2.5810620860532724E-2</v>
+        <v>2.2209073440502429E-2</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I3" s="27">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.55084745762711862</v>
+        <v>0.54811715481171552</v>
       </c>
       <c r="J3" s="86">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.8903190070043354</v>
+        <v>1.8926746965365322</v>
       </c>
     </row>
   </sheetData>
@@ -2561,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K36"/>
+  <dimension ref="B18:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,6 +3398,47 @@
       <c r="K36" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B36, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B36)</f>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>43486</v>
+      </c>
+      <c r="C37" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B37)</f>
+        <v>3</v>
+      </c>
+      <c r="D37" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B37)</f>
+        <v>56</v>
+      </c>
+      <c r="E37" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B37)</f>
+        <v>-10.850000000000001</v>
+      </c>
+      <c r="G37" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B37)</f>
+        <v>-10.850000000000001</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" ref="I37" si="17">IFERROR(H37/D37,0)</f>
+        <v>-0.19375000000000003</v>
+      </c>
+      <c r="J37" s="13">
+        <f>SUM($H$19:H37)</f>
+        <v>75.819999999999993</v>
+      </c>
+      <c r="K37" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B37, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B37)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -3552,7 +3643,7 @@
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3593,7 +3684,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="92">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="D3" s="109">
         <f>IF(C5, 1, "")</f>
@@ -3601,14 +3692,14 @@
       </c>
       <c r="E3" s="105">
         <f>D3*C3-D3</f>
-        <v>0.98</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F3" s="106">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3" s="96">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="I3" s="90">
         <f>ROUND(D3,2)</f>
@@ -3616,11 +3707,11 @@
       </c>
       <c r="J3" s="64">
         <f>H3*C3-H3</f>
-        <v>19.600000000000001</v>
+        <v>4600</v>
       </c>
       <c r="K3" s="102">
         <f>-H3</f>
-        <v>-20</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3628,34 +3719,34 @@
         <v>137</v>
       </c>
       <c r="C4" s="89">
-        <v>2.1</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D4" s="110">
         <f>IF(C5, C3/C4, "")</f>
-        <v>0.94285714285714284</v>
+        <v>1.059113300492611</v>
       </c>
       <c r="E4" s="107">
         <f>-D4</f>
-        <v>-0.94285714285714284</v>
+        <v>-1.059113300492611</v>
       </c>
       <c r="F4" s="108">
         <f>D4*C4-D4</f>
-        <v>1.0371428571428571</v>
+        <v>1.0908866995073889</v>
       </c>
       <c r="H4" s="91">
-        <v>19</v>
+        <v>4500</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
-        <v>0.94</v>
+        <v>1.06</v>
       </c>
       <c r="J4" s="33">
         <f>-H4</f>
-        <v>-19</v>
+        <v>-4500</v>
       </c>
       <c r="K4" s="103">
         <f>H4*C4-H4</f>
-        <v>20.9</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3671,32 +3762,32 @@
       </c>
       <c r="E5" s="107">
         <f>SUM(E3:E4)</f>
-        <v>3.7142857142857144E-2</v>
+        <v>9.0886699507388924E-2</v>
       </c>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
-        <v>3.7142857142857144E-2</v>
+        <v>9.0886699507388924E-2</v>
       </c>
       <c r="I5" s="99" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="100">
         <f>SUM(J3:J4)</f>
-        <v>0.60000000000000142</v>
+        <v>100</v>
       </c>
       <c r="K5" s="101">
         <f>SUM(K3:K4)</f>
-        <v>0.89999999999999858</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E6">
         <f>C3-1-C3/C4</f>
-        <v>3.7142857142857144E-2</v>
+        <v>9.0886699507388924E-2</v>
       </c>
       <c r="F6">
         <f>C4-1-C4/C3</f>
-        <v>3.9393939393939537E-2</v>
+        <v>8.5813953488371952E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3706,11 +3797,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q238"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12136,15 +12227,15 @@
         <v>15</v>
       </c>
       <c r="J230" s="63">
-        <f t="shared" ref="J230:J238" si="41">IF(I230="", 0, IF(I230="Win", F230*D230-F230, -F230))</f>
+        <f t="shared" ref="J230:J241" si="41">IF(I230="", 0, IF(I230="Win", F230*D230-F230, -F230))</f>
         <v>26</v>
       </c>
       <c r="L230" s="39">
-        <f t="shared" ref="L230:L238" si="42">ROUND(-K230*J230, 2)</f>
+        <f t="shared" ref="L230:L241" si="42">ROUND(-K230*J230, 2)</f>
         <v>0</v>
       </c>
       <c r="M230" s="40">
-        <f t="shared" ref="M230:M238" si="43">J230+L230</f>
+        <f t="shared" ref="M230:M241" si="43">J230+L230</f>
         <v>26</v>
       </c>
     </row>
@@ -12376,60 +12467,186 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A238" s="28">
+    <row r="238" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="31">
         <v>43484</v>
       </c>
-      <c r="B238" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C238" s="34" t="s">
+      <c r="B238" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="50">
         <v>2.1</v>
       </c>
-      <c r="F238" s="6">
+      <c r="E238" s="50"/>
+      <c r="F238" s="32">
         <v>19</v>
       </c>
-      <c r="I238" s="3" t="s">
+      <c r="G238" s="57"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J238" s="63">
+      <c r="J238" s="45">
         <f t="shared" si="41"/>
         <v>-19</v>
       </c>
-      <c r="L238" s="39">
+      <c r="K238" s="33"/>
+      <c r="L238" s="20">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="M238" s="40">
+      <c r="M238" s="66">
         <f t="shared" si="43"/>
         <v>-19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" s="28">
+        <v>43486</v>
+      </c>
+      <c r="B239" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D239" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F239" s="6">
+        <v>10</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" s="63">
+        <f t="shared" si="41"/>
+        <v>-10</v>
+      </c>
+      <c r="L239" s="39">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M239" s="40">
+        <f t="shared" si="43"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240" s="28">
+        <v>43486</v>
+      </c>
+      <c r="B240" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D240" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F240" s="6">
+        <v>25</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J240" s="63">
+        <f t="shared" si="41"/>
+        <v>-25</v>
+      </c>
+      <c r="L240" s="39">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M240" s="40">
+        <f t="shared" si="43"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="31">
+        <v>43486</v>
+      </c>
+      <c r="B241" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D241" s="50">
+        <v>2.15</v>
+      </c>
+      <c r="E241" s="50"/>
+      <c r="F241" s="32">
+        <v>21</v>
+      </c>
+      <c r="G241" s="57"/>
+      <c r="H241" s="58"/>
+      <c r="I241" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J241" s="45">
+        <f t="shared" si="41"/>
+        <v>24.15</v>
+      </c>
+      <c r="K241" s="33"/>
+      <c r="L241" s="20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M241" s="66">
+        <f t="shared" si="43"/>
+        <v>24.15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N118" xr:uid="{C495B646-4148-40E1-952F-15C071FCCAB6}"/>
   <conditionalFormatting sqref="I3:I1048576">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>AND(I3&lt;&gt;"Win", I3&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>I3="Win"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B72 B74:B105 B107:B1048576">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+  <conditionalFormatting sqref="B1:B72 B74:B105 B107:B239 B241:B1048576">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"Sportsbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Ladbrokes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>"Ladbrokes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"Sportsbet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Betfair"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172:C185 C188:C239 C241">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12440,7 +12657,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="B240">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12451,7 +12668,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C238">
+  <conditionalFormatting sqref="C240">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12469,10 +12686,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12483,13 +12700,13 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="8" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="13"/>
-    <col min="13" max="13" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="13"/>
+    <col min="14" max="14" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
@@ -12511,23 +12728,26 @@
       <c r="H2" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="I2" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
@@ -12543,7 +12763,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="39">
-        <f t="shared" ref="F3:F5" si="0">SUMIFS(L:L,K:K, B3)-SUMIFS(M:M,K:K,B3)</f>
+        <f t="shared" ref="F3:F5" si="0">SUMIFS(M:M,L:L, B3)-SUMIFS(N:N,L:L,B3)</f>
         <v>-150</v>
       </c>
       <c r="G3" s="72">
@@ -12554,17 +12774,21 @@
         <f t="shared" ref="H3:H4" si="1">SUM(C3,F3,G3)</f>
         <v>100.46</v>
       </c>
-      <c r="J3" s="69">
+      <c r="I3" s="125">
+        <f>COUNTIFS(Master!B:B,Exchange!B3,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="69">
         <v>43460</v>
       </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
@@ -12573,11 +12797,11 @@
       </c>
       <c r="D4" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1927.8</v>
+        <v>1962.8</v>
       </c>
       <c r="E4" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" si="0"/>
@@ -12585,23 +12809,27 @@
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-249.41000000000005</v>
+        <v>-284.41000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>275.58999999999992</v>
-      </c>
-      <c r="J4" s="69">
+        <v>240.58999999999992</v>
+      </c>
+      <c r="I4" s="125">
+        <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
+        <v>0.53642384105960261</v>
+      </c>
+      <c r="K4" s="69">
         <v>43456</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
@@ -12610,11 +12838,11 @@
       </c>
       <c r="D5" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1214.8</v>
+        <v>1235.8</v>
       </c>
       <c r="E5" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
@@ -12622,23 +12850,27 @@
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>204.33000000000007</v>
+        <v>228.48000000000008</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>288.53000000000009</v>
-      </c>
-      <c r="J5" s="69">
+        <v>312.68000000000006</v>
+      </c>
+      <c r="I5" s="126">
+        <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="K5" s="69">
         <v>43461</v>
       </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>77</v>
       </c>
@@ -12654,23 +12886,24 @@
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>86.670000000000016</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>664.57999999999993</v>
-      </c>
-      <c r="J6" s="69">
+        <v>653.73</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="K6" s="69">
         <v>43462</v>
       </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F7" s="44" t="s">
         <v>78</v>
       </c>
@@ -12682,57 +12915,57 @@
         <f>H6=SUM(C3:C5,F3:G5)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="69">
+      <c r="K7" s="69">
         <v>43468</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="69">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K8" s="69">
         <v>43468</v>
       </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J9" s="69">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="69">
         <v>43469</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="13">
+      <c r="N9" s="13">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J10" s="69">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K10" s="69">
         <v>43471</v>
       </c>
-      <c r="K10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="69">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K11" s="69">
         <v>43108</v>
       </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="13">
         <v>400</v>
       </c>
     </row>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2E643C-BCCF-475D-854B-B1B86320869D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C2300-EE5F-4F7A-9002-106C9AD259C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="5" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$40</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$39</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$40</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="268">
   <si>
     <t>Market</t>
   </si>
@@ -861,6 +863,24 @@
   </si>
   <si>
     <t>Win prop</t>
+  </si>
+  <si>
+    <t>Bunch of stuff</t>
+  </si>
+  <si>
+    <t>Willie Cauley Stein over 3.5 AST</t>
+  </si>
+  <si>
+    <t>Willie Cauley Stein under 3.5 AST</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>Al Horford over 4.5 AST</t>
+  </si>
+  <si>
+    <t>Al Horford under 4.5 AST</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1571,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1564,7 +1584,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2569,39 +2589,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>3413.92</v>
+        <v>3989.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>83.200000000000045</v>
+        <v>28.950000000000045</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>75.82000000000005</v>
+        <v>21.57000000000005</v>
       </c>
       <c r="F3" s="27">
         <f>E3/C3</f>
-        <v>2.2209073440502429E-2</v>
+        <v>5.4061234310462487E-3</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I3" s="27">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.54811715481171552</v>
+        <v>0.53629032258064513</v>
       </c>
       <c r="J3" s="86">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.8926746965365322</v>
+        <v>1.8797093676063674</v>
       </c>
     </row>
   </sheetData>
@@ -2611,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K37"/>
+  <dimension ref="B18:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,6 +3459,129 @@
       <c r="K37" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B37, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B37)</f>
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>43488</v>
+      </c>
+      <c r="C38" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B38)</f>
+        <v>2</v>
+      </c>
+      <c r="D38" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B38)</f>
+        <v>460</v>
+      </c>
+      <c r="E38" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B38)</f>
+        <v>8</v>
+      </c>
+      <c r="G38" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B38)</f>
+        <v>8</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" ref="I38" si="18">IFERROR(H38/D38,0)</f>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="J38" s="13">
+        <f>SUM($H$19:H38)</f>
+        <v>83.82</v>
+      </c>
+      <c r="K38" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B38, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B38)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>43489</v>
+      </c>
+      <c r="C39" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B39)</f>
+        <v>5</v>
+      </c>
+      <c r="D39" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B39)</f>
+        <v>65</v>
+      </c>
+      <c r="E39" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B39)</f>
+        <v>-65</v>
+      </c>
+      <c r="G39" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B39)</f>
+        <v>-65</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ref="I39" si="19">IFERROR(H39/D39,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J39" s="13">
+        <f>SUM($H$19:H39)</f>
+        <v>18.819999999999993</v>
+      </c>
+      <c r="K39" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B39, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>43494</v>
+      </c>
+      <c r="C40" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B40)</f>
+        <v>2</v>
+      </c>
+      <c r="D40" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B40)</f>
+        <v>51</v>
+      </c>
+      <c r="E40" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B40)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B40)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B40)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B40)</f>
+        <v>2.75</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" ref="I40" si="20">IFERROR(H40/D40,0)</f>
+        <v>5.3921568627450983E-2</v>
+      </c>
+      <c r="J40" s="13">
+        <f>SUM($H$19:H40)</f>
+        <v>21.569999999999993</v>
+      </c>
+      <c r="K40" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B40, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B40)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +3786,7 @@
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3827,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="92">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="D3" s="109">
         <f>IF(C5, 1, "")</f>
@@ -3692,14 +3835,14 @@
       </c>
       <c r="E3" s="105">
         <f>D3*C3-D3</f>
-        <v>1.1499999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="F3" s="106">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3" s="96">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="I3" s="90">
         <f>ROUND(D3,2)</f>
@@ -3707,11 +3850,11 @@
       </c>
       <c r="J3" s="64">
         <f>H3*C3-H3</f>
-        <v>4600</v>
+        <v>266</v>
       </c>
       <c r="K3" s="102">
         <f>-H3</f>
-        <v>-4000</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3719,34 +3862,34 @@
         <v>137</v>
       </c>
       <c r="C4" s="89">
-        <v>2.0299999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="D4" s="110">
         <f>IF(C5, C3/C4, "")</f>
-        <v>1.059113300492611</v>
+        <v>1.2944444444444445</v>
       </c>
       <c r="E4" s="107">
         <f>-D4</f>
-        <v>-1.059113300492611</v>
+        <v>-1.2944444444444445</v>
       </c>
       <c r="F4" s="108">
         <f>D4*C4-D4</f>
-        <v>1.0908866995073889</v>
+        <v>1.0355555555555556</v>
       </c>
       <c r="H4" s="91">
-        <v>4500</v>
+        <v>260</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="J4" s="33">
         <f>-H4</f>
-        <v>-4500</v>
+        <v>-260</v>
       </c>
       <c r="K4" s="103">
         <f>H4*C4-H4</f>
-        <v>4635</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3762,32 +3905,32 @@
       </c>
       <c r="E5" s="107">
         <f>SUM(E3:E4)</f>
-        <v>9.0886699507388924E-2</v>
+        <v>3.5555555555555562E-2</v>
       </c>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
-        <v>9.0886699507388924E-2</v>
+        <v>3.5555555555555562E-2</v>
       </c>
       <c r="I5" s="99" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="100">
         <f>SUM(J3:J4)</f>
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K5" s="101">
         <f>SUM(K3:K4)</f>
-        <v>635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E6">
         <f>C3-1-C3/C4</f>
-        <v>9.0886699507388924E-2</v>
+        <v>3.5555555555555562E-2</v>
       </c>
       <c r="F6">
         <f>C4-1-C4/C3</f>
-        <v>8.5813953488371952E-2</v>
+        <v>2.7467811158798372E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3797,11 +3940,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Q250"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="2" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12601,6 +12744,288 @@
       <c r="M241" s="66">
         <f t="shared" si="43"/>
         <v>24.15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="28">
+        <v>43489</v>
+      </c>
+      <c r="B242" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F242" s="6">
+        <v>20</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J242" s="63">
+        <f t="shared" ref="J242" si="44">IF(I242="", 0, IF(I242="Win", F242*D242-F242, -F242))</f>
+        <v>-20</v>
+      </c>
+      <c r="L242" s="39">
+        <f t="shared" ref="L242" si="45">ROUND(-K242*J242, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M242" s="40">
+        <f t="shared" ref="M242" si="46">J242+L242</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" s="28">
+        <v>43489</v>
+      </c>
+      <c r="B243" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F243" s="6">
+        <v>20</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J243" s="63">
+        <f t="shared" ref="J243:J250" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
+        <v>-20</v>
+      </c>
+      <c r="L243" s="39">
+        <f t="shared" ref="L243:L250" si="48">ROUND(-K243*J243, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="M243" s="40">
+        <f t="shared" ref="M243:M250" si="49">J243+L243</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" s="28">
+        <v>43489</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>262</v>
+      </c>
+      <c r="F244" s="6">
+        <v>10</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J244" s="63">
+        <f t="shared" si="47"/>
+        <v>-10</v>
+      </c>
+      <c r="L244" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M244" s="40">
+        <f t="shared" si="49"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245" s="28">
+        <v>43489</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F245" s="6">
+        <v>5</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J245" s="63">
+        <f t="shared" si="47"/>
+        <v>-5</v>
+      </c>
+      <c r="L245" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M245" s="40">
+        <f t="shared" si="49"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="31">
+        <v>43489</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D246" s="50"/>
+      <c r="E246" s="50"/>
+      <c r="F246" s="32">
+        <v>10</v>
+      </c>
+      <c r="G246" s="57"/>
+      <c r="H246" s="58"/>
+      <c r="I246" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J246" s="45">
+        <f t="shared" si="47"/>
+        <v>-10</v>
+      </c>
+      <c r="K246" s="33"/>
+      <c r="L246" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M246" s="66">
+        <f t="shared" si="49"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" s="28">
+        <v>43488</v>
+      </c>
+      <c r="B247" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D247" s="5">
+        <v>2.33</v>
+      </c>
+      <c r="F247" s="6">
+        <v>200</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J247" s="63">
+        <f t="shared" si="47"/>
+        <v>-200</v>
+      </c>
+      <c r="L247" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M247" s="40">
+        <f t="shared" si="49"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="31">
+        <v>43488</v>
+      </c>
+      <c r="B248" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="D248" s="50">
+        <v>1.8</v>
+      </c>
+      <c r="E248" s="50"/>
+      <c r="F248" s="32">
+        <v>260</v>
+      </c>
+      <c r="G248" s="57"/>
+      <c r="H248" s="58"/>
+      <c r="I248" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J248" s="45">
+        <f t="shared" si="47"/>
+        <v>208</v>
+      </c>
+      <c r="K248" s="33"/>
+      <c r="L248" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M248" s="66">
+        <f t="shared" si="49"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249" s="28">
+        <v>43494</v>
+      </c>
+      <c r="B249" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D249" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F249" s="6">
+        <v>25</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J249" s="63">
+        <f t="shared" si="47"/>
+        <v>28.75</v>
+      </c>
+      <c r="L249" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M249" s="40">
+        <f t="shared" si="49"/>
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250" s="28">
+        <v>43494</v>
+      </c>
+      <c r="B250" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D250" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F250" s="6">
+        <v>26</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J250" s="63">
+        <f t="shared" si="47"/>
+        <v>-26</v>
+      </c>
+      <c r="L250" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M250" s="40">
+        <f t="shared" si="49"/>
+        <v>-26</v>
       </c>
     </row>
   </sheetData>
@@ -12646,7 +13071,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C239 C241">
+  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C250">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -12686,10 +13111,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12797,27 +13222,27 @@
       </c>
       <c r="D4" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>1962.8</v>
+        <v>2192.8000000000002</v>
       </c>
       <c r="E4" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-284.41000000000008</v>
+        <v>-460.66000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>240.58999999999992</v>
+        <v>164.33999999999992</v>
       </c>
       <c r="I4" s="125">
         <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>0.53642384105960261</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="K4" s="69">
         <v>43456</v>
@@ -12838,27 +13263,27 @@
       </c>
       <c r="D5" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1235.8</v>
+        <v>1581.8</v>
       </c>
       <c r="E5" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>-158</v>
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>228.48000000000008</v>
+        <v>350.48000000000008</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>312.68000000000006</v>
+        <v>226.68000000000006</v>
       </c>
       <c r="I5" s="126">
         <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>0.5641025641025641</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="K5" s="69">
         <v>43461</v>
@@ -12882,15 +13307,15 @@
       <c r="E6" s="73"/>
       <c r="F6" s="41">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>-8</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>75.819999999999993</v>
+        <v>21.569999999999993</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>653.73</v>
+        <v>491.47999999999996</v>
       </c>
       <c r="I6" s="39"/>
       <c r="K6" s="69">
@@ -12967,6 +13392,28 @@
       </c>
       <c r="N11" s="13">
         <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K12" s="69">
+        <v>43494</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K13" s="69">
+        <v>43494</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="13">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C2300-EE5F-4F7A-9002-106C9AD259C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340233E7-DEF8-4516-B2A4-85E582D5DEB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -22,11 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$39</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$40</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$39</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$40</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$41</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="278">
   <si>
     <t>Market</t>
   </si>
@@ -881,6 +879,36 @@
   </si>
   <si>
     <t>Al Horford under 4.5 AST</t>
+  </si>
+  <si>
+    <t>Chris Paul over 6.5 AST</t>
+  </si>
+  <si>
+    <t>Chris Paul under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Kris Dunn over 6.5 AST</t>
+  </si>
+  <si>
+    <t>Kris Dunn under 6.5 AST</t>
+  </si>
+  <si>
+    <t>Andre Drummond over 13.5 REB</t>
+  </si>
+  <si>
+    <t>Andre Drummond under 13.5 REB</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo under 5.5 AST</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo over 5.5 AST</t>
+  </si>
+  <si>
+    <t>LaMarcus Aldridge under 9.5 REB</t>
+  </si>
+  <si>
+    <t>Tomas Satoransky over 6.5 AST</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1599,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1584,7 +1612,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2589,39 +2617,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>3989.92</v>
+        <v>4184.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>28.950000000000045</v>
+        <v>28.30000000000004</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>21.57000000000005</v>
+        <v>20.920000000000044</v>
       </c>
       <c r="F3" s="27">
         <f>E3/C3</f>
-        <v>5.4061234310462487E-3</v>
+        <v>4.9989008153083075E-3</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I3" s="27">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.53629032258064513</v>
+        <v>0.53488372093023251</v>
       </c>
       <c r="J3" s="86">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.8797093676063674</v>
+        <v>1.8870707205872506</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K40"/>
+  <dimension ref="B18:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,6 +3609,47 @@
       </c>
       <c r="K40" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B40, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B40)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>43495</v>
+      </c>
+      <c r="C41" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B41)</f>
+        <v>10</v>
+      </c>
+      <c r="D41" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B41)</f>
+        <v>195</v>
+      </c>
+      <c r="E41" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B41)</f>
+        <v>-0.65000000000000568</v>
+      </c>
+      <c r="G41" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B41)</f>
+        <v>-0.65000000000000568</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" ref="I41" si="21">IFERROR(H41/D41,0)</f>
+        <v>-3.3333333333333626E-3</v>
+      </c>
+      <c r="J41" s="13">
+        <f>SUM($H$19:H41)</f>
+        <v>20.919999999999987</v>
+      </c>
+      <c r="K41" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B41, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B41)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -3786,7 +3855,7 @@
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3827,7 +3896,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="92">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="D3" s="109">
         <f>IF(C5, 1, "")</f>
@@ -3835,14 +3904,14 @@
       </c>
       <c r="E3" s="105">
         <f>D3*C3-D3</f>
-        <v>1.33</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="106">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3" s="96">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="90">
         <f>ROUND(D3,2)</f>
@@ -3850,11 +3919,11 @@
       </c>
       <c r="J3" s="64">
         <f>H3*C3-H3</f>
-        <v>266</v>
+        <v>950</v>
       </c>
       <c r="K3" s="102">
         <f>-H3</f>
-        <v>-200</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3862,34 +3931,34 @@
         <v>137</v>
       </c>
       <c r="C4" s="89">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D4" s="110">
         <f>IF(C5, C3/C4, "")</f>
-        <v>1.2944444444444445</v>
+        <v>0.88636363636363624</v>
       </c>
       <c r="E4" s="107">
         <f>-D4</f>
-        <v>-1.2944444444444445</v>
+        <v>-0.88636363636363624</v>
       </c>
       <c r="F4" s="108">
         <f>D4*C4-D4</f>
-        <v>1.0355555555555556</v>
+        <v>1.0636363636363637</v>
       </c>
       <c r="H4" s="91">
-        <v>260</v>
+        <v>890</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="J4" s="33">
         <f>-H4</f>
-        <v>-260</v>
+        <v>-890</v>
       </c>
       <c r="K4" s="103">
         <f>H4*C4-H4</f>
-        <v>208</v>
+        <v>1068.0000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3905,32 +3974,32 @@
       </c>
       <c r="E5" s="107">
         <f>SUM(E3:E4)</f>
-        <v>3.5555555555555562E-2</v>
+        <v>6.3636363636363713E-2</v>
       </c>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
-        <v>3.5555555555555562E-2</v>
+        <v>6.3636363636363713E-2</v>
       </c>
       <c r="I5" s="99" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="100">
         <f>SUM(J3:J4)</f>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="K5" s="101">
         <f>SUM(K3:K4)</f>
-        <v>8</v>
+        <v>68.000000000000227</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E6">
         <f>C3-1-C3/C4</f>
-        <v>3.5555555555555562E-2</v>
+        <v>6.3636363636363713E-2</v>
       </c>
       <c r="F6">
         <f>C4-1-C4/C3</f>
-        <v>2.7467811158798372E-2</v>
+        <v>7.1794871794871762E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3940,11 +4009,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q250"/>
+  <dimension ref="A1:Q260"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I251" sqref="I251"/>
+      <pane ySplit="2" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M251" sqref="M251:M260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12792,15 +12861,15 @@
         <v>16</v>
       </c>
       <c r="J243" s="63">
-        <f t="shared" ref="J243:J250" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
+        <f t="shared" ref="J243:J260" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
         <v>-20</v>
       </c>
       <c r="L243" s="39">
-        <f t="shared" ref="L243:L250" si="48">ROUND(-K243*J243, 2)</f>
+        <f t="shared" ref="L243:L260" si="48">ROUND(-K243*J243, 2)</f>
         <v>0</v>
       </c>
       <c r="M243" s="40">
-        <f t="shared" ref="M243:M250" si="49">J243+L243</f>
+        <f t="shared" ref="M243:M260" si="49">J243+L243</f>
         <v>-20</v>
       </c>
     </row>
@@ -12996,36 +13065,364 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A250" s="28">
+    <row r="250" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="31">
         <v>43494</v>
       </c>
-      <c r="B250" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C250" s="34" t="s">
+      <c r="B250" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="50">
         <v>1.95</v>
       </c>
-      <c r="F250" s="6">
+      <c r="E250" s="50"/>
+      <c r="F250" s="32">
         <v>26</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="G250" s="57"/>
+      <c r="H250" s="58"/>
+      <c r="I250" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J250" s="63">
+      <c r="J250" s="45">
         <f t="shared" si="47"/>
         <v>-26</v>
       </c>
-      <c r="L250" s="39">
+      <c r="K250" s="33"/>
+      <c r="L250" s="20">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M250" s="40">
+      <c r="M250" s="66">
         <f t="shared" si="49"/>
         <v>-26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B251" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F251" s="6">
+        <v>20</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J251" s="63">
+        <f t="shared" si="47"/>
+        <v>20.599999999999994</v>
+      </c>
+      <c r="L251" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M251" s="40">
+        <f t="shared" si="49"/>
+        <v>20.599999999999994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B252" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D252" s="5">
+        <v>2</v>
+      </c>
+      <c r="F252" s="6">
+        <v>20</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J252" s="63">
+        <f t="shared" si="47"/>
+        <v>-20</v>
+      </c>
+      <c r="L252" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M252" s="40">
+        <f t="shared" si="49"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B253" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D253" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="F253" s="6">
+        <v>25</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J253" s="63">
+        <f t="shared" si="47"/>
+        <v>-25</v>
+      </c>
+      <c r="L253" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M253" s="40">
+        <f t="shared" si="49"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B254" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D254" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F254" s="6">
+        <v>22</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J254" s="63">
+        <f t="shared" si="47"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="L254" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M254" s="40">
+        <f t="shared" si="49"/>
+        <v>24.200000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B255" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="D255" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="F255" s="6">
+        <v>25</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J255" s="63">
+        <f t="shared" si="47"/>
+        <v>-25</v>
+      </c>
+      <c r="L255" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M255" s="40">
+        <f t="shared" si="49"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B256" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="D256" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="F256" s="6">
+        <v>22</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J256" s="63">
+        <f t="shared" si="47"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="L256" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M256" s="40">
+        <f t="shared" si="49"/>
+        <v>24.200000000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B257" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D257" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F257" s="6">
+        <v>25</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J257" s="63">
+        <f t="shared" si="47"/>
+        <v>-25</v>
+      </c>
+      <c r="L257" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M257" s="40">
+        <f t="shared" si="49"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B258" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D258" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F258" s="6">
+        <v>26</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J258" s="63">
+        <f t="shared" si="47"/>
+        <v>24.699999999999996</v>
+      </c>
+      <c r="L258" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M258" s="40">
+        <f t="shared" si="49"/>
+        <v>24.699999999999996</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" s="28">
+        <v>43495</v>
+      </c>
+      <c r="B259" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D259" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="F259" s="6">
+        <v>5</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J259" s="63">
+        <f t="shared" si="47"/>
+        <v>-5</v>
+      </c>
+      <c r="L259" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M259" s="40">
+        <f t="shared" si="49"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" s="31">
+        <v>43495</v>
+      </c>
+      <c r="B260" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D260" s="50">
+        <v>2.13</v>
+      </c>
+      <c r="E260" s="50"/>
+      <c r="F260" s="32">
+        <v>5</v>
+      </c>
+      <c r="G260" s="57"/>
+      <c r="H260" s="58"/>
+      <c r="I260" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J260" s="45">
+        <f t="shared" si="47"/>
+        <v>5.6499999999999986</v>
+      </c>
+      <c r="K260" s="33"/>
+      <c r="L260" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M260" s="66">
+        <f t="shared" si="49"/>
+        <v>5.6499999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -13071,7 +13468,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C250">
+  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C260">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -13222,11 +13619,11 @@
       </c>
       <c r="D4" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>2192.8000000000002</v>
+        <v>2292.8000000000002</v>
       </c>
       <c r="E4" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" si="0"/>
@@ -13234,15 +13631,15 @@
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-460.66000000000008</v>
+        <v>-509.41000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>164.33999999999992</v>
+        <v>115.58999999999992</v>
       </c>
       <c r="I4" s="125">
         <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>0.53246753246753242</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="K4" s="69">
         <v>43456</v>
@@ -13263,11 +13660,11 @@
       </c>
       <c r="D5" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1581.8</v>
+        <v>1676.8</v>
       </c>
       <c r="E5" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
@@ -13275,15 +13672,15 @@
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>350.48000000000008</v>
+        <v>398.58000000000004</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>226.68000000000006</v>
+        <v>274.78000000000003</v>
       </c>
       <c r="I5" s="126">
         <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>0.5357142857142857</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="K5" s="69">
         <v>43461</v>
@@ -13311,11 +13708,11 @@
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>21.569999999999993</v>
+        <v>20.919999999999959</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>491.47999999999996</v>
+        <v>490.82999999999993</v>
       </c>
       <c r="I6" s="39"/>
       <c r="K6" s="69">

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340233E7-DEF8-4516-B2A4-85E582D5DEB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108149EE-0278-4118-8E60-0B4B41C6A95E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -22,9 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$41</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$42</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$42</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="283">
   <si>
     <t>Market</t>
   </si>
@@ -909,6 +909,21 @@
   </si>
   <si>
     <t>Tomas Satoransky over 6.5 AST</t>
+  </si>
+  <si>
+    <t>Bookie edge</t>
+  </si>
+  <si>
+    <t>Guaranteed return</t>
+  </si>
+  <si>
+    <t>Man City win Arsenal</t>
+  </si>
+  <si>
+    <t>Man City lose Arsenal</t>
+  </si>
+  <si>
+    <t>Mac City draw Arsenal</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1184,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1418,6 +1433,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2568,7 +2585,7 @@
   <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,39 +2634,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>4184.92</v>
+        <v>4234.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>28.30000000000004</v>
+        <v>46.350000000000037</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>20.920000000000044</v>
-      </c>
-      <c r="F3" s="27">
+        <v>38.970000000000041</v>
+      </c>
+      <c r="F3" s="129">
         <f>E3/C3</f>
-        <v>4.9989008153083075E-3</v>
+        <v>9.202062848884994E-3</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" s="27">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.53488372093023251</v>
+        <v>0.53612167300380231</v>
       </c>
       <c r="J3" s="86">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.8870707205872506</v>
+        <v>1.9062438015358016</v>
       </c>
     </row>
   </sheetData>
@@ -2659,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K41"/>
+  <dimension ref="B18:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3653,6 +3670,88 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>43496</v>
+      </c>
+      <c r="C42" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B42)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B42)</f>
+        <v>10</v>
+      </c>
+      <c r="E42" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B42)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G42" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B42)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" ref="I42" si="22">IFERROR(H42/D42,0)</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="J42" s="13">
+        <f>SUM($H$19:H42)</f>
+        <v>28.969999999999988</v>
+      </c>
+      <c r="K42" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B42, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>43497</v>
+      </c>
+      <c r="C43" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B43)</f>
+        <v>3</v>
+      </c>
+      <c r="D43" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B43)</f>
+        <v>40</v>
+      </c>
+      <c r="E43" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B43)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B43)</f>
+        <v>10</v>
+      </c>
+      <c r="G43" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B43)</f>
+        <v>10</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43" si="23">IFERROR(H43/D43,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J43" s="13">
+        <f>SUM($H$19:H43)</f>
+        <v>38.969999999999985</v>
+      </c>
+      <c r="K43" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B43, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B43)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3665,7 +3764,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3828,19 +3927,19 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="123">
         <f>MIN(D9:D11)</f>
         <v>-11.2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="B15" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="66">
         <f>MAX(D9:D11)</f>
         <v>35.950000000000003</v>
       </c>
@@ -3852,15 +3951,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA8682-750D-4886-9CF0-12B295781815}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3896,7 +3995,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="92">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="D3" s="109">
         <f>IF(C5, 1, "")</f>
@@ -3904,14 +4003,14 @@
       </c>
       <c r="E3" s="105">
         <f>D3*C3-D3</f>
-        <v>0.95</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F3" s="106">
         <f>-D3</f>
         <v>-1</v>
       </c>
       <c r="H3" s="96">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I3" s="90">
         <f>ROUND(D3,2)</f>
@@ -3919,11 +4018,11 @@
       </c>
       <c r="J3" s="64">
         <f>H3*C3-H3</f>
-        <v>950</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="K3" s="102">
         <f>-H3</f>
-        <v>-1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3931,38 +4030,38 @@
         <v>137</v>
       </c>
       <c r="C4" s="89">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D4" s="110">
         <f>IF(C5, C3/C4, "")</f>
-        <v>0.88636363636363624</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="E4" s="107">
         <f>-D4</f>
-        <v>-0.88636363636363624</v>
+        <v>-0.82608695652173914</v>
       </c>
       <c r="F4" s="108">
         <f>D4*C4-D4</f>
-        <v>1.0636363636363637</v>
+        <v>1.0739130434782607</v>
       </c>
       <c r="H4" s="91">
-        <v>890</v>
+        <v>1.05</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(D4,2)</f>
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="J4" s="33">
         <f>-H4</f>
-        <v>-890</v>
+        <v>-1.05</v>
       </c>
       <c r="K4" s="103">
         <f>H4*C4-H4</f>
-        <v>1068.0000000000002</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="71" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="98" t="b">
@@ -3974,32 +4073,40 @@
       </c>
       <c r="E5" s="107">
         <f>SUM(E3:E4)</f>
-        <v>6.3636363636363713E-2</v>
+        <v>7.3913043478260776E-2</v>
       </c>
       <c r="F5" s="108">
         <f>SUM(F3:F4)</f>
-        <v>6.3636363636363713E-2</v>
+        <v>7.3913043478260665E-2</v>
       </c>
       <c r="I5" s="99" t="s">
         <v>239</v>
       </c>
       <c r="J5" s="100">
         <f>SUM(J3:J4)</f>
-        <v>60</v>
+        <v>-0.15000000000000013</v>
       </c>
       <c r="K5" s="101">
         <f>SUM(K3:K4)</f>
-        <v>68.000000000000227</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E6">
-        <f>C3-1-C3/C4</f>
-        <v>6.3636363636363713E-2</v>
-      </c>
-      <c r="F6">
-        <f>C4-1-C4/C3</f>
-        <v>7.1794871794871762E-2</v>
+      <c r="B6" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="128">
+        <f>1/C3+1/C4-1</f>
+        <v>-3.8901601830663601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="128">
+        <f>E5/SUM(D3:D4)</f>
+        <v>4.0476190476190423E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4009,11 +4116,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q260"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M251" sqref="M251:M260"/>
+      <pane ySplit="2" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12861,15 +12968,15 @@
         <v>16</v>
       </c>
       <c r="J243" s="63">
-        <f t="shared" ref="J243:J260" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
+        <f t="shared" ref="J243:J265" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
         <v>-20</v>
       </c>
       <c r="L243" s="39">
-        <f t="shared" ref="L243:L260" si="48">ROUND(-K243*J243, 2)</f>
+        <f t="shared" ref="L243:L265" si="48">ROUND(-K243*J243, 2)</f>
         <v>0</v>
       </c>
       <c r="M243" s="40">
-        <f t="shared" ref="M243:M260" si="49">J243+L243</f>
+        <f t="shared" ref="M243:M265" si="49">J243+L243</f>
         <v>-20</v>
       </c>
     </row>
@@ -13423,6 +13530,174 @@
       <c r="M260" s="66">
         <f t="shared" si="49"/>
         <v>5.6499999999999986</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" s="28">
+        <v>43496</v>
+      </c>
+      <c r="B261" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D261" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="F261" s="6">
+        <v>5</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J261" s="63">
+        <f t="shared" si="47"/>
+        <v>4.3500000000000014</v>
+      </c>
+      <c r="L261" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M261" s="40">
+        <f t="shared" si="49"/>
+        <v>4.3500000000000014</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="31">
+        <v>43496</v>
+      </c>
+      <c r="B262" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D262" s="50">
+        <v>1.74</v>
+      </c>
+      <c r="E262" s="50"/>
+      <c r="F262" s="32">
+        <v>5</v>
+      </c>
+      <c r="G262" s="57"/>
+      <c r="H262" s="58"/>
+      <c r="I262" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J262" s="45">
+        <f t="shared" si="47"/>
+        <v>3.6999999999999993</v>
+      </c>
+      <c r="K262" s="33"/>
+      <c r="L262" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M262" s="66">
+        <f t="shared" si="49"/>
+        <v>3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" s="28">
+        <v>43497</v>
+      </c>
+      <c r="B263" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D263" s="5">
+        <v>2</v>
+      </c>
+      <c r="F263" s="6">
+        <v>25</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J263" s="63">
+        <f t="shared" si="47"/>
+        <v>25</v>
+      </c>
+      <c r="L263" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M263" s="40">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" s="28">
+        <v>43497</v>
+      </c>
+      <c r="B264" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D264" s="5">
+        <v>10</v>
+      </c>
+      <c r="F264" s="6">
+        <v>5</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J264" s="63">
+        <f t="shared" si="47"/>
+        <v>-5</v>
+      </c>
+      <c r="L264" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M264" s="40">
+        <f t="shared" si="49"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="31">
+        <v>43497</v>
+      </c>
+      <c r="B265" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="D265" s="50">
+        <v>5.75</v>
+      </c>
+      <c r="E265" s="50"/>
+      <c r="F265" s="32">
+        <v>10</v>
+      </c>
+      <c r="G265" s="57"/>
+      <c r="H265" s="58"/>
+      <c r="I265" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J265" s="45">
+        <f t="shared" si="47"/>
+        <v>-10</v>
+      </c>
+      <c r="K265" s="33"/>
+      <c r="L265" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M265" s="66">
+        <f t="shared" si="49"/>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
@@ -13468,7 +13743,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C260">
+  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C265">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -13511,7 +13786,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13619,11 +13894,11 @@
       </c>
       <c r="D4" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>2292.8000000000002</v>
+        <v>2317.8000000000002</v>
       </c>
       <c r="E4" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" si="0"/>
@@ -13631,15 +13906,15 @@
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-509.41000000000008</v>
+        <v>-484.41000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>115.58999999999992</v>
+        <v>140.58999999999992</v>
       </c>
       <c r="I4" s="125">
         <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>0.52830188679245282</v>
+        <v>0.53125</v>
       </c>
       <c r="K4" s="69">
         <v>43456</v>
@@ -13660,11 +13935,11 @@
       </c>
       <c r="D5" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1676.8</v>
+        <v>1701.8</v>
       </c>
       <c r="E5" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
@@ -13672,15 +13947,15 @@
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>398.58000000000004</v>
+        <v>391.63000000000005</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>274.78000000000003</v>
+        <v>267.83000000000004</v>
       </c>
       <c r="I5" s="126">
         <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>0.5393258426966292</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="K5" s="69">
         <v>43461</v>
@@ -13708,11 +13983,11 @@
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>20.919999999999959</v>
+        <v>38.96999999999997</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>490.82999999999993</v>
+        <v>508.87999999999994</v>
       </c>
       <c r="I6" s="39"/>
       <c r="K6" s="69">

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108149EE-0278-4118-8E60-0B4B41C6A95E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0B6FE-E8A5-44CD-8E7B-23CC00F31C54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -23,8 +23,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$42</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$42</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$44</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$42</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$44</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="285">
   <si>
     <t>Market</t>
   </si>
@@ -924,6 +926,12 @@
   </si>
   <si>
     <t>Mac City draw Arsenal</t>
+  </si>
+  <si>
+    <t>Marvin Bagley over 7.5 REB</t>
+  </si>
+  <si>
+    <t>Marvin Magley under 7.5 REB</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1624,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1629,7 +1637,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2634,39 +2642,39 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <f>COUNTA(Master!A:A)-1</f>
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C3" s="20">
         <f>SUM(Master!F:F)</f>
-        <v>4234.92</v>
+        <v>4734.92</v>
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>46.350000000000037</v>
+        <v>58.850000000000023</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>38.970000000000041</v>
+        <v>51.470000000000027</v>
       </c>
       <c r="F3" s="129">
         <f>E3/C3</f>
-        <v>9.202062848884994E-3</v>
+        <v>1.08702998149916E-2</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H3" s="2">
         <f>COUNTIF(Master!$I:$I, H2)</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I3" s="27">
         <f>G3/SUM(G3:H3)</f>
-        <v>0.53612167300380231</v>
+        <v>0.53584905660377358</v>
       </c>
       <c r="J3" s="86">
         <f>SUMPRODUCT(Master!F:F, Master!D:D)/SUM(Master!F:F)</f>
-        <v>1.9062438015358016</v>
+        <v>1.9230082028841031</v>
       </c>
     </row>
   </sheetData>
@@ -2676,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
-  <dimension ref="B18:K43"/>
+  <dimension ref="B18:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3750,6 +3758,47 @@
       <c r="K43" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B43, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B43)</f>
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="15">
+        <v>43500</v>
+      </c>
+      <c r="C44" s="14">
+        <f>COUNTIF(Master!A:A,'Day by Day'!B44)</f>
+        <v>2</v>
+      </c>
+      <c r="D44" s="16">
+        <f>SUMIFS(Master!F:F,Master!A:A, 'Day by Day'!B44)</f>
+        <v>500</v>
+      </c>
+      <c r="E44" s="16">
+        <f>SUMIFS(Master!H:H,Master!A:A,'Day by Day'!B44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B44)</f>
+        <v>12.5</v>
+      </c>
+      <c r="G44" s="16">
+        <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B44)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" ref="I44" si="24">IFERROR(H44/D44,0)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J44" s="13">
+        <f>SUM($H$19:H44)</f>
+        <v>51.469999999999985</v>
+      </c>
+      <c r="K44" s="12">
+        <f>COUNTIFS(Master!A:A, 'Day by Day'!B44, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B44)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4116,11 +4165,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C5EB38-0E05-412E-AA6C-435877CED8A2}">
-  <dimension ref="A1:Q265"/>
+  <dimension ref="A1:Q267"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
+      <selection pane="bottomLeft" activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12968,15 +13017,15 @@
         <v>16</v>
       </c>
       <c r="J243" s="63">
-        <f t="shared" ref="J243:J265" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
+        <f t="shared" ref="J243:J267" si="47">IF(I243="", 0, IF(I243="Win", F243*D243-F243, -F243))</f>
         <v>-20</v>
       </c>
       <c r="L243" s="39">
-        <f t="shared" ref="L243:L265" si="48">ROUND(-K243*J243, 2)</f>
+        <f t="shared" ref="L243:L267" si="48">ROUND(-K243*J243, 2)</f>
         <v>0</v>
       </c>
       <c r="M243" s="40">
-        <f t="shared" ref="M243:M265" si="49">J243+L243</f>
+        <f t="shared" ref="M243:M267" si="49">J243+L243</f>
         <v>-20</v>
       </c>
     </row>
@@ -13698,6 +13747,70 @@
       <c r="M265" s="66">
         <f t="shared" si="49"/>
         <v>-10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" s="28">
+        <v>43500</v>
+      </c>
+      <c r="B266" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D266" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F266" s="6">
+        <v>250</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J266" s="63">
+        <f t="shared" si="47"/>
+        <v>262.5</v>
+      </c>
+      <c r="L266" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M266" s="40">
+        <f t="shared" si="49"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" s="28">
+        <v>43500</v>
+      </c>
+      <c r="B267" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D267" s="5">
+        <v>2.08</v>
+      </c>
+      <c r="F267" s="6">
+        <v>250</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J267" s="63">
+        <f t="shared" si="47"/>
+        <v>-250</v>
+      </c>
+      <c r="L267" s="39">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M267" s="40">
+        <f t="shared" si="49"/>
+        <v>-250</v>
       </c>
     </row>
   </sheetData>
@@ -13743,7 +13856,7 @@
       <formula>"Betfair"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C265">
+  <conditionalFormatting sqref="C172:C185 C188:C239 C241:C243 C245 C247:C267">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Ladbrokes"</formula>
     </cfRule>
@@ -13783,10 +13896,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75010285-E9F1-4DFB-A98F-37EE84445692}">
-  <dimension ref="B2:O13"/>
+  <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13894,27 +14007,27 @@
       </c>
       <c r="D4" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B4)</f>
-        <v>2317.8000000000002</v>
+        <v>2567.8000000000002</v>
       </c>
       <c r="E4" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F4" s="39">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-484.41000000000008</v>
+        <v>-734.41000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>140.58999999999992</v>
+        <v>40.589999999999918</v>
       </c>
       <c r="I4" s="125">
         <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>0.53125</v>
+        <v>0.52795031055900621</v>
       </c>
       <c r="K4" s="69">
         <v>43456</v>
@@ -13935,11 +14048,11 @@
       </c>
       <c r="D5" s="72">
         <f>SUMIFS(Master!F:F,Master!B:B,Exchange!B5)</f>
-        <v>1701.8</v>
+        <v>1951.8</v>
       </c>
       <c r="E5" s="74">
         <f>COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F5" s="39">
         <f t="shared" si="0"/>
@@ -13947,15 +14060,15 @@
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>391.63000000000005</v>
+        <v>654.13000000000011</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>267.83000000000004</v>
+        <v>530.33000000000015</v>
       </c>
       <c r="I5" s="126">
         <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>0.5376344086021505</v>
+        <v>0.54255319148936165</v>
       </c>
       <c r="K5" s="69">
         <v>43461</v>
@@ -13979,15 +14092,15 @@
       <c r="E6" s="73"/>
       <c r="F6" s="41">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>142</v>
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>38.96999999999997</v>
+        <v>51.470000000000027</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>508.87999999999994</v>
+        <v>671.38</v>
       </c>
       <c r="I6" s="39"/>
       <c r="K6" s="69">
@@ -14086,6 +14199,17 @@
       </c>
       <c r="N13" s="13">
         <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K14" s="69">
+        <v>43500</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="13">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Bets.xlsx
+++ b/Bets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\github\nba_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D0B6FE-E8A5-44CD-8E7B-23CC00F31C54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351C073F-672B-4347-B8BC-0F6A5B56E21C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{2A9291FE-3680-40F6-A028-104B01FB4D86}"/>
   </bookViews>
@@ -22,11 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Master!$A$2:$N$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$42</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$B$19:$B$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Day by Day'!$H$19:$H$42</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Day by Day'!$H$19:$H$44</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Day by Day'!$B$19:$B$44</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Day by Day'!$H$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Day by Day'!$H$19:$H$44</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Cross!$C$6,Cross!$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
@@ -1624,10 +1622,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1637,7 +1635,7 @@
         <cx:series layoutId="waterfall" uniqueId="{A02B1098-E631-4E5D-8703-8B01B02E2E08}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v> Net profit </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2650,15 +2648,15 @@
       </c>
       <c r="D3" s="20">
         <f>SUM(Master!J:J)</f>
-        <v>58.850000000000023</v>
+        <v>66.350000000000023</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(Master!M:M)</f>
-        <v>51.470000000000027</v>
+        <v>58.970000000000027</v>
       </c>
       <c r="F3" s="129">
         <f>E3/C3</f>
-        <v>1.08702998149916E-2</v>
+        <v>1.2454275890616954E-2</v>
       </c>
       <c r="G3" s="45">
         <f>COUNTIF(Master!$I:$I, G2)</f>
@@ -2686,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A4DC74-5C2D-4463-A37B-252BAD15DE0C}">
   <dimension ref="B18:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3778,7 +3776,7 @@
       </c>
       <c r="F44" s="16">
         <f>SUMIFS(Master!J:J,Master!A:A,'Day by Day'!B44)</f>
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="G44" s="16">
         <f>SUMIFS(Master!L:L,Master!A:A,'Day by Day'!B44)</f>
@@ -3786,15 +3784,15 @@
       </c>
       <c r="H44" s="16">
         <f>SUMIFS(Master!M:M,Master!A:A,'Day by Day'!B44)</f>
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" ref="I44" si="24">IFERROR(H44/D44,0)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J44" s="13">
         <f>SUM($H$19:H44)</f>
-        <v>51.469999999999985</v>
+        <v>58.969999999999985</v>
       </c>
       <c r="K44" s="12">
         <f>COUNTIFS(Master!A:A, 'Day by Day'!B44, Master!I:I, "Win")/COUNTIFS(Master!A:A, 'Day by Day'!B44)</f>
@@ -13766,11 +13764,11 @@
         <v>250</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J266" s="63">
         <f t="shared" si="47"/>
-        <v>262.5</v>
+        <v>-250</v>
       </c>
       <c r="L266" s="39">
         <f t="shared" si="48"/>
@@ -13778,7 +13776,7 @@
       </c>
       <c r="M266" s="40">
         <f t="shared" si="49"/>
-        <v>262.5</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -13798,11 +13796,11 @@
         <v>250</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J267" s="63">
         <f t="shared" si="47"/>
-        <v>-250</v>
+        <v>270</v>
       </c>
       <c r="L267" s="39">
         <f t="shared" si="48"/>
@@ -13810,7 +13808,7 @@
       </c>
       <c r="M267" s="40">
         <f t="shared" si="49"/>
-        <v>-250</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -14019,15 +14017,15 @@
       </c>
       <c r="G4" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B4)</f>
-        <v>-734.41000000000008</v>
+        <v>-214.41000000000008</v>
       </c>
       <c r="H4" s="72">
         <f t="shared" si="1"/>
-        <v>40.589999999999918</v>
+        <v>560.58999999999992</v>
       </c>
       <c r="I4" s="125">
         <f>COUNTIFS(Master!B:B,Exchange!B4,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B4)</f>
-        <v>0.52795031055900621</v>
+        <v>0.53416149068322982</v>
       </c>
       <c r="K4" s="69">
         <v>43456</v>
@@ -14060,15 +14058,15 @@
       </c>
       <c r="G5" s="72">
         <f>SUMIFS(Master!M:M, Master!B:B,Exchange!B5)</f>
-        <v>654.13000000000011</v>
+        <v>141.63000000000005</v>
       </c>
       <c r="H5" s="72">
         <f t="shared" ref="H5:H6" si="2">SUM(C5,F5,G5)</f>
-        <v>530.33000000000015</v>
+        <v>17.830000000000055</v>
       </c>
       <c r="I5" s="126">
         <f>COUNTIFS(Master!B:B,Exchange!B5,Master!I:I,"Win")/COUNTIF(Master!B:B,Exchange!B5)</f>
-        <v>0.54255319148936165</v>
+        <v>0.53191489361702127</v>
       </c>
       <c r="K5" s="69">
         <v>43461</v>
@@ -14096,11 +14094,11 @@
       </c>
       <c r="G6" s="73">
         <f t="shared" si="3"/>
-        <v>51.470000000000027</v>
+        <v>58.96999999999997</v>
       </c>
       <c r="H6" s="73">
         <f t="shared" si="2"/>
-        <v>671.38</v>
+        <v>678.87999999999988</v>
       </c>
       <c r="I6" s="39"/>
       <c r="K6" s="69">
